--- a/fcst_results/with_outlier_detection_series_IAH-Dom_results.xlsx
+++ b/fcst_results/with_outlier_detection_series_IAH-Dom_results.xlsx
@@ -469,13 +469,13 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>1331025.501595043</v>
+        <v>1362543.525582106</v>
       </c>
       <c r="C2" t="n">
         <v>1059394.021332119</v>
       </c>
       <c r="D2" t="n">
-        <v>1082029.978020696</v>
+        <v>1084656.480019618</v>
       </c>
     </row>
     <row r="3">
@@ -483,13 +483,13 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>1312260.695396671</v>
+        <v>1297484.736831436</v>
       </c>
       <c r="C3" t="n">
         <v>1021326.424940827</v>
       </c>
       <c r="D3" t="n">
-        <v>1045570.947478814</v>
+        <v>1044339.617598378</v>
       </c>
     </row>
     <row r="4">
@@ -497,13 +497,13 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>1358254.225198427</v>
+        <v>1367107.159338091</v>
       </c>
       <c r="C4" t="n">
         <v>1078110.198521585</v>
       </c>
       <c r="D4" t="n">
-        <v>1101455.534077989</v>
+        <v>1102193.278589627</v>
       </c>
     </row>
     <row r="5">
@@ -511,13 +511,13 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>1279507.972270743</v>
+        <v>1248263.113079313</v>
       </c>
       <c r="C5" t="n">
         <v>955751.8014022527</v>
       </c>
       <c r="D5" t="n">
-        <v>982731.4823079603</v>
+        <v>980127.7440420078</v>
       </c>
     </row>
     <row r="6">
@@ -525,13 +525,13 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>1229291.255438166</v>
+        <v>1208496.874531507</v>
       </c>
       <c r="C6" t="n">
         <v>886281.7059433123</v>
       </c>
       <c r="D6" t="n">
-        <v>914865.8350678834</v>
+        <v>913132.9699923284</v>
       </c>
     </row>
     <row r="7">
@@ -539,13 +539,13 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>1399773.157384824</v>
+        <v>1228521.867582959</v>
       </c>
       <c r="C7" t="n">
         <v>1072435.866081811</v>
       </c>
       <c r="D7" t="n">
-        <v>1099713.973690395</v>
+        <v>1085443.032873573</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>1387547.519438357</v>
+        <v>1111213.734870369</v>
       </c>
       <c r="C8" t="n">
         <v>986594.4689829341</v>
       </c>
       <c r="D8" t="n">
-        <v>1020007.223187553</v>
+        <v>996979.4078068871</v>
       </c>
     </row>
     <row r="9">
@@ -567,13 +567,13 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>1464037.106501002</v>
+        <v>1168657.906727111</v>
       </c>
       <c r="C9" t="n">
         <v>1071384.40145081</v>
       </c>
       <c r="D9" t="n">
-        <v>1104105.460204993</v>
+        <v>1079490.526890502</v>
       </c>
     </row>
     <row r="10">
@@ -581,13 +581,13 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>1525150.71989241</v>
+        <v>1222669.247916553</v>
       </c>
       <c r="C10" t="n">
         <v>1118289.305303811</v>
       </c>
       <c r="D10" t="n">
-        <v>1152194.423186194</v>
+        <v>1126987.633854873</v>
       </c>
     </row>
     <row r="11">
@@ -595,13 +595,13 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>1599360.523484806</v>
+        <v>1265257.394401344</v>
       </c>
       <c r="C11" t="n">
         <v>1177819.84521507</v>
       </c>
       <c r="D11" t="n">
-        <v>1212948.235070881</v>
+        <v>1185106.307647259</v>
       </c>
     </row>
     <row r="12">
@@ -609,13 +609,13 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>1533839.190034813</v>
+        <v>1204943.240085223</v>
       </c>
       <c r="C12" t="n">
         <v>1077561.424905194</v>
       </c>
       <c r="D12" t="n">
-        <v>1115584.571999329</v>
+        <v>1088176.576170197</v>
       </c>
     </row>
     <row r="13">
@@ -623,13 +623,13 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>1441907.105467975</v>
+        <v>1109447.465668535</v>
       </c>
       <c r="C13" t="n">
         <v>874216.0202022789</v>
       </c>
       <c r="D13" t="n">
-        <v>921523.6106410869</v>
+        <v>893818.6406578002</v>
       </c>
     </row>
     <row r="14">
@@ -637,13 +637,13 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>1552978.305826688</v>
+        <v>1233716.480796511</v>
       </c>
       <c r="C14" t="n">
         <v>1017859.838652016</v>
       </c>
       <c r="D14" t="n">
-        <v>1062453.044249906</v>
+        <v>1035847.892164058</v>
       </c>
     </row>
     <row r="15">
@@ -651,13 +651,13 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>1530785.044045614</v>
+        <v>1199002.060418891</v>
       </c>
       <c r="C15" t="n">
         <v>979519.0212297447</v>
       </c>
       <c r="D15" t="n">
-        <v>1025457.8564644</v>
+        <v>997809.2744955068</v>
       </c>
     </row>
     <row r="16">
@@ -665,13 +665,13 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>1571649.82879179</v>
+        <v>1244876.56371017</v>
       </c>
       <c r="C16" t="n">
         <v>1039223.304268836</v>
       </c>
       <c r="D16" t="n">
-        <v>1083592.181312416</v>
+        <v>1056361.075888947</v>
       </c>
     </row>
     <row r="17">
@@ -679,13 +679,13 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>1493768.099278946</v>
+        <v>1152469.854211559</v>
       </c>
       <c r="C17" t="n">
         <v>913232.0334501064</v>
       </c>
       <c r="D17" t="n">
-        <v>961610.038935843</v>
+        <v>933168.5185135608</v>
       </c>
     </row>
     <row r="18">
@@ -693,13 +693,13 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>1443754.049369292</v>
+        <v>1101257.070790514</v>
       </c>
       <c r="C18" t="n">
         <v>844309.5314834224</v>
       </c>
       <c r="D18" t="n">
-        <v>894263.2413072448</v>
+        <v>865721.82642568</v>
       </c>
     </row>
     <row r="19">
@@ -707,13 +707,13 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>1599590.470710179</v>
+        <v>1165234.925086463</v>
       </c>
       <c r="C19" t="n">
         <v>1021645.141915679</v>
       </c>
       <c r="D19" t="n">
-        <v>1069807.252648554</v>
+        <v>1033610.957179911</v>
       </c>
     </row>
     <row r="20">
@@ -721,13 +721,13 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>1584219.325312214</v>
+        <v>1065176.539253185</v>
       </c>
       <c r="C20" t="n">
         <v>946602.0188888895</v>
       </c>
       <c r="D20" t="n">
-        <v>999736.7944241664</v>
+        <v>956483.2289192474</v>
       </c>
     </row>
     <row r="21">
@@ -735,13 +735,13 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>1654635.359386325</v>
+        <v>1134243.057104141</v>
       </c>
       <c r="C21" t="n">
         <v>1034337.788137424</v>
       </c>
       <c r="D21" t="n">
-        <v>1086029.252408165</v>
+        <v>1042663.227217984</v>
       </c>
     </row>
     <row r="22">
@@ -749,13 +749,13 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>1709412.871618719</v>
+        <v>1194616.167920876</v>
       </c>
       <c r="C22" t="n">
         <v>1076034.125668235</v>
       </c>
       <c r="D22" t="n">
-        <v>1128815.687830775</v>
+        <v>1085915.962522621</v>
       </c>
     </row>
     <row r="23">
@@ -763,13 +763,13 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>1776177.878602653</v>
+        <v>1265641.418870761</v>
       </c>
       <c r="C23" t="n">
         <v>1134555.158472738</v>
       </c>
       <c r="D23" t="n">
-        <v>1188023.718483564</v>
+        <v>1145479.013505906</v>
       </c>
     </row>
     <row r="24">
@@ -777,13 +777,13 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>1714911.784276969</v>
+        <v>1192005.955186675</v>
       </c>
       <c r="C24" t="n">
         <v>1031493.865847124</v>
       </c>
       <c r="D24" t="n">
-        <v>1088445.359049611</v>
+        <v>1044869.873292087</v>
       </c>
     </row>
     <row r="25">
@@ -791,13 +791,13 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>1627157.60422817</v>
+        <v>1106800.385487695</v>
       </c>
       <c r="C25" t="n">
         <v>831354.5510622642</v>
       </c>
       <c r="D25" t="n">
-        <v>897671.4721594231</v>
+        <v>854308.3705977168</v>
       </c>
     </row>
     <row r="26">
@@ -805,13 +805,13 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>1731687.601814819</v>
+        <v>1224077.687402087</v>
       </c>
       <c r="C26" t="n">
         <v>976357.0027499916</v>
       </c>
       <c r="D26" t="n">
-        <v>1039301.219338727</v>
+        <v>997000.3931376662</v>
       </c>
     </row>
     <row r="27">
@@ -819,13 +819,13 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>1709861.139171662</v>
+        <v>1191939.594358101</v>
       </c>
       <c r="C27" t="n">
         <v>937766.8226765177</v>
       </c>
       <c r="D27" t="n">
-        <v>1002108.01571778</v>
+        <v>958947.8869833163</v>
       </c>
     </row>
     <row r="28">
@@ -833,13 +833,13 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>1747984.693024858</v>
+        <v>1235214.500991492</v>
       </c>
       <c r="C28" t="n">
         <v>1000264.359884916</v>
       </c>
       <c r="D28" t="n">
-        <v>1062574.387646578</v>
+        <v>1019843.538310464</v>
       </c>
     </row>
     <row r="29">
@@ -847,13 +847,13 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>1673494.383031549</v>
+        <v>1148439.866523126</v>
       </c>
       <c r="C29" t="n">
         <v>870637.0820465512</v>
       </c>
       <c r="D29" t="n">
-        <v>937541.8571286342</v>
+        <v>893787.3140862656</v>
       </c>
     </row>
     <row r="30">
@@ -861,13 +861,13 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>1625530.564442332</v>
+        <v>1100028.594745684</v>
       </c>
       <c r="C30" t="n">
         <v>802274.0844835463</v>
       </c>
       <c r="D30" t="n">
-        <v>870878.7911467784</v>
+        <v>827086.9603387244</v>
       </c>
     </row>
     <row r="31">
@@ -875,13 +875,13 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>1773008.656910361</v>
+        <v>1160920.422970089</v>
       </c>
       <c r="C31" t="n">
         <v>1004246.384669165</v>
       </c>
       <c r="D31" t="n">
-        <v>1068309.907355931</v>
+        <v>1017302.554527575</v>
       </c>
     </row>
     <row r="32">
@@ -889,13 +889,13 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>1758049.358058791</v>
+        <v>1066389.923809128</v>
       </c>
       <c r="C32" t="n">
         <v>897442.4182520788</v>
       </c>
       <c r="D32" t="n">
-        <v>969159.6632359715</v>
+        <v>911521.3770484995</v>
       </c>
     </row>
     <row r="33">
@@ -903,13 +903,13 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>1824561.64056225</v>
+        <v>1132011.578403084</v>
       </c>
       <c r="C33" t="n">
         <v>975604.4323480254</v>
       </c>
       <c r="D33" t="n">
-        <v>1046350.866365877</v>
+        <v>988638.3611859469</v>
       </c>
     </row>
     <row r="34">
@@ -917,13 +917,13 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>1876274.43288798</v>
+        <v>1189092.379540866</v>
       </c>
       <c r="C34" t="n">
         <v>1032605.251593481</v>
       </c>
       <c r="D34" t="n">
-        <v>1102911.016701356</v>
+        <v>1045645.845589096</v>
       </c>
     </row>
     <row r="35">
@@ -931,13 +931,13 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>1939402.085503987</v>
+        <v>1256502.097072194</v>
       </c>
       <c r="C35" t="n">
         <v>1094105.625289167</v>
       </c>
       <c r="D35" t="n">
-        <v>1164546.996973735</v>
+        <v>1107638.664604419</v>
       </c>
     </row>
     <row r="36">
@@ -945,13 +945,13 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>1881046.258289042</v>
+        <v>1186974.879885253</v>
       </c>
       <c r="C36" t="n">
         <v>999788.0468959517</v>
       </c>
       <c r="D36" t="n">
-        <v>1073226.231178709</v>
+        <v>1015386.94964506</v>
       </c>
     </row>
     <row r="37">
@@ -959,13 +959,13 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>1797578.259324757</v>
+        <v>1106714.549615789</v>
       </c>
       <c r="C37" t="n">
         <v>790548.9054309719</v>
       </c>
       <c r="D37" t="n">
-        <v>874468.0182554539</v>
+        <v>816896.0424463733</v>
       </c>
     </row>
     <row r="38">
@@ -973,13 +973,13 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>1896633.6429022</v>
+        <v>1217585.430672991</v>
       </c>
       <c r="C38" t="n">
         <v>931118.3196223878</v>
       </c>
       <c r="D38" t="n">
-        <v>1011577.929895705</v>
+        <v>954990.5788766046</v>
       </c>
     </row>
     <row r="39">
@@ -987,13 +987,13 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>1875783.566284779</v>
+        <v>1187426.763642997</v>
       </c>
       <c r="C39" t="n">
         <v>893348.28025191</v>
       </c>
       <c r="D39" t="n">
-        <v>975217.8874213158</v>
+        <v>917854.8205345005</v>
       </c>
     </row>
   </sheetData>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['LS2001Sep', 'AO2008Sep', 'LS2017Aug', 'AO2020Mar', 'LS2020Apr', 'LS2020Aug', 'LS2020Sep']</t>
+          <t>['AO2008Sep', 'AO2020Mar']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1220,19 +1220,19 @@
         <v>74</v>
       </c>
       <c r="K2" t="n">
-        <v>376424.5856952528</v>
+        <v>370740.8225946535</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5991647442342084</v>
+        <v>0.5928780476861272</v>
       </c>
       <c r="M2" t="n">
-        <v>207844.3846102824</v>
+        <v>208168.6871757993</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.2090407900597002</v>
+        <v>-0.1728050015482328</v>
       </c>
       <c r="O2" t="n">
-        <v>1204542.306655983</v>
+        <v>1176119.876709157</v>
       </c>
       <c r="P2" t="n">
         <v>1208889</v>
@@ -1241,7 +1241,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>417403.2456200218</v>
+        <v>289976.5339319778</v>
       </c>
       <c r="S2" t="n">
         <v>182936.3018116131</v>
@@ -1262,16 +1262,16 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>376424.5856952528</v>
+        <v>370740.8225946535</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.5991647442342084</v>
+        <v>0.5928780476861272</v>
       </c>
       <c r="AE2" t="n">
-        <v>207844.3846102824</v>
+        <v>208168.6871757993</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.2090407900597002</v>
+        <v>-0.1728050015482328</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -1309,19 +1309,19 @@
         <v>74</v>
       </c>
       <c r="K3" t="n">
-        <v>381579.6258212684</v>
+        <v>375362.8986933861</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6054659959009286</v>
+        <v>0.598074860485433</v>
       </c>
       <c r="M3" t="n">
-        <v>208850.059244134</v>
+        <v>208027.5580749169</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.2423825607041317</v>
+        <v>-0.2022303279237188</v>
       </c>
       <c r="O3" t="n">
-        <v>1229315.948204767</v>
+        <v>1200473.872298265</v>
       </c>
       <c r="P3" t="n">
         <v>1208889</v>
@@ -1330,19 +1330,19 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>385239.5510997846</v>
+        <v>253552.7115504543</v>
       </c>
       <c r="S3" t="n">
-        <v>167782.8561421982</v>
+        <v>170114.5204284222</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1692222798647076</v>
+        <v>0.1722099946793443</v>
       </c>
       <c r="U3" t="n">
-        <v>102948.0240741984</v>
+        <v>103531.0451956474</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4654655130550224</v>
+        <v>0.4505055195597585</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -1359,16 +1359,16 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>381579.6258212684</v>
+        <v>375362.8986933861</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.6054659959009286</v>
+        <v>0.598074860485433</v>
       </c>
       <c r="AE3" t="n">
-        <v>208850.059244134</v>
+        <v>208027.5580749169</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.2423825607041317</v>
+        <v>-0.2022303279237188</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['LS2001Sep', 'AO2008Sep', 'LS2017Aug', 'AO2020Mar', 'LS2020Apr', 'LS2020Aug', 'LS2020Sep']</t>
+          <t>['AO2008Sep', 'AO2020Mar']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1416,19 +1416,19 @@
         <v>74</v>
       </c>
       <c r="K4" t="n">
-        <v>460388.7101138256</v>
+        <v>447498.0265450639</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7303467027338566</v>
+        <v>0.7081330839095865</v>
       </c>
       <c r="M4" t="n">
-        <v>293133.6316302859</v>
+        <v>275087.6652225971</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.8085658296082137</v>
+        <v>-0.7087055885027387</v>
       </c>
       <c r="O4" t="n">
-        <v>1501826.005241396</v>
+        <v>1468367.823778454</v>
       </c>
       <c r="P4" t="n">
         <v>1208889</v>
@@ -1437,19 +1437,19 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>283182.3623737304</v>
+        <v>234695.9181336119</v>
       </c>
       <c r="S4" t="n">
-        <v>110013.5788228728</v>
+        <v>127176.6795928844</v>
       </c>
       <c r="T4" t="n">
-        <v>0.05480377012712088</v>
+        <v>0.08413938774521502</v>
       </c>
       <c r="U4" t="n">
-        <v>61015.45123977738</v>
+        <v>68230.54843864081</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7701877632696197</v>
+        <v>0.6928888898051344</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -1458,16 +1458,16 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>460388.7101138256</v>
+        <v>447498.0265450639</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.7303467027338566</v>
+        <v>0.7081330839095865</v>
       </c>
       <c r="AE4" t="n">
-        <v>293133.6316302859</v>
+        <v>275087.6652225971</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.8085658296082137</v>
+        <v>-0.7087055885027387</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -5294,13 +5294,13 @@
         <v>1371694</v>
       </c>
       <c r="C2" t="n">
-        <v>1378593.745157709</v>
+        <v>1376148.522909221</v>
       </c>
       <c r="D2" t="n">
-        <v>1385616.856031115</v>
+        <v>1382775.272490175</v>
       </c>
       <c r="E2" t="n">
-        <v>1462871.075638586</v>
+        <v>1455669.517880668</v>
       </c>
     </row>
     <row r="3">
@@ -5311,13 +5311,13 @@
         <v>1248898</v>
       </c>
       <c r="C3" t="n">
-        <v>1174382.844227811</v>
+        <v>1165630.330634289</v>
       </c>
       <c r="D3" t="n">
-        <v>1188896.814235413</v>
+        <v>1179227.903138842</v>
       </c>
       <c r="E3" t="n">
-        <v>1348550.484319027</v>
+        <v>1328801.200688919</v>
       </c>
     </row>
     <row r="4">
@@ -5328,13 +5328,13 @@
         <v>1402365</v>
       </c>
       <c r="C4" t="n">
-        <v>1304817.393735069</v>
+        <v>1294972.922095759</v>
       </c>
       <c r="D4" t="n">
-        <v>1314911.805437657</v>
+        <v>1304771.844609479</v>
       </c>
       <c r="E4" t="n">
-        <v>1425950.334166125</v>
+        <v>1412559.992260406</v>
       </c>
     </row>
     <row r="5">
@@ -5345,13 +5345,13 @@
         <v>1358981</v>
       </c>
       <c r="C5" t="n">
-        <v>1270256.49439864</v>
+        <v>1260313.354302777</v>
       </c>
       <c r="D5" t="n">
-        <v>1280231.339970093</v>
+        <v>1269812.60326022</v>
       </c>
       <c r="E5" t="n">
-        <v>1389954.64125607</v>
+        <v>1374304.341792092</v>
       </c>
     </row>
     <row r="6">
@@ -5362,13 +5362,13 @@
         <v>1397123</v>
       </c>
       <c r="C6" t="n">
-        <v>1336963.649014157</v>
+        <v>1327959.76311871</v>
       </c>
       <c r="D6" t="n">
-        <v>1345095.079480514</v>
+        <v>1335649.051840012</v>
       </c>
       <c r="E6" t="n">
-        <v>1434540.814610437</v>
+        <v>1420231.227774339</v>
       </c>
     </row>
     <row r="7">
@@ -5379,13 +5379,13 @@
         <v>1258130</v>
       </c>
       <c r="C7" t="n">
-        <v>1204190.679168649</v>
+        <v>1196039.620422354</v>
       </c>
       <c r="D7" t="n">
-        <v>1216546.637983277</v>
+        <v>1207740.288886065</v>
       </c>
       <c r="E7" t="n">
-        <v>1352462.184944182</v>
+        <v>1336447.641986891</v>
       </c>
     </row>
     <row r="8">
@@ -5396,13 +5396,13 @@
         <v>1174589</v>
       </c>
       <c r="C8" t="n">
-        <v>1164218.018340296</v>
+        <v>1157810.455889636</v>
       </c>
       <c r="D8" t="n">
-        <v>1175785.13745148</v>
+        <v>1168310.022284613</v>
       </c>
       <c r="E8" t="n">
-        <v>1303023.447674505</v>
+        <v>1283805.252629357</v>
       </c>
     </row>
     <row r="9">
@@ -5413,13 +5413,13 @@
         <v>1304802</v>
       </c>
       <c r="C9" t="n">
-        <v>1378102.032356499</v>
+        <v>1373778.219582925</v>
       </c>
       <c r="D9" t="n">
-        <v>1384006.888310896</v>
+        <v>1379185.521829995</v>
       </c>
       <c r="E9" t="n">
-        <v>1448960.303809266</v>
+        <v>1438665.846547764</v>
       </c>
     </row>
     <row r="10">
@@ -5430,13 +5430,13 @@
         <v>1229416</v>
       </c>
       <c r="C10" t="n">
-        <v>1321462.012446757</v>
+        <v>1315625.618178183</v>
       </c>
       <c r="D10" t="n">
-        <v>1328339.470453405</v>
+        <v>1322001.444902853</v>
       </c>
       <c r="E10" t="n">
-        <v>1403991.508526534</v>
+        <v>1392135.538874224</v>
       </c>
     </row>
     <row r="11">
@@ -5447,13 +5447,13 @@
         <v>1341370</v>
       </c>
       <c r="C11" t="n">
-        <v>1371652.717024044</v>
+        <v>1367652.772494277</v>
       </c>
       <c r="D11" t="n">
-        <v>1379570.903352932</v>
+        <v>1375143.629988386</v>
       </c>
       <c r="E11" t="n">
-        <v>1466670.952970696</v>
+        <v>1457543.062423585</v>
       </c>
     </row>
     <row r="12">
@@ -5464,13 +5464,13 @@
         <v>1389216</v>
       </c>
       <c r="C12" t="n">
-        <v>1426123.244051516</v>
+        <v>1423180.591758823</v>
       </c>
       <c r="D12" t="n">
-        <v>1432097.899885897</v>
+        <v>1428833.689136157</v>
       </c>
       <c r="E12" t="n">
-        <v>1497819.114064086</v>
+        <v>1491017.760286829</v>
       </c>
     </row>
     <row r="13">
@@ -5481,13 +5481,13 @@
         <v>1382725</v>
       </c>
       <c r="C13" t="n">
-        <v>1472747.815280744</v>
+        <v>1473095.658900252</v>
       </c>
       <c r="D13" t="n">
-        <v>1477790.815587925</v>
+        <v>1477735.483188444</v>
       </c>
       <c r="E13" t="n">
-        <v>1533263.818966914</v>
+        <v>1528773.55035856</v>
       </c>
     </row>
     <row r="14">
@@ -5498,13 +5498,13 @@
         <v>1287874</v>
       </c>
       <c r="C14" t="n">
-        <v>1407489.313117928</v>
+        <v>1410546.044716714</v>
       </c>
       <c r="D14" t="n">
-        <v>1414307.723816431</v>
+        <v>1416318.949113634</v>
       </c>
       <c r="E14" t="n">
-        <v>1489310.241499961</v>
+        <v>1479820.897479754</v>
       </c>
     </row>
     <row r="15">
@@ -5515,13 +5515,13 @@
         <v>1206037</v>
       </c>
       <c r="C15" t="n">
-        <v>1166953.168500957</v>
+        <v>1148690.29014524</v>
       </c>
       <c r="D15" t="n">
-        <v>1185202.707646834</v>
+        <v>1166551.369733604</v>
       </c>
       <c r="E15" t="n">
-        <v>1385947.63825149</v>
+        <v>1363023.245205605</v>
       </c>
     </row>
     <row r="16">
@@ -5532,13 +5532,13 @@
         <v>1304495</v>
       </c>
       <c r="C16" t="n">
-        <v>1319201.106186662</v>
+        <v>1305105.347360705</v>
       </c>
       <c r="D16" t="n">
-        <v>1330275.790932709</v>
+        <v>1315915.96642728</v>
       </c>
       <c r="E16" t="n">
-        <v>1452097.323139227</v>
+        <v>1434832.776159606</v>
       </c>
     </row>
     <row r="17">
@@ -5549,13 +5549,13 @@
         <v>1250473</v>
       </c>
       <c r="C17" t="n">
-        <v>1278526.440274484</v>
+        <v>1265591.942468012</v>
       </c>
       <c r="D17" t="n">
-        <v>1290486.283648302</v>
+        <v>1277045.982317631</v>
       </c>
       <c r="E17" t="n">
-        <v>1422044.560760297</v>
+        <v>1403040.420663447</v>
       </c>
     </row>
     <row r="18">
@@ -5566,13 +5566,13 @@
         <v>1306926</v>
       </c>
       <c r="C18" t="n">
-        <v>1339182.206340663</v>
+        <v>1326044.201590279</v>
       </c>
       <c r="D18" t="n">
-        <v>1349321.333523396</v>
+        <v>1335825.913279175</v>
       </c>
       <c r="E18" t="n">
-        <v>1460851.732533461</v>
+        <v>1443424.74185703</v>
       </c>
     </row>
     <row r="19">
@@ -5583,13 +5583,13 @@
         <v>1218332</v>
       </c>
       <c r="C19" t="n">
-        <v>1224990.326817328</v>
+        <v>1218434.487783812</v>
       </c>
       <c r="D19" t="n">
-        <v>1238693.725351164</v>
+        <v>1231067.835061087</v>
       </c>
       <c r="E19" t="n">
-        <v>1389431.109223362</v>
+        <v>1370034.655111108</v>
       </c>
     </row>
     <row r="20">
@@ -5600,13 +5600,13 @@
         <v>1119025</v>
       </c>
       <c r="C20" t="n">
-        <v>1137526.058434201</v>
+        <v>1130855.669943316</v>
       </c>
       <c r="D20" t="n">
-        <v>1154965.097915349</v>
+        <v>1146974.938648788</v>
       </c>
       <c r="E20" t="n">
-        <v>1346794.532207972</v>
+        <v>1324286.894408981</v>
       </c>
     </row>
     <row r="21">
@@ -5617,13 +5617,13 @@
         <v>1326162</v>
       </c>
       <c r="C21" t="n">
-        <v>1379741.77023871</v>
+        <v>1372800.653566155</v>
       </c>
       <c r="D21" t="n">
-        <v>1387779.423928786</v>
+        <v>1380409.775675167</v>
       </c>
       <c r="E21" t="n">
-        <v>1476193.61451963</v>
+        <v>1464110.118874306</v>
       </c>
     </row>
     <row r="22">
@@ -5634,13 +5634,13 @@
         <v>1233070</v>
       </c>
       <c r="C22" t="n">
-        <v>1317040.107980321</v>
+        <v>1309993.072149362</v>
       </c>
       <c r="D22" t="n">
-        <v>1326865.981544086</v>
+        <v>1319173.133245292</v>
       </c>
       <c r="E22" t="n">
-        <v>1434950.590745498</v>
+        <v>1420153.805300528</v>
       </c>
     </row>
     <row r="23">
@@ -5651,13 +5651,13 @@
         <v>1363368</v>
       </c>
       <c r="C23" t="n">
-        <v>1384915.69056054</v>
+        <v>1379129.548733625</v>
       </c>
       <c r="D23" t="n">
-        <v>1393692.303165788</v>
+        <v>1387429.606316505</v>
       </c>
       <c r="E23" t="n">
-        <v>1490235.041823524</v>
+        <v>1478730.239728187</v>
       </c>
     </row>
     <row r="24">
@@ -5668,13 +5668,13 @@
         <v>1401174</v>
       </c>
       <c r="C24" t="n">
-        <v>1432699.920735316</v>
+        <v>1427715.701199155</v>
       </c>
       <c r="D24" t="n">
-        <v>1439761.210767233</v>
+        <v>1434430.262950614</v>
       </c>
       <c r="E24" t="n">
-        <v>1517435.401118318</v>
+        <v>1508290.44221666</v>
       </c>
     </row>
     <row r="25">
@@ -5685,13 +5685,13 @@
         <v>1418008</v>
       </c>
       <c r="C25" t="n">
-        <v>1485258.342992854</v>
+        <v>1481895.924233931</v>
       </c>
       <c r="D25" t="n">
-        <v>1490450.324301811</v>
+        <v>1486791.82968021</v>
       </c>
       <c r="E25" t="n">
-        <v>1547562.118700335</v>
+        <v>1540646.789589276</v>
       </c>
     </row>
     <row r="26">
@@ -5702,13 +5702,13 @@
         <v>1112493</v>
       </c>
       <c r="C26" t="n">
-        <v>1406730.870195101</v>
+        <v>1404585.221187362</v>
       </c>
       <c r="D26" t="n">
-        <v>1415154.923931194</v>
+        <v>1412189.794012438</v>
       </c>
       <c r="E26" t="n">
-        <v>1507819.515028215</v>
+        <v>1495840.095088269</v>
       </c>
     </row>
     <row r="27">
@@ -5719,13 +5719,13 @@
         <v>1023025</v>
       </c>
       <c r="C27" t="n">
-        <v>1178122.376733278</v>
+        <v>1159651.557564707</v>
       </c>
       <c r="D27" t="n">
-        <v>1197750.155331177</v>
+        <v>1178621.248318497</v>
       </c>
       <c r="E27" t="n">
-        <v>1413655.719908059</v>
+        <v>1387287.84661018</v>
       </c>
     </row>
     <row r="28">
@@ -5736,13 +5736,13 @@
         <v>1298780</v>
       </c>
       <c r="C28" t="n">
-        <v>1323279.404984214</v>
+        <v>1307299.708918281</v>
       </c>
       <c r="D28" t="n">
-        <v>1335830.546589117</v>
+        <v>1319526.726313626</v>
       </c>
       <c r="E28" t="n">
-        <v>1473893.104243051</v>
+        <v>1454023.917662416</v>
       </c>
     </row>
     <row r="29">
@@ -5753,13 +5753,13 @@
         <v>1310910</v>
       </c>
       <c r="C29" t="n">
-        <v>1284524.434854107</v>
+        <v>1269285.263288299</v>
       </c>
       <c r="D29" t="n">
-        <v>1298024.903863298</v>
+        <v>1282217.593392198</v>
       </c>
       <c r="E29" t="n">
-        <v>1446530.062964409</v>
+        <v>1424473.224535098</v>
       </c>
     </row>
     <row r="30">
@@ -5770,13 +5770,13 @@
         <v>1371367</v>
       </c>
       <c r="C30" t="n">
-        <v>1347289.631558476</v>
+        <v>1332245.347942456</v>
       </c>
       <c r="D30" t="n">
-        <v>1358503.740224857</v>
+        <v>1343059.21030529</v>
       </c>
       <c r="E30" t="n">
-        <v>1481858.935555059</v>
+        <v>1462011.696296465</v>
       </c>
     </row>
     <row r="31">
@@ -5787,13 +5787,13 @@
         <v>1186117</v>
       </c>
       <c r="C31" t="n">
-        <v>1226724.364562084</v>
+        <v>1216343.085600328</v>
       </c>
       <c r="D31" t="n">
-        <v>1242567.491337532</v>
+        <v>1231130.616200446</v>
       </c>
       <c r="E31" t="n">
-        <v>1416841.885867466</v>
+        <v>1393793.452801744</v>
       </c>
     </row>
     <row r="32">
@@ -5804,13 +5804,13 @@
         <v>1154994</v>
       </c>
       <c r="C32" t="n">
-        <v>1155173.454128003</v>
+        <v>1145256.910344996</v>
       </c>
       <c r="D32" t="n">
-        <v>1173744.700571068</v>
+        <v>1162424.633121825</v>
       </c>
       <c r="E32" t="n">
-        <v>1378028.411444779</v>
+        <v>1351269.583666943</v>
       </c>
     </row>
     <row r="33">
@@ -5821,13 +5821,13 @@
         <v>1374882</v>
       </c>
       <c r="C33" t="n">
-        <v>1381076.569305588</v>
+        <v>1371556.063170246</v>
       </c>
       <c r="D33" t="n">
-        <v>1390638.93053933</v>
+        <v>1380696.335284073</v>
       </c>
       <c r="E33" t="n">
-        <v>1495824.904110499</v>
+        <v>1481239.328536167</v>
       </c>
     </row>
     <row r="34">
@@ -5838,13 +5838,13 @@
         <v>1359171</v>
       </c>
       <c r="C34" t="n">
-        <v>1312755.882044897</v>
+        <v>1304516.391249469</v>
       </c>
       <c r="D34" t="n">
-        <v>1324882.886995769</v>
+        <v>1315838.413599845</v>
       </c>
       <c r="E34" t="n">
-        <v>1458279.941455361</v>
+        <v>1440380.659453974</v>
       </c>
     </row>
     <row r="35">
@@ -5855,13 +5855,13 @@
         <v>1432452</v>
       </c>
       <c r="C35" t="n">
-        <v>1398356.462495516</v>
+        <v>1390761.369287851</v>
       </c>
       <c r="D35" t="n">
-        <v>1407544.03331046</v>
+        <v>1399433.684769803</v>
       </c>
       <c r="E35" t="n">
-        <v>1508607.312274842</v>
+        <v>1494829.155071273</v>
       </c>
     </row>
     <row r="36">
@@ -5872,13 +5872,13 @@
         <v>1511298</v>
       </c>
       <c r="C36" t="n">
-        <v>1439287.163792967</v>
+        <v>1432217.196128451</v>
       </c>
       <c r="D36" t="n">
-        <v>1447127.296205432</v>
+        <v>1439724.614874798</v>
       </c>
       <c r="E36" t="n">
-        <v>1533368.752742545</v>
+        <v>1522306.221084624</v>
       </c>
     </row>
     <row r="37">
@@ -5889,13 +5889,13 @@
         <v>1557029</v>
       </c>
       <c r="C37" t="n">
-        <v>1497619.545568015</v>
+        <v>1490510.710297385</v>
       </c>
       <c r="D37" t="n">
-        <v>1502884.09669321</v>
+        <v>1495666.683181571</v>
       </c>
       <c r="E37" t="n">
-        <v>1560794.15907035</v>
+        <v>1552382.384907612</v>
       </c>
     </row>
     <row r="38">
@@ -5906,13 +5906,13 @@
         <v>1458131</v>
       </c>
       <c r="C38" t="n">
-        <v>1405903.101629106</v>
+        <v>1398605.278466223</v>
       </c>
       <c r="D38" t="n">
-        <v>1415795.766048671</v>
+        <v>1407949.277105317</v>
       </c>
       <c r="E38" t="n">
-        <v>1524615.074663877</v>
+        <v>1510733.26213535</v>
       </c>
     </row>
     <row r="39">
@@ -5923,13 +5923,13 @@
         <v>1270202</v>
       </c>
       <c r="C39" t="n">
-        <v>1189406.283981144</v>
+        <v>1170789.064656615</v>
       </c>
       <c r="D39" t="n">
-        <v>1210196.966406083</v>
+        <v>1190709.20902907</v>
       </c>
       <c r="E39" t="n">
-        <v>1438894.473080405</v>
+        <v>1409830.797126073</v>
       </c>
     </row>
     <row r="40">
@@ -5940,13 +5940,13 @@
         <v>1417738</v>
       </c>
       <c r="C40" t="n">
-        <v>1327290.967604859</v>
+        <v>1309411.660364245</v>
       </c>
       <c r="D40" t="n">
-        <v>1341160.943167992</v>
+        <v>1322949.347981013</v>
       </c>
       <c r="E40" t="n">
-        <v>1493730.674362455</v>
+        <v>1471863.911765464</v>
       </c>
     </row>
     <row r="41">
@@ -5957,13 +5957,13 @@
         <v>1397043</v>
       </c>
       <c r="C41" t="n">
-        <v>1290574.137819505</v>
+        <v>1273015.107194557</v>
       </c>
       <c r="D41" t="n">
-        <v>1305428.054606704</v>
+        <v>1287296.822010003</v>
       </c>
       <c r="E41" t="n">
-        <v>1468821.139265901</v>
+        <v>1444395.684979899</v>
       </c>
     </row>
     <row r="42">
@@ -5974,13 +5974,13 @@
         <v>1404491</v>
       </c>
       <c r="C42" t="n">
-        <v>1355356.797241589</v>
+        <v>1338373.442318517</v>
       </c>
       <c r="D42" t="n">
-        <v>1367492.251611068</v>
+        <v>1350116.38744206</v>
       </c>
       <c r="E42" t="n">
-        <v>1500982.249675337</v>
+        <v>1479288.783801042</v>
       </c>
     </row>
     <row r="43">
@@ -5991,13 +5991,13 @@
         <v>1314022</v>
       </c>
       <c r="C43" t="n">
-        <v>1228596.848286561</v>
+        <v>1214366.051721307</v>
       </c>
       <c r="D43" t="n">
-        <v>1246363.356894126</v>
+        <v>1231158.709649997</v>
       </c>
       <c r="E43" t="n">
-        <v>1441794.951577342</v>
+        <v>1415877.946865592</v>
       </c>
     </row>
     <row r="44">
@@ -6008,13 +6008,13 @@
         <v>1220092</v>
       </c>
       <c r="C44" t="n">
-        <v>1172881.507837601</v>
+        <v>1159734.890070217</v>
       </c>
       <c r="D44" t="n">
-        <v>1192346.52268805</v>
+        <v>1177786.213940692</v>
       </c>
       <c r="E44" t="n">
-        <v>1406461.686042991</v>
+        <v>1376350.776515919</v>
       </c>
     </row>
     <row r="45">
@@ -6025,13 +6025,13 @@
         <v>1492492</v>
       </c>
       <c r="C45" t="n">
-        <v>1382112.353643844</v>
+        <v>1370050.173126294</v>
       </c>
       <c r="D45" t="n">
-        <v>1393077.654184062</v>
+        <v>1380642.777526553</v>
       </c>
       <c r="E45" t="n">
-        <v>1513695.96012647</v>
+        <v>1497161.425929402</v>
       </c>
     </row>
     <row r="46">
@@ -6042,13 +6042,13 @@
         <v>1415841</v>
       </c>
       <c r="C46" t="n">
-        <v>1308621.784309381</v>
+        <v>1299206.212212802</v>
       </c>
       <c r="D46" t="n">
-        <v>1322863.09105813</v>
+        <v>1312537.536807621</v>
       </c>
       <c r="E46" t="n">
-        <v>1479517.465294368</v>
+        <v>1459182.107350628</v>
       </c>
     </row>
     <row r="47">
@@ -6059,13 +6059,13 @@
         <v>1514742</v>
       </c>
       <c r="C47" t="n">
-        <v>1411968.953821096</v>
+        <v>1402540.819723442</v>
       </c>
       <c r="D47" t="n">
-        <v>1421415.893843463</v>
+        <v>1411478.548417601</v>
       </c>
       <c r="E47" t="n">
-        <v>1525332.234089499</v>
+        <v>1509793.564053354</v>
       </c>
     </row>
     <row r="48">
@@ -6076,13 +6076,13 @@
         <v>1519625</v>
       </c>
       <c r="C48" t="n">
-        <v>1445880.910263828</v>
+        <v>1436680.682019009</v>
       </c>
       <c r="D48" t="n">
-        <v>1454380.287810536</v>
+        <v>1444901.816372629</v>
       </c>
       <c r="E48" t="n">
-        <v>1547873.440824325</v>
+        <v>1535334.294262451</v>
       </c>
     </row>
     <row r="49">
@@ -6093,13 +6093,13 @@
         <v>1555592</v>
       </c>
       <c r="C49" t="n">
-        <v>1509826.65659182</v>
+        <v>1498937.473381454</v>
       </c>
       <c r="D49" t="n">
-        <v>1515077.747626614</v>
+        <v>1504300.264042011</v>
       </c>
       <c r="E49" t="n">
-        <v>1572839.749009345</v>
+        <v>1563290.961308136</v>
       </c>
     </row>
     <row r="50">
@@ -6110,13 +6110,13 @@
         <v>1463393</v>
       </c>
       <c r="C50" t="n">
-        <v>1405013.675080349</v>
+        <v>1392616.842053582</v>
       </c>
       <c r="D50" t="n">
-        <v>1416254.590573515</v>
+        <v>1403613.51297299</v>
       </c>
       <c r="E50" t="n">
-        <v>1539904.66099834</v>
+        <v>1524576.893086476</v>
       </c>
     </row>
     <row r="51">
@@ -6127,13 +6127,13 @@
         <v>1261890</v>
       </c>
       <c r="C51" t="n">
-        <v>1200802.774150497</v>
+        <v>1182098.649778706</v>
       </c>
       <c r="D51" t="n">
-        <v>1222558.392495795</v>
+        <v>1202822.522613689</v>
       </c>
       <c r="E51" t="n">
-        <v>1461870.194294069</v>
+        <v>1430785.123798495</v>
       </c>
     </row>
     <row r="52">
@@ -6144,13 +6144,13 @@
         <v>1467633</v>
       </c>
       <c r="C52" t="n">
-        <v>1331237.323657735</v>
+        <v>1311441.241240155</v>
       </c>
       <c r="D52" t="n">
-        <v>1346283.339137829</v>
+        <v>1326191.696468334</v>
       </c>
       <c r="E52" t="n">
-        <v>1511789.50941887</v>
+        <v>1488446.703978303</v>
       </c>
     </row>
     <row r="53">
@@ -6161,13 +6161,13 @@
         <v>1370563</v>
       </c>
       <c r="C53" t="n">
-        <v>1296676.424321334</v>
+        <v>1276781.67344721</v>
       </c>
       <c r="D53" t="n">
-        <v>1312712.846207485</v>
+        <v>1292292.716500604</v>
       </c>
       <c r="E53" t="n">
-        <v>1489113.486955143</v>
+        <v>1462914.190087935</v>
       </c>
     </row>
     <row r="54">
@@ -6178,13 +6178,13 @@
         <v>1504928</v>
       </c>
       <c r="C54" t="n">
-        <v>1363383.578936864</v>
+        <v>1344428.08226315</v>
       </c>
       <c r="D54" t="n">
-        <v>1376300.853398243</v>
+        <v>1357004.770240868</v>
       </c>
       <c r="E54" t="n">
-        <v>1518390.872473416</v>
+        <v>1495348.337995763</v>
       </c>
     </row>
     <row r="55">
@@ -6195,13 +6195,13 @@
         <v>1364156</v>
       </c>
       <c r="C55" t="n">
-        <v>1230610.609091348</v>
+        <v>1212507.939566786</v>
       </c>
       <c r="D55" t="n">
-        <v>1250102.27512402</v>
+        <v>1231166.121683054</v>
       </c>
       <c r="E55" t="n">
-        <v>1464510.60148341</v>
+        <v>1436406.124962012</v>
       </c>
     </row>
     <row r="56">
@@ -6212,13 +6212,13 @@
         <v>1285706</v>
       </c>
       <c r="C56" t="n">
-        <v>1190637.948263003</v>
+        <v>1174278.775034076</v>
       </c>
       <c r="D56" t="n">
-        <v>1210780.243576385</v>
+        <v>1193060.91653903</v>
       </c>
       <c r="E56" t="n">
-        <v>1432345.492023597</v>
+        <v>1399664.473093523</v>
       </c>
     </row>
     <row r="57">
@@ -6229,13 +6229,13 @@
         <v>772175</v>
       </c>
       <c r="C57" t="n">
-        <v>1404521.962279176</v>
+        <v>1390246.538727337</v>
       </c>
       <c r="D57" t="n">
-        <v>1414975.516131028</v>
+        <v>1400389.450291354</v>
       </c>
       <c r="E57" t="n">
-        <v>1529964.608501395</v>
+        <v>1511961.477495534</v>
       </c>
     </row>
     <row r="58">
@@ -6246,13 +6246,13 @@
         <v>77286</v>
       </c>
       <c r="C58" t="n">
-        <v>1347881.942369472</v>
+        <v>1332093.937322628</v>
       </c>
       <c r="D58" t="n">
-        <v>1360462.674444297</v>
+        <v>1344140.992442808</v>
       </c>
       <c r="E58" t="n">
-        <v>1498850.727267365</v>
+        <v>1476658.598764795</v>
       </c>
     </row>
     <row r="59">
@@ -6263,13 +6263,13 @@
         <v>166444</v>
       </c>
       <c r="C59" t="n">
-        <v>1398072.646946763</v>
+        <v>1384121.091638725</v>
       </c>
       <c r="D59" t="n">
-        <v>1409946.386063533</v>
+        <v>1395752.952039698</v>
       </c>
       <c r="E59" t="n">
-        <v>1540557.516348006</v>
+        <v>1523703.416450412</v>
       </c>
     </row>
     <row r="60">
@@ -6280,13 +6280,13 @@
         <v>264643</v>
       </c>
       <c r="C60" t="n">
-        <v>1452543.173974232</v>
+        <v>1439648.910903273</v>
       </c>
       <c r="D60" t="n">
-        <v>1461587.706687503</v>
+        <v>1448631.85718962</v>
       </c>
       <c r="E60" t="n">
-        <v>1561077.566533492</v>
+        <v>1547444.266339441</v>
       </c>
     </row>
     <row r="61">
@@ -6297,13 +6297,13 @@
         <v>428883</v>
       </c>
       <c r="C61" t="n">
-        <v>1499167.745203418</v>
+        <v>1489563.978044646</v>
       </c>
       <c r="D61" t="n">
-        <v>1506220.872397183</v>
+        <v>1496552.879843051</v>
       </c>
       <c r="E61" t="n">
-        <v>1583805.271528601</v>
+        <v>1573430.799625507</v>
       </c>
     </row>
     <row r="62">
@@ -6314,13 +6314,13 @@
         <v>483007</v>
       </c>
       <c r="C62" t="n">
-        <v>1433909.243040613</v>
+        <v>1427014.363861147</v>
       </c>
       <c r="D62" t="n">
-        <v>1443902.081710943</v>
+        <v>1436216.912687735</v>
       </c>
       <c r="E62" t="n">
-        <v>1553823.307084566</v>
+        <v>1537444.949780202</v>
       </c>
     </row>
     <row r="63">
@@ -6331,13 +6331,13 @@
         <v>519640</v>
       </c>
       <c r="C63" t="n">
-        <v>1193373.098423675</v>
+        <v>1165158.609289701</v>
       </c>
       <c r="D63" t="n">
-        <v>1217490.823407715</v>
+        <v>1188917.290057939</v>
       </c>
       <c r="E63" t="n">
-        <v>1482785.798232153</v>
+        <v>1450262.778508557</v>
       </c>
     </row>
     <row r="64">
@@ -6348,13 +6348,13 @@
         <v>649593</v>
       </c>
       <c r="C64" t="n">
-        <v>1345621.036109335</v>
+        <v>1321573.666505107</v>
       </c>
       <c r="D64" t="n">
-        <v>1360838.374736294</v>
+        <v>1336764.268508996</v>
       </c>
       <c r="E64" t="n">
-        <v>1528229.099632845</v>
+        <v>1503860.890551784</v>
       </c>
     </row>
     <row r="65">
@@ -6365,13 +6365,13 @@
         <v>658643</v>
       </c>
       <c r="C65" t="n">
-        <v>1304946.370197209</v>
+        <v>1282060.26161248</v>
       </c>
       <c r="D65" t="n">
-        <v>1321833.032844633</v>
+        <v>1298565.879642227</v>
       </c>
       <c r="E65" t="n">
-        <v>1507586.321966289</v>
+        <v>1480127.677969442</v>
       </c>
     </row>
     <row r="66">
@@ -6382,13 +6382,13 @@
         <v>672566</v>
       </c>
       <c r="C66" t="n">
-        <v>1365602.136263365</v>
+        <v>1342512.520734719</v>
       </c>
       <c r="D66" t="n">
-        <v>1379655.170882209</v>
+        <v>1356492.823977468</v>
       </c>
       <c r="E66" t="n">
-        <v>1534238.551689491</v>
+        <v>1510276.159647699</v>
       </c>
     </row>
     <row r="67">
@@ -6399,13 +6399,13 @@
         <v>600143</v>
       </c>
       <c r="C67" t="n">
-        <v>1251410.256740029</v>
+        <v>1234902.806928234</v>
       </c>
       <c r="D67" t="n">
-        <v>1270891.856461611</v>
+        <v>1253284.878201247</v>
       </c>
       <c r="E67" t="n">
-        <v>1485189.453399012</v>
+        <v>1455487.662204387</v>
       </c>
     </row>
     <row r="68">
@@ -6416,13 +6416,13 @@
         <v>535741</v>
       </c>
       <c r="C68" t="n">
-        <v>1163945.988356913</v>
+        <v>1147323.989087756</v>
       </c>
       <c r="D68" t="n">
-        <v>1188276.191610927</v>
+        <v>1170158.259213474</v>
       </c>
       <c r="E68" t="n">
-        <v>1455908.427405081</v>
+        <v>1421335.230596381</v>
       </c>
     </row>
     <row r="69">
@@ -6433,13 +6433,13 @@
         <v>922854</v>
       </c>
       <c r="C69" t="n">
-        <v>1406161.700161434</v>
+        <v>1389268.972710606</v>
       </c>
       <c r="D69" t="n">
-        <v>1417712.769236557</v>
+        <v>1400639.771226808</v>
       </c>
       <c r="E69" t="n">
-        <v>1544774.52906291</v>
+        <v>1525718.554905023</v>
       </c>
     </row>
     <row r="70">
@@ -6450,13 +6450,13 @@
         <v>1014469</v>
       </c>
       <c r="C70" t="n">
-        <v>1343460.037903075</v>
+        <v>1326461.391293835</v>
       </c>
       <c r="D70" t="n">
-        <v>1357875.907490401</v>
+        <v>1340331.567409343</v>
       </c>
       <c r="E70" t="n">
-        <v>1516450.472950993</v>
+        <v>1492903.504679931</v>
       </c>
     </row>
     <row r="71">
@@ -6467,13 +6467,13 @@
         <v>1124904</v>
       </c>
       <c r="C71" t="n">
-        <v>1411335.620483252</v>
+        <v>1395597.867878081</v>
       </c>
       <c r="D71" t="n">
-        <v>1423259.120791406</v>
+        <v>1407350.79787989</v>
       </c>
       <c r="E71" t="n">
-        <v>1554417.624181099</v>
+        <v>1536633.027899793</v>
       </c>
     </row>
     <row r="72">
@@ -6484,13 +6484,13 @@
         <v>1290654</v>
       </c>
       <c r="C72" t="n">
-        <v>1459119.85065799</v>
+        <v>1444184.020343568</v>
       </c>
       <c r="D72" t="n">
-        <v>1468618.008499138</v>
+        <v>1453727.088381693</v>
       </c>
       <c r="E72" t="n">
-        <v>1573097.744751765</v>
+        <v>1558700.836801068</v>
       </c>
     </row>
     <row r="73">
@@ -6501,13 +6501,13 @@
         <v>1506711</v>
       </c>
       <c r="C73" t="n">
-        <v>1511678.272915637</v>
+        <v>1498364.243378448</v>
       </c>
       <c r="D73" t="n">
-        <v>1518520.714409105</v>
+        <v>1505405.229229142</v>
       </c>
       <c r="E73" t="n">
-        <v>1593787.570837252</v>
+        <v>1582856.073586781</v>
       </c>
     </row>
     <row r="74">
@@ -6518,13 +6518,13 @@
         <v>1327579</v>
       </c>
       <c r="C74" t="n">
-        <v>1433150.800117769</v>
+        <v>1421053.540331754</v>
       </c>
       <c r="D74" t="n">
-        <v>1444262.728294133</v>
+        <v>1431749.593795086</v>
       </c>
       <c r="E74" t="n">
-        <v>1566493.938234143</v>
+        <v>1549406.181891742</v>
       </c>
     </row>
     <row r="75">
@@ -6535,13 +6535,13 @@
         <v>1208889</v>
       </c>
       <c r="C75" t="n">
-        <v>1204542.306655983</v>
+        <v>1176119.876709157</v>
       </c>
       <c r="D75" t="n">
-        <v>1229315.948204767</v>
+        <v>1200473.872298265</v>
       </c>
       <c r="E75" t="n">
-        <v>1501826.005241396</v>
+        <v>1468367.823778454</v>
       </c>
     </row>
   </sheetData>
@@ -6598,13 +6598,13 @@
         <v>1371694</v>
       </c>
       <c r="C2" t="n">
-        <v>1378593.745157709</v>
+        <v>1376148.522909221</v>
       </c>
       <c r="D2" t="n">
-        <v>1385616.856031115</v>
+        <v>1382775.272490175</v>
       </c>
       <c r="E2" t="n">
-        <v>1462871.075638586</v>
+        <v>1455669.517880668</v>
       </c>
     </row>
     <row r="3">
@@ -6615,13 +6615,13 @@
         <v>1248898</v>
       </c>
       <c r="C3" t="n">
-        <v>1174382.844227811</v>
+        <v>1165630.330634289</v>
       </c>
       <c r="D3" t="n">
-        <v>1188896.814235413</v>
+        <v>1179227.903138842</v>
       </c>
       <c r="E3" t="n">
-        <v>1348550.484319027</v>
+        <v>1328801.200688919</v>
       </c>
     </row>
     <row r="4">
@@ -6632,13 +6632,13 @@
         <v>1402365</v>
       </c>
       <c r="C4" t="n">
-        <v>1304817.393735069</v>
+        <v>1294972.922095759</v>
       </c>
       <c r="D4" t="n">
-        <v>1314911.805437657</v>
+        <v>1304771.844609479</v>
       </c>
       <c r="E4" t="n">
-        <v>1425950.334166125</v>
+        <v>1412559.992260406</v>
       </c>
     </row>
     <row r="5">
@@ -6649,13 +6649,13 @@
         <v>1358981</v>
       </c>
       <c r="C5" t="n">
-        <v>1270256.49439864</v>
+        <v>1260313.354302777</v>
       </c>
       <c r="D5" t="n">
-        <v>1280231.339970093</v>
+        <v>1269812.60326022</v>
       </c>
       <c r="E5" t="n">
-        <v>1389954.64125607</v>
+        <v>1374304.341792092</v>
       </c>
     </row>
     <row r="6">
@@ -6666,13 +6666,13 @@
         <v>1397123</v>
       </c>
       <c r="C6" t="n">
-        <v>1336963.649014157</v>
+        <v>1327959.76311871</v>
       </c>
       <c r="D6" t="n">
-        <v>1345095.079480514</v>
+        <v>1335649.051840012</v>
       </c>
       <c r="E6" t="n">
-        <v>1434540.814610437</v>
+        <v>1420231.227774339</v>
       </c>
     </row>
     <row r="7">
@@ -6683,13 +6683,13 @@
         <v>1258130</v>
       </c>
       <c r="C7" t="n">
-        <v>1204190.679168649</v>
+        <v>1196039.620422354</v>
       </c>
       <c r="D7" t="n">
-        <v>1216546.637983277</v>
+        <v>1207740.288886065</v>
       </c>
       <c r="E7" t="n">
-        <v>1352462.184944182</v>
+        <v>1336447.641986891</v>
       </c>
     </row>
     <row r="8">
@@ -6700,13 +6700,13 @@
         <v>1174589</v>
       </c>
       <c r="C8" t="n">
-        <v>1164218.018340296</v>
+        <v>1157810.455889636</v>
       </c>
       <c r="D8" t="n">
-        <v>1175785.13745148</v>
+        <v>1168310.022284613</v>
       </c>
       <c r="E8" t="n">
-        <v>1303023.447674505</v>
+        <v>1283805.252629357</v>
       </c>
     </row>
     <row r="9">
@@ -6717,13 +6717,13 @@
         <v>1304802</v>
       </c>
       <c r="C9" t="n">
-        <v>1378102.032356499</v>
+        <v>1373778.219582925</v>
       </c>
       <c r="D9" t="n">
-        <v>1384006.888310896</v>
+        <v>1379185.521829995</v>
       </c>
       <c r="E9" t="n">
-        <v>1448960.303809266</v>
+        <v>1438665.846547764</v>
       </c>
     </row>
     <row r="10">
@@ -6734,13 +6734,13 @@
         <v>1229416</v>
       </c>
       <c r="C10" t="n">
-        <v>1321462.012446757</v>
+        <v>1315625.618178183</v>
       </c>
       <c r="D10" t="n">
-        <v>1328339.470453405</v>
+        <v>1322001.444902853</v>
       </c>
       <c r="E10" t="n">
-        <v>1403991.508526534</v>
+        <v>1392135.538874224</v>
       </c>
     </row>
     <row r="11">
@@ -6751,13 +6751,13 @@
         <v>1341370</v>
       </c>
       <c r="C11" t="n">
-        <v>1371652.717024044</v>
+        <v>1367652.772494277</v>
       </c>
       <c r="D11" t="n">
-        <v>1379570.903352932</v>
+        <v>1375143.629988386</v>
       </c>
       <c r="E11" t="n">
-        <v>1466670.952970696</v>
+        <v>1457543.062423585</v>
       </c>
     </row>
     <row r="12">
@@ -6768,13 +6768,13 @@
         <v>1389216</v>
       </c>
       <c r="C12" t="n">
-        <v>1426123.244051516</v>
+        <v>1423180.591758823</v>
       </c>
       <c r="D12" t="n">
-        <v>1432097.899885897</v>
+        <v>1428833.689136157</v>
       </c>
       <c r="E12" t="n">
-        <v>1497819.114064086</v>
+        <v>1491017.760286829</v>
       </c>
     </row>
     <row r="13">
@@ -6785,13 +6785,13 @@
         <v>1382725</v>
       </c>
       <c r="C13" t="n">
-        <v>1472747.815280744</v>
+        <v>1473095.658900252</v>
       </c>
       <c r="D13" t="n">
-        <v>1477790.815587925</v>
+        <v>1477735.483188444</v>
       </c>
       <c r="E13" t="n">
-        <v>1533263.818966914</v>
+        <v>1528773.55035856</v>
       </c>
     </row>
     <row r="14">
@@ -6802,13 +6802,13 @@
         <v>1287874</v>
       </c>
       <c r="C14" t="n">
-        <v>1407489.313117928</v>
+        <v>1410546.044716714</v>
       </c>
       <c r="D14" t="n">
-        <v>1414307.723816431</v>
+        <v>1416318.949113634</v>
       </c>
       <c r="E14" t="n">
-        <v>1489310.241499961</v>
+        <v>1479820.897479754</v>
       </c>
     </row>
     <row r="15">
@@ -6819,13 +6819,13 @@
         <v>1206037</v>
       </c>
       <c r="C15" t="n">
-        <v>1166953.168500957</v>
+        <v>1148690.29014524</v>
       </c>
       <c r="D15" t="n">
-        <v>1185202.707646834</v>
+        <v>1166551.369733604</v>
       </c>
       <c r="E15" t="n">
-        <v>1385947.63825149</v>
+        <v>1363023.245205605</v>
       </c>
     </row>
     <row r="16">
@@ -6836,13 +6836,13 @@
         <v>1304495</v>
       </c>
       <c r="C16" t="n">
-        <v>1319201.106186662</v>
+        <v>1305105.347360705</v>
       </c>
       <c r="D16" t="n">
-        <v>1330275.790932709</v>
+        <v>1315915.96642728</v>
       </c>
       <c r="E16" t="n">
-        <v>1452097.323139227</v>
+        <v>1434832.776159606</v>
       </c>
     </row>
     <row r="17">
@@ -6853,13 +6853,13 @@
         <v>1250473</v>
       </c>
       <c r="C17" t="n">
-        <v>1278526.440274484</v>
+        <v>1265591.942468012</v>
       </c>
       <c r="D17" t="n">
-        <v>1290486.283648302</v>
+        <v>1277045.982317631</v>
       </c>
       <c r="E17" t="n">
-        <v>1422044.560760297</v>
+        <v>1403040.420663447</v>
       </c>
     </row>
     <row r="18">
@@ -6870,13 +6870,13 @@
         <v>1306926</v>
       </c>
       <c r="C18" t="n">
-        <v>1339182.206340663</v>
+        <v>1326044.201590279</v>
       </c>
       <c r="D18" t="n">
-        <v>1349321.333523396</v>
+        <v>1335825.913279175</v>
       </c>
       <c r="E18" t="n">
-        <v>1460851.732533461</v>
+        <v>1443424.74185703</v>
       </c>
     </row>
     <row r="19">
@@ -6887,13 +6887,13 @@
         <v>1218332</v>
       </c>
       <c r="C19" t="n">
-        <v>1224990.326817328</v>
+        <v>1218434.487783812</v>
       </c>
       <c r="D19" t="n">
-        <v>1238693.725351164</v>
+        <v>1231067.835061087</v>
       </c>
       <c r="E19" t="n">
-        <v>1389431.109223362</v>
+        <v>1370034.655111108</v>
       </c>
     </row>
     <row r="20">
@@ -6904,13 +6904,13 @@
         <v>1119025</v>
       </c>
       <c r="C20" t="n">
-        <v>1137526.058434201</v>
+        <v>1130855.669943316</v>
       </c>
       <c r="D20" t="n">
-        <v>1154965.097915349</v>
+        <v>1146974.938648788</v>
       </c>
       <c r="E20" t="n">
-        <v>1346794.532207972</v>
+        <v>1324286.894408981</v>
       </c>
     </row>
     <row r="21">
@@ -6921,13 +6921,13 @@
         <v>1326162</v>
       </c>
       <c r="C21" t="n">
-        <v>1379741.77023871</v>
+        <v>1372800.653566155</v>
       </c>
       <c r="D21" t="n">
-        <v>1387779.423928786</v>
+        <v>1380409.775675167</v>
       </c>
       <c r="E21" t="n">
-        <v>1476193.61451963</v>
+        <v>1464110.118874306</v>
       </c>
     </row>
     <row r="22">
@@ -6938,13 +6938,13 @@
         <v>1233070</v>
       </c>
       <c r="C22" t="n">
-        <v>1317040.107980321</v>
+        <v>1309993.072149362</v>
       </c>
       <c r="D22" t="n">
-        <v>1326865.981544086</v>
+        <v>1319173.133245292</v>
       </c>
       <c r="E22" t="n">
-        <v>1434950.590745498</v>
+        <v>1420153.805300528</v>
       </c>
     </row>
     <row r="23">
@@ -6955,13 +6955,13 @@
         <v>1363368</v>
       </c>
       <c r="C23" t="n">
-        <v>1384915.69056054</v>
+        <v>1379129.548733625</v>
       </c>
       <c r="D23" t="n">
-        <v>1393692.303165788</v>
+        <v>1387429.606316505</v>
       </c>
       <c r="E23" t="n">
-        <v>1490235.041823524</v>
+        <v>1478730.239728187</v>
       </c>
     </row>
     <row r="24">
@@ -6972,13 +6972,13 @@
         <v>1401174</v>
       </c>
       <c r="C24" t="n">
-        <v>1432699.920735316</v>
+        <v>1427715.701199155</v>
       </c>
       <c r="D24" t="n">
-        <v>1439761.210767233</v>
+        <v>1434430.262950614</v>
       </c>
       <c r="E24" t="n">
-        <v>1517435.401118318</v>
+        <v>1508290.44221666</v>
       </c>
     </row>
     <row r="25">
@@ -6989,13 +6989,13 @@
         <v>1418008</v>
       </c>
       <c r="C25" t="n">
-        <v>1485258.342992854</v>
+        <v>1481895.924233931</v>
       </c>
       <c r="D25" t="n">
-        <v>1490450.324301811</v>
+        <v>1486791.82968021</v>
       </c>
       <c r="E25" t="n">
-        <v>1547562.118700335</v>
+        <v>1540646.789589276</v>
       </c>
     </row>
     <row r="26">
@@ -7006,13 +7006,13 @@
         <v>1112493</v>
       </c>
       <c r="C26" t="n">
-        <v>1406730.870195101</v>
+        <v>1404585.221187362</v>
       </c>
       <c r="D26" t="n">
-        <v>1415154.923931194</v>
+        <v>1412189.794012438</v>
       </c>
       <c r="E26" t="n">
-        <v>1507819.515028215</v>
+        <v>1495840.095088269</v>
       </c>
     </row>
     <row r="27">
@@ -7023,13 +7023,13 @@
         <v>1023025</v>
       </c>
       <c r="C27" t="n">
-        <v>1178122.376733278</v>
+        <v>1159651.557564707</v>
       </c>
       <c r="D27" t="n">
-        <v>1197750.155331177</v>
+        <v>1178621.248318497</v>
       </c>
       <c r="E27" t="n">
-        <v>1413655.719908059</v>
+        <v>1387287.84661018</v>
       </c>
     </row>
     <row r="28">
@@ -7040,13 +7040,13 @@
         <v>1298780</v>
       </c>
       <c r="C28" t="n">
-        <v>1323279.404984214</v>
+        <v>1307299.708918281</v>
       </c>
       <c r="D28" t="n">
-        <v>1335830.546589117</v>
+        <v>1319526.726313626</v>
       </c>
       <c r="E28" t="n">
-        <v>1473893.104243051</v>
+        <v>1454023.917662416</v>
       </c>
     </row>
     <row r="29">
@@ -7057,13 +7057,13 @@
         <v>1310910</v>
       </c>
       <c r="C29" t="n">
-        <v>1284524.434854107</v>
+        <v>1269285.263288299</v>
       </c>
       <c r="D29" t="n">
-        <v>1298024.903863298</v>
+        <v>1282217.593392198</v>
       </c>
       <c r="E29" t="n">
-        <v>1446530.062964409</v>
+        <v>1424473.224535098</v>
       </c>
     </row>
     <row r="30">
@@ -7074,13 +7074,13 @@
         <v>1371367</v>
       </c>
       <c r="C30" t="n">
-        <v>1347289.631558476</v>
+        <v>1332245.347942456</v>
       </c>
       <c r="D30" t="n">
-        <v>1358503.740224857</v>
+        <v>1343059.21030529</v>
       </c>
       <c r="E30" t="n">
-        <v>1481858.935555059</v>
+        <v>1462011.696296465</v>
       </c>
     </row>
     <row r="31">
@@ -7091,13 +7091,13 @@
         <v>1186117</v>
       </c>
       <c r="C31" t="n">
-        <v>1226724.364562084</v>
+        <v>1216343.085600328</v>
       </c>
       <c r="D31" t="n">
-        <v>1242567.491337532</v>
+        <v>1231130.616200446</v>
       </c>
       <c r="E31" t="n">
-        <v>1416841.885867466</v>
+        <v>1393793.452801744</v>
       </c>
     </row>
     <row r="32">
@@ -7108,13 +7108,13 @@
         <v>1154994</v>
       </c>
       <c r="C32" t="n">
-        <v>1155173.454128003</v>
+        <v>1145256.910344996</v>
       </c>
       <c r="D32" t="n">
-        <v>1173744.700571068</v>
+        <v>1162424.633121825</v>
       </c>
       <c r="E32" t="n">
-        <v>1378028.411444779</v>
+        <v>1351269.583666943</v>
       </c>
     </row>
     <row r="33">
@@ -7125,13 +7125,13 @@
         <v>1374882</v>
       </c>
       <c r="C33" t="n">
-        <v>1381076.569305588</v>
+        <v>1371556.063170246</v>
       </c>
       <c r="D33" t="n">
-        <v>1390638.93053933</v>
+        <v>1380696.335284073</v>
       </c>
       <c r="E33" t="n">
-        <v>1495824.904110499</v>
+        <v>1481239.328536167</v>
       </c>
     </row>
     <row r="34">
@@ -7142,13 +7142,13 @@
         <v>1359171</v>
       </c>
       <c r="C34" t="n">
-        <v>1312755.882044897</v>
+        <v>1304516.391249469</v>
       </c>
       <c r="D34" t="n">
-        <v>1324882.886995769</v>
+        <v>1315838.413599845</v>
       </c>
       <c r="E34" t="n">
-        <v>1458279.941455361</v>
+        <v>1440380.659453974</v>
       </c>
     </row>
     <row r="35">
@@ -7159,13 +7159,13 @@
         <v>1432452</v>
       </c>
       <c r="C35" t="n">
-        <v>1398356.462495516</v>
+        <v>1390761.369287851</v>
       </c>
       <c r="D35" t="n">
-        <v>1407544.03331046</v>
+        <v>1399433.684769803</v>
       </c>
       <c r="E35" t="n">
-        <v>1508607.312274842</v>
+        <v>1494829.155071273</v>
       </c>
     </row>
     <row r="36">
@@ -7176,13 +7176,13 @@
         <v>1511298</v>
       </c>
       <c r="C36" t="n">
-        <v>1439287.163792967</v>
+        <v>1432217.196128451</v>
       </c>
       <c r="D36" t="n">
-        <v>1447127.296205432</v>
+        <v>1439724.614874798</v>
       </c>
       <c r="E36" t="n">
-        <v>1533368.752742545</v>
+        <v>1522306.221084624</v>
       </c>
     </row>
     <row r="37">
@@ -7193,13 +7193,13 @@
         <v>1557029</v>
       </c>
       <c r="C37" t="n">
-        <v>1497619.545568015</v>
+        <v>1490510.710297385</v>
       </c>
       <c r="D37" t="n">
-        <v>1502884.09669321</v>
+        <v>1495666.683181571</v>
       </c>
       <c r="E37" t="n">
-        <v>1560794.15907035</v>
+        <v>1552382.384907612</v>
       </c>
     </row>
     <row r="38">
@@ -7210,13 +7210,13 @@
         <v>1458131</v>
       </c>
       <c r="C38" t="n">
-        <v>1405903.101629106</v>
+        <v>1398605.278466223</v>
       </c>
       <c r="D38" t="n">
-        <v>1415795.766048671</v>
+        <v>1407949.277105317</v>
       </c>
       <c r="E38" t="n">
-        <v>1524615.074663877</v>
+        <v>1510733.26213535</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         <v>1270202</v>
       </c>
       <c r="C39" t="n">
-        <v>1189406.283981144</v>
+        <v>1170789.064656615</v>
       </c>
       <c r="D39" t="n">
-        <v>1210196.966406083</v>
+        <v>1190709.20902907</v>
       </c>
       <c r="E39" t="n">
-        <v>1438894.473080405</v>
+        <v>1409830.797126073</v>
       </c>
     </row>
     <row r="40">
@@ -7244,13 +7244,13 @@
         <v>1417738</v>
       </c>
       <c r="C40" t="n">
-        <v>1327290.967604859</v>
+        <v>1309411.660364245</v>
       </c>
       <c r="D40" t="n">
-        <v>1341160.943167992</v>
+        <v>1322949.347981013</v>
       </c>
       <c r="E40" t="n">
-        <v>1493730.674362455</v>
+        <v>1471863.911765464</v>
       </c>
     </row>
     <row r="41">
@@ -7261,13 +7261,13 @@
         <v>1397043</v>
       </c>
       <c r="C41" t="n">
-        <v>1290574.137819505</v>
+        <v>1273015.107194557</v>
       </c>
       <c r="D41" t="n">
-        <v>1305428.054606704</v>
+        <v>1287296.822010003</v>
       </c>
       <c r="E41" t="n">
-        <v>1468821.139265901</v>
+        <v>1444395.684979899</v>
       </c>
     </row>
     <row r="42">
@@ -7278,13 +7278,13 @@
         <v>1404491</v>
       </c>
       <c r="C42" t="n">
-        <v>1355356.797241589</v>
+        <v>1338373.442318517</v>
       </c>
       <c r="D42" t="n">
-        <v>1367492.251611068</v>
+        <v>1350116.38744206</v>
       </c>
       <c r="E42" t="n">
-        <v>1500982.249675337</v>
+        <v>1479288.783801042</v>
       </c>
     </row>
     <row r="43">
@@ -7295,13 +7295,13 @@
         <v>1314022</v>
       </c>
       <c r="C43" t="n">
-        <v>1228596.848286561</v>
+        <v>1214366.051721307</v>
       </c>
       <c r="D43" t="n">
-        <v>1246363.356894126</v>
+        <v>1231158.709649997</v>
       </c>
       <c r="E43" t="n">
-        <v>1441794.951577342</v>
+        <v>1415877.946865592</v>
       </c>
     </row>
     <row r="44">
@@ -7312,13 +7312,13 @@
         <v>1220092</v>
       </c>
       <c r="C44" t="n">
-        <v>1172881.507837601</v>
+        <v>1159734.890070217</v>
       </c>
       <c r="D44" t="n">
-        <v>1192346.52268805</v>
+        <v>1177786.213940692</v>
       </c>
       <c r="E44" t="n">
-        <v>1406461.686042991</v>
+        <v>1376350.776515919</v>
       </c>
     </row>
     <row r="45">
@@ -7329,13 +7329,13 @@
         <v>1492492</v>
       </c>
       <c r="C45" t="n">
-        <v>1382112.353643844</v>
+        <v>1370050.173126294</v>
       </c>
       <c r="D45" t="n">
-        <v>1393077.654184062</v>
+        <v>1380642.777526553</v>
       </c>
       <c r="E45" t="n">
-        <v>1513695.96012647</v>
+        <v>1497161.425929402</v>
       </c>
     </row>
     <row r="46">
@@ -7346,13 +7346,13 @@
         <v>1415841</v>
       </c>
       <c r="C46" t="n">
-        <v>1308621.784309381</v>
+        <v>1299206.212212802</v>
       </c>
       <c r="D46" t="n">
-        <v>1322863.09105813</v>
+        <v>1312537.536807621</v>
       </c>
       <c r="E46" t="n">
-        <v>1479517.465294368</v>
+        <v>1459182.107350628</v>
       </c>
     </row>
     <row r="47">
@@ -7363,13 +7363,13 @@
         <v>1514742</v>
       </c>
       <c r="C47" t="n">
-        <v>1411968.953821096</v>
+        <v>1402540.819723442</v>
       </c>
       <c r="D47" t="n">
-        <v>1421415.893843463</v>
+        <v>1411478.548417601</v>
       </c>
       <c r="E47" t="n">
-        <v>1525332.234089499</v>
+        <v>1509793.564053354</v>
       </c>
     </row>
     <row r="48">
@@ -7380,13 +7380,13 @@
         <v>1519625</v>
       </c>
       <c r="C48" t="n">
-        <v>1445880.910263828</v>
+        <v>1436680.682019009</v>
       </c>
       <c r="D48" t="n">
-        <v>1454380.287810536</v>
+        <v>1444901.816372629</v>
       </c>
       <c r="E48" t="n">
-        <v>1547873.440824325</v>
+        <v>1535334.294262451</v>
       </c>
     </row>
     <row r="49">
@@ -7397,13 +7397,13 @@
         <v>1555592</v>
       </c>
       <c r="C49" t="n">
-        <v>1509826.65659182</v>
+        <v>1498937.473381454</v>
       </c>
       <c r="D49" t="n">
-        <v>1515077.747626614</v>
+        <v>1504300.264042011</v>
       </c>
       <c r="E49" t="n">
-        <v>1572839.749009345</v>
+        <v>1563290.961308136</v>
       </c>
     </row>
     <row r="50">
@@ -7414,13 +7414,13 @@
         <v>1463393</v>
       </c>
       <c r="C50" t="n">
-        <v>1405013.675080349</v>
+        <v>1392616.842053582</v>
       </c>
       <c r="D50" t="n">
-        <v>1416254.590573515</v>
+        <v>1403613.51297299</v>
       </c>
       <c r="E50" t="n">
-        <v>1539904.66099834</v>
+        <v>1524576.893086476</v>
       </c>
     </row>
     <row r="51">
@@ -7431,13 +7431,13 @@
         <v>1261890</v>
       </c>
       <c r="C51" t="n">
-        <v>1200802.774150497</v>
+        <v>1182098.649778706</v>
       </c>
       <c r="D51" t="n">
-        <v>1222558.392495795</v>
+        <v>1202822.522613689</v>
       </c>
       <c r="E51" t="n">
-        <v>1461870.194294069</v>
+        <v>1430785.123798495</v>
       </c>
     </row>
     <row r="52">
@@ -7448,13 +7448,13 @@
         <v>1467633</v>
       </c>
       <c r="C52" t="n">
-        <v>1331237.323657735</v>
+        <v>1311441.241240155</v>
       </c>
       <c r="D52" t="n">
-        <v>1346283.339137829</v>
+        <v>1326191.696468334</v>
       </c>
       <c r="E52" t="n">
-        <v>1511789.50941887</v>
+        <v>1488446.703978303</v>
       </c>
     </row>
     <row r="53">
@@ -7465,13 +7465,13 @@
         <v>1370563</v>
       </c>
       <c r="C53" t="n">
-        <v>1296676.424321334</v>
+        <v>1276781.67344721</v>
       </c>
       <c r="D53" t="n">
-        <v>1312712.846207485</v>
+        <v>1292292.716500604</v>
       </c>
       <c r="E53" t="n">
-        <v>1489113.486955143</v>
+        <v>1462914.190087935</v>
       </c>
     </row>
     <row r="54">
@@ -7482,13 +7482,13 @@
         <v>1504928</v>
       </c>
       <c r="C54" t="n">
-        <v>1363383.578936864</v>
+        <v>1344428.08226315</v>
       </c>
       <c r="D54" t="n">
-        <v>1376300.853398243</v>
+        <v>1357004.770240868</v>
       </c>
       <c r="E54" t="n">
-        <v>1518390.872473416</v>
+        <v>1495348.337995763</v>
       </c>
     </row>
     <row r="55">
@@ -7499,13 +7499,13 @@
         <v>1364156</v>
       </c>
       <c r="C55" t="n">
-        <v>1230610.609091348</v>
+        <v>1212507.939566786</v>
       </c>
       <c r="D55" t="n">
-        <v>1250102.27512402</v>
+        <v>1231166.121683054</v>
       </c>
       <c r="E55" t="n">
-        <v>1464510.60148341</v>
+        <v>1436406.124962012</v>
       </c>
     </row>
     <row r="56">
@@ -7516,13 +7516,13 @@
         <v>1285706</v>
       </c>
       <c r="C56" t="n">
-        <v>1190637.948263003</v>
+        <v>1174278.775034076</v>
       </c>
       <c r="D56" t="n">
-        <v>1210780.243576385</v>
+        <v>1193060.91653903</v>
       </c>
       <c r="E56" t="n">
-        <v>1432345.492023597</v>
+        <v>1399664.473093523</v>
       </c>
     </row>
     <row r="57">
@@ -7533,13 +7533,13 @@
         <v>772175</v>
       </c>
       <c r="C57" t="n">
-        <v>1404521.962279176</v>
+        <v>1390246.538727337</v>
       </c>
       <c r="D57" t="n">
-        <v>1414975.516131028</v>
+        <v>1400389.450291354</v>
       </c>
       <c r="E57" t="n">
-        <v>1529964.608501395</v>
+        <v>1511961.477495534</v>
       </c>
     </row>
     <row r="58">
@@ -7550,13 +7550,13 @@
         <v>77286</v>
       </c>
       <c r="C58" t="n">
-        <v>1347881.942369472</v>
+        <v>1332093.937322628</v>
       </c>
       <c r="D58" t="n">
-        <v>1360462.674444297</v>
+        <v>1344140.992442808</v>
       </c>
       <c r="E58" t="n">
-        <v>1498850.727267365</v>
+        <v>1476658.598764795</v>
       </c>
     </row>
     <row r="59">
@@ -7567,13 +7567,13 @@
         <v>166444</v>
       </c>
       <c r="C59" t="n">
-        <v>1398072.646946763</v>
+        <v>1384121.091638725</v>
       </c>
       <c r="D59" t="n">
-        <v>1409946.386063533</v>
+        <v>1395752.952039698</v>
       </c>
       <c r="E59" t="n">
-        <v>1540557.516348006</v>
+        <v>1523703.416450412</v>
       </c>
     </row>
     <row r="60">
@@ -7584,13 +7584,13 @@
         <v>264643</v>
       </c>
       <c r="C60" t="n">
-        <v>1452543.173974232</v>
+        <v>1439648.910903273</v>
       </c>
       <c r="D60" t="n">
-        <v>1461587.706687503</v>
+        <v>1448631.85718962</v>
       </c>
       <c r="E60" t="n">
-        <v>1561077.566533492</v>
+        <v>1547444.266339441</v>
       </c>
     </row>
     <row r="61">
@@ -7601,13 +7601,13 @@
         <v>428883</v>
       </c>
       <c r="C61" t="n">
-        <v>1499167.745203418</v>
+        <v>1489563.978044646</v>
       </c>
       <c r="D61" t="n">
-        <v>1506220.872397183</v>
+        <v>1496552.879843051</v>
       </c>
       <c r="E61" t="n">
-        <v>1583805.271528601</v>
+        <v>1573430.799625507</v>
       </c>
     </row>
     <row r="62">
@@ -7618,13 +7618,13 @@
         <v>483007</v>
       </c>
       <c r="C62" t="n">
-        <v>1433909.243040613</v>
+        <v>1427014.363861147</v>
       </c>
       <c r="D62" t="n">
-        <v>1443902.081710943</v>
+        <v>1436216.912687735</v>
       </c>
       <c r="E62" t="n">
-        <v>1553823.307084566</v>
+        <v>1537444.949780202</v>
       </c>
     </row>
     <row r="63">
@@ -7635,13 +7635,13 @@
         <v>519640</v>
       </c>
       <c r="C63" t="n">
-        <v>1193373.098423675</v>
+        <v>1165158.609289701</v>
       </c>
       <c r="D63" t="n">
-        <v>1217490.823407715</v>
+        <v>1188917.290057939</v>
       </c>
       <c r="E63" t="n">
-        <v>1482785.798232153</v>
+        <v>1450262.778508557</v>
       </c>
     </row>
     <row r="64">
@@ -7652,13 +7652,13 @@
         <v>649593</v>
       </c>
       <c r="C64" t="n">
-        <v>1345621.036109335</v>
+        <v>1321573.666505107</v>
       </c>
       <c r="D64" t="n">
-        <v>1360838.374736294</v>
+        <v>1336764.268508996</v>
       </c>
       <c r="E64" t="n">
-        <v>1528229.099632845</v>
+        <v>1503860.890551784</v>
       </c>
     </row>
     <row r="65">
@@ -7669,13 +7669,13 @@
         <v>658643</v>
       </c>
       <c r="C65" t="n">
-        <v>1304946.370197209</v>
+        <v>1282060.26161248</v>
       </c>
       <c r="D65" t="n">
-        <v>1321833.032844633</v>
+        <v>1298565.879642227</v>
       </c>
       <c r="E65" t="n">
-        <v>1507586.321966289</v>
+        <v>1480127.677969442</v>
       </c>
     </row>
     <row r="66">
@@ -7686,13 +7686,13 @@
         <v>672566</v>
       </c>
       <c r="C66" t="n">
-        <v>1365602.136263365</v>
+        <v>1342512.520734719</v>
       </c>
       <c r="D66" t="n">
-        <v>1379655.170882209</v>
+        <v>1356492.823977468</v>
       </c>
       <c r="E66" t="n">
-        <v>1534238.551689491</v>
+        <v>1510276.159647699</v>
       </c>
     </row>
     <row r="67">
@@ -7703,13 +7703,13 @@
         <v>600143</v>
       </c>
       <c r="C67" t="n">
-        <v>1251410.256740029</v>
+        <v>1234902.806928234</v>
       </c>
       <c r="D67" t="n">
-        <v>1270891.856461611</v>
+        <v>1253284.878201247</v>
       </c>
       <c r="E67" t="n">
-        <v>1485189.453399012</v>
+        <v>1455487.662204387</v>
       </c>
     </row>
     <row r="68">
@@ -7720,13 +7720,13 @@
         <v>535741</v>
       </c>
       <c r="C68" t="n">
-        <v>1163945.988356913</v>
+        <v>1147323.989087756</v>
       </c>
       <c r="D68" t="n">
-        <v>1188276.191610927</v>
+        <v>1170158.259213474</v>
       </c>
       <c r="E68" t="n">
-        <v>1455908.427405081</v>
+        <v>1421335.230596381</v>
       </c>
     </row>
     <row r="69">
@@ -7737,13 +7737,13 @@
         <v>922854</v>
       </c>
       <c r="C69" t="n">
-        <v>1406161.700161434</v>
+        <v>1389268.972710606</v>
       </c>
       <c r="D69" t="n">
-        <v>1417712.769236557</v>
+        <v>1400639.771226808</v>
       </c>
       <c r="E69" t="n">
-        <v>1544774.52906291</v>
+        <v>1525718.554905023</v>
       </c>
     </row>
     <row r="70">
@@ -7754,13 +7754,13 @@
         <v>1014469</v>
       </c>
       <c r="C70" t="n">
-        <v>1343460.037903075</v>
+        <v>1326461.391293835</v>
       </c>
       <c r="D70" t="n">
-        <v>1357875.907490401</v>
+        <v>1340331.567409343</v>
       </c>
       <c r="E70" t="n">
-        <v>1516450.472950993</v>
+        <v>1492903.504679931</v>
       </c>
     </row>
     <row r="71">
@@ -7771,13 +7771,13 @@
         <v>1124904</v>
       </c>
       <c r="C71" t="n">
-        <v>1411335.620483252</v>
+        <v>1395597.867878081</v>
       </c>
       <c r="D71" t="n">
-        <v>1423259.120791406</v>
+        <v>1407350.79787989</v>
       </c>
       <c r="E71" t="n">
-        <v>1554417.624181099</v>
+        <v>1536633.027899793</v>
       </c>
     </row>
     <row r="72">
@@ -7788,13 +7788,13 @@
         <v>1290654</v>
       </c>
       <c r="C72" t="n">
-        <v>1459119.85065799</v>
+        <v>1444184.020343568</v>
       </c>
       <c r="D72" t="n">
-        <v>1468618.008499138</v>
+        <v>1453727.088381693</v>
       </c>
       <c r="E72" t="n">
-        <v>1573097.744751765</v>
+        <v>1558700.836801068</v>
       </c>
     </row>
     <row r="73">
@@ -7805,13 +7805,13 @@
         <v>1506711</v>
       </c>
       <c r="C73" t="n">
-        <v>1511678.272915637</v>
+        <v>1498364.243378448</v>
       </c>
       <c r="D73" t="n">
-        <v>1518520.714409105</v>
+        <v>1505405.229229142</v>
       </c>
       <c r="E73" t="n">
-        <v>1593787.570837252</v>
+        <v>1582856.073586781</v>
       </c>
     </row>
     <row r="74">
@@ -7822,13 +7822,13 @@
         <v>1327579</v>
       </c>
       <c r="C74" t="n">
-        <v>1433150.800117769</v>
+        <v>1421053.540331754</v>
       </c>
       <c r="D74" t="n">
-        <v>1444262.728294133</v>
+        <v>1431749.593795086</v>
       </c>
       <c r="E74" t="n">
-        <v>1566493.938234143</v>
+        <v>1549406.181891742</v>
       </c>
     </row>
     <row r="75">
@@ -7839,13 +7839,13 @@
         <v>1208889</v>
       </c>
       <c r="C75" t="n">
-        <v>1204542.306655983</v>
+        <v>1176119.876709157</v>
       </c>
       <c r="D75" t="n">
-        <v>1229315.948204767</v>
+        <v>1200473.872298265</v>
       </c>
       <c r="E75" t="n">
-        <v>1501826.005241396</v>
+        <v>1468367.823778454</v>
       </c>
     </row>
   </sheetData>
@@ -7897,10 +7897,10 @@
         <v>1059394.021332119</v>
       </c>
       <c r="C2" t="n">
-        <v>1082029.978020696</v>
+        <v>1084656.480019618</v>
       </c>
       <c r="D2" t="n">
-        <v>1331025.501595043</v>
+        <v>1362543.525582106</v>
       </c>
     </row>
     <row r="3">
@@ -7911,10 +7911,10 @@
         <v>1021326.424940827</v>
       </c>
       <c r="C3" t="n">
-        <v>1045570.947478814</v>
+        <v>1044339.617598378</v>
       </c>
       <c r="D3" t="n">
-        <v>1312260.695396671</v>
+        <v>1297484.736831436</v>
       </c>
     </row>
     <row r="4">
@@ -7925,10 +7925,10 @@
         <v>1078110.198521585</v>
       </c>
       <c r="C4" t="n">
-        <v>1101455.534077989</v>
+        <v>1102193.278589627</v>
       </c>
       <c r="D4" t="n">
-        <v>1358254.225198427</v>
+        <v>1367107.159338091</v>
       </c>
     </row>
     <row r="5">
@@ -7939,10 +7939,10 @@
         <v>955751.8014022527</v>
       </c>
       <c r="C5" t="n">
-        <v>982731.4823079603</v>
+        <v>980127.7440420078</v>
       </c>
       <c r="D5" t="n">
-        <v>1279507.972270743</v>
+        <v>1248263.113079313</v>
       </c>
     </row>
     <row r="6">
@@ -7953,10 +7953,10 @@
         <v>886281.7059433123</v>
       </c>
       <c r="C6" t="n">
-        <v>914865.8350678834</v>
+        <v>913132.9699923284</v>
       </c>
       <c r="D6" t="n">
-        <v>1229291.255438166</v>
+        <v>1208496.874531507</v>
       </c>
     </row>
     <row r="7">
@@ -7967,10 +7967,10 @@
         <v>1072435.866081811</v>
       </c>
       <c r="C7" t="n">
-        <v>1099713.973690395</v>
+        <v>1085443.032873573</v>
       </c>
       <c r="D7" t="n">
-        <v>1399773.157384824</v>
+        <v>1228521.867582959</v>
       </c>
     </row>
     <row r="8">
@@ -7981,10 +7981,10 @@
         <v>986594.4689829341</v>
       </c>
       <c r="C8" t="n">
-        <v>1020007.223187553</v>
+        <v>996979.4078068871</v>
       </c>
       <c r="D8" t="n">
-        <v>1387547.519438357</v>
+        <v>1111213.734870369</v>
       </c>
     </row>
     <row r="9">
@@ -7995,10 +7995,10 @@
         <v>1071384.40145081</v>
       </c>
       <c r="C9" t="n">
-        <v>1104105.460204993</v>
+        <v>1079490.526890502</v>
       </c>
       <c r="D9" t="n">
-        <v>1464037.106501002</v>
+        <v>1168657.906727111</v>
       </c>
     </row>
     <row r="10">
@@ -8009,10 +8009,10 @@
         <v>1118289.305303811</v>
       </c>
       <c r="C10" t="n">
-        <v>1152194.423186194</v>
+        <v>1126987.633854873</v>
       </c>
       <c r="D10" t="n">
-        <v>1525150.71989241</v>
+        <v>1222669.247916553</v>
       </c>
     </row>
     <row r="11">
@@ -8023,10 +8023,10 @@
         <v>1177819.84521507</v>
       </c>
       <c r="C11" t="n">
-        <v>1212948.235070881</v>
+        <v>1185106.307647259</v>
       </c>
       <c r="D11" t="n">
-        <v>1599360.523484806</v>
+        <v>1265257.394401344</v>
       </c>
     </row>
     <row r="12">
@@ -8037,10 +8037,10 @@
         <v>1077561.424905194</v>
       </c>
       <c r="C12" t="n">
-        <v>1115584.571999329</v>
+        <v>1088176.576170197</v>
       </c>
       <c r="D12" t="n">
-        <v>1533839.190034813</v>
+        <v>1204943.240085223</v>
       </c>
     </row>
     <row r="13">
@@ -8051,10 +8051,10 @@
         <v>874216.0202022789</v>
       </c>
       <c r="C13" t="n">
-        <v>921523.6106410869</v>
+        <v>893818.6406578002</v>
       </c>
       <c r="D13" t="n">
-        <v>1441907.105467975</v>
+        <v>1109447.465668535</v>
       </c>
     </row>
     <row r="14">
@@ -8065,10 +8065,10 @@
         <v>1017859.838652016</v>
       </c>
       <c r="C14" t="n">
-        <v>1062453.044249906</v>
+        <v>1035847.892164058</v>
       </c>
       <c r="D14" t="n">
-        <v>1552978.305826688</v>
+        <v>1233716.480796511</v>
       </c>
     </row>
     <row r="15">
@@ -8079,10 +8079,10 @@
         <v>979519.0212297447</v>
       </c>
       <c r="C15" t="n">
-        <v>1025457.8564644</v>
+        <v>997809.2744955068</v>
       </c>
       <c r="D15" t="n">
-        <v>1530785.044045614</v>
+        <v>1199002.060418891</v>
       </c>
     </row>
     <row r="16">
@@ -8093,10 +8093,10 @@
         <v>1039223.304268836</v>
       </c>
       <c r="C16" t="n">
-        <v>1083592.181312416</v>
+        <v>1056361.075888947</v>
       </c>
       <c r="D16" t="n">
-        <v>1571649.82879179</v>
+        <v>1244876.56371017</v>
       </c>
     </row>
     <row r="17">
@@ -8107,10 +8107,10 @@
         <v>913232.0334501064</v>
       </c>
       <c r="C17" t="n">
-        <v>961610.038935843</v>
+        <v>933168.5185135608</v>
       </c>
       <c r="D17" t="n">
-        <v>1493768.099278946</v>
+        <v>1152469.854211559</v>
       </c>
     </row>
     <row r="18">
@@ -8121,10 +8121,10 @@
         <v>844309.5314834224</v>
       </c>
       <c r="C18" t="n">
-        <v>894263.2413072448</v>
+        <v>865721.82642568</v>
       </c>
       <c r="D18" t="n">
-        <v>1443754.049369292</v>
+        <v>1101257.070790514</v>
       </c>
     </row>
     <row r="19">
@@ -8135,10 +8135,10 @@
         <v>1021645.141915679</v>
       </c>
       <c r="C19" t="n">
-        <v>1069807.252648554</v>
+        <v>1033610.957179911</v>
       </c>
       <c r="D19" t="n">
-        <v>1599590.470710179</v>
+        <v>1165234.925086463</v>
       </c>
     </row>
     <row r="20">
@@ -8149,10 +8149,10 @@
         <v>946602.0188888895</v>
       </c>
       <c r="C20" t="n">
-        <v>999736.7944241664</v>
+        <v>956483.2289192474</v>
       </c>
       <c r="D20" t="n">
-        <v>1584219.325312214</v>
+        <v>1065176.539253185</v>
       </c>
     </row>
     <row r="21">
@@ -8163,10 +8163,10 @@
         <v>1034337.788137424</v>
       </c>
       <c r="C21" t="n">
-        <v>1086029.252408165</v>
+        <v>1042663.227217984</v>
       </c>
       <c r="D21" t="n">
-        <v>1654635.359386325</v>
+        <v>1134243.057104141</v>
       </c>
     </row>
     <row r="22">
@@ -8177,10 +8177,10 @@
         <v>1076034.125668235</v>
       </c>
       <c r="C22" t="n">
-        <v>1128815.687830775</v>
+        <v>1085915.962522621</v>
       </c>
       <c r="D22" t="n">
-        <v>1709412.871618719</v>
+        <v>1194616.167920876</v>
       </c>
     </row>
     <row r="23">
@@ -8191,10 +8191,10 @@
         <v>1134555.158472738</v>
       </c>
       <c r="C23" t="n">
-        <v>1188023.718483564</v>
+        <v>1145479.013505906</v>
       </c>
       <c r="D23" t="n">
-        <v>1776177.878602653</v>
+        <v>1265641.418870761</v>
       </c>
     </row>
     <row r="24">
@@ -8205,10 +8205,10 @@
         <v>1031493.865847124</v>
       </c>
       <c r="C24" t="n">
-        <v>1088445.359049611</v>
+        <v>1044869.873292087</v>
       </c>
       <c r="D24" t="n">
-        <v>1714911.784276969</v>
+        <v>1192005.955186675</v>
       </c>
     </row>
     <row r="25">
@@ -8219,10 +8219,10 @@
         <v>831354.5510622642</v>
       </c>
       <c r="C25" t="n">
-        <v>897671.4721594231</v>
+        <v>854308.3705977168</v>
       </c>
       <c r="D25" t="n">
-        <v>1627157.60422817</v>
+        <v>1106800.385487695</v>
       </c>
     </row>
     <row r="26">
@@ -8233,10 +8233,10 @@
         <v>976357.0027499916</v>
       </c>
       <c r="C26" t="n">
-        <v>1039301.219338727</v>
+        <v>997000.3931376662</v>
       </c>
       <c r="D26" t="n">
-        <v>1731687.601814819</v>
+        <v>1224077.687402087</v>
       </c>
     </row>
     <row r="27">
@@ -8247,10 +8247,10 @@
         <v>937766.8226765177</v>
       </c>
       <c r="C27" t="n">
-        <v>1002108.01571778</v>
+        <v>958947.8869833163</v>
       </c>
       <c r="D27" t="n">
-        <v>1709861.139171662</v>
+        <v>1191939.594358101</v>
       </c>
     </row>
     <row r="28">
@@ -8261,10 +8261,10 @@
         <v>1000264.359884916</v>
       </c>
       <c r="C28" t="n">
-        <v>1062574.387646578</v>
+        <v>1019843.538310464</v>
       </c>
       <c r="D28" t="n">
-        <v>1747984.693024858</v>
+        <v>1235214.500991492</v>
       </c>
     </row>
     <row r="29">
@@ -8275,10 +8275,10 @@
         <v>870637.0820465512</v>
       </c>
       <c r="C29" t="n">
-        <v>937541.8571286342</v>
+        <v>893787.3140862656</v>
       </c>
       <c r="D29" t="n">
-        <v>1673494.383031549</v>
+        <v>1148439.866523126</v>
       </c>
     </row>
     <row r="30">
@@ -8289,10 +8289,10 @@
         <v>802274.0844835463</v>
       </c>
       <c r="C30" t="n">
-        <v>870878.7911467784</v>
+        <v>827086.9603387244</v>
       </c>
       <c r="D30" t="n">
-        <v>1625530.564442332</v>
+        <v>1100028.594745684</v>
       </c>
     </row>
     <row r="31">
@@ -8303,10 +8303,10 @@
         <v>1004246.384669165</v>
       </c>
       <c r="C31" t="n">
-        <v>1068309.907355931</v>
+        <v>1017302.554527575</v>
       </c>
       <c r="D31" t="n">
-        <v>1773008.656910361</v>
+        <v>1160920.422970089</v>
       </c>
     </row>
     <row r="32">
@@ -8317,10 +8317,10 @@
         <v>897442.4182520788</v>
       </c>
       <c r="C32" t="n">
-        <v>969159.6632359715</v>
+        <v>911521.3770484995</v>
       </c>
       <c r="D32" t="n">
-        <v>1758049.358058791</v>
+        <v>1066389.923809128</v>
       </c>
     </row>
     <row r="33">
@@ -8331,10 +8331,10 @@
         <v>975604.4323480254</v>
       </c>
       <c r="C33" t="n">
-        <v>1046350.866365877</v>
+        <v>988638.3611859469</v>
       </c>
       <c r="D33" t="n">
-        <v>1824561.64056225</v>
+        <v>1132011.578403084</v>
       </c>
     </row>
     <row r="34">
@@ -8345,10 +8345,10 @@
         <v>1032605.251593481</v>
       </c>
       <c r="C34" t="n">
-        <v>1102911.016701356</v>
+        <v>1045645.845589096</v>
       </c>
       <c r="D34" t="n">
-        <v>1876274.43288798</v>
+        <v>1189092.379540866</v>
       </c>
     </row>
     <row r="35">
@@ -8359,10 +8359,10 @@
         <v>1094105.625289167</v>
       </c>
       <c r="C35" t="n">
-        <v>1164546.996973735</v>
+        <v>1107638.664604419</v>
       </c>
       <c r="D35" t="n">
-        <v>1939402.085503987</v>
+        <v>1256502.097072194</v>
       </c>
     </row>
     <row r="36">
@@ -8373,10 +8373,10 @@
         <v>999788.0468959517</v>
       </c>
       <c r="C36" t="n">
-        <v>1073226.231178709</v>
+        <v>1015386.94964506</v>
       </c>
       <c r="D36" t="n">
-        <v>1881046.258289042</v>
+        <v>1186974.879885253</v>
       </c>
     </row>
     <row r="37">
@@ -8387,10 +8387,10 @@
         <v>790548.9054309719</v>
       </c>
       <c r="C37" t="n">
-        <v>874468.0182554539</v>
+        <v>816896.0424463733</v>
       </c>
       <c r="D37" t="n">
-        <v>1797578.259324757</v>
+        <v>1106714.549615789</v>
       </c>
     </row>
     <row r="38">
@@ -8401,10 +8401,10 @@
         <v>931118.3196223878</v>
       </c>
       <c r="C38" t="n">
-        <v>1011577.929895705</v>
+        <v>954990.5788766046</v>
       </c>
       <c r="D38" t="n">
-        <v>1896633.6429022</v>
+        <v>1217585.430672991</v>
       </c>
     </row>
     <row r="39">
@@ -8415,10 +8415,10 @@
         <v>893348.28025191</v>
       </c>
       <c r="C39" t="n">
-        <v>975217.8874213158</v>
+        <v>917854.8205345005</v>
       </c>
       <c r="D39" t="n">
-        <v>1875783.566284779</v>
+        <v>1187426.763642997</v>
       </c>
     </row>
   </sheetData>

--- a/fcst_results/with_outlier_detection_series_IAH-Dom_results.xlsx
+++ b/fcst_results/with_outlier_detection_series_IAH-Dom_results.xlsx
@@ -469,13 +469,13 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>1362543.525582106</v>
+        <v>1319558.545465863</v>
       </c>
       <c r="C2" t="n">
         <v>1059394.021332119</v>
       </c>
       <c r="D2" t="n">
-        <v>1084656.480019618</v>
+        <v>1081074.398343265</v>
       </c>
     </row>
     <row r="3">
@@ -483,13 +483,13 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>1297484.736831436</v>
+        <v>1311299.380967503</v>
       </c>
       <c r="C3" t="n">
         <v>1021326.424940827</v>
       </c>
       <c r="D3" t="n">
-        <v>1044339.617598378</v>
+        <v>1045490.83794305</v>
       </c>
     </row>
     <row r="4">
@@ -497,13 +497,13 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>1367107.159338091</v>
+        <v>1334894.7978786</v>
       </c>
       <c r="C4" t="n">
         <v>1078110.198521585</v>
       </c>
       <c r="D4" t="n">
-        <v>1102193.278589627</v>
+        <v>1099508.91513467</v>
       </c>
     </row>
     <row r="5">
@@ -511,13 +511,13 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>1248263.113079313</v>
+        <v>1253252.988106073</v>
       </c>
       <c r="C5" t="n">
         <v>955751.8014022527</v>
       </c>
       <c r="D5" t="n">
-        <v>980127.7440420078</v>
+        <v>980543.5669609045</v>
       </c>
     </row>
     <row r="6">
@@ -525,13 +525,13 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>1208496.874531507</v>
+        <v>1209693.537069206</v>
       </c>
       <c r="C6" t="n">
         <v>886281.7059433123</v>
       </c>
       <c r="D6" t="n">
-        <v>913132.9699923284</v>
+        <v>913232.6918704701</v>
       </c>
     </row>
     <row r="7">
@@ -539,13 +539,13 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>1228521.867582959</v>
+        <v>1239705.849798182</v>
       </c>
       <c r="C7" t="n">
         <v>1072435.866081811</v>
       </c>
       <c r="D7" t="n">
-        <v>1085443.032873573</v>
+        <v>1086375.031391508</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>1111213.734870369</v>
+        <v>1131507.915592153</v>
       </c>
       <c r="C8" t="n">
         <v>986594.4689829341</v>
       </c>
       <c r="D8" t="n">
-        <v>996979.4078068871</v>
+        <v>998670.5895337024</v>
       </c>
     </row>
     <row r="9">
@@ -567,13 +567,13 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>1168657.906727111</v>
+        <v>1202041.568818007</v>
       </c>
       <c r="C9" t="n">
         <v>1071384.40145081</v>
       </c>
       <c r="D9" t="n">
-        <v>1079490.526890502</v>
+        <v>1082272.49873141</v>
       </c>
     </row>
     <row r="10">
@@ -581,13 +581,13 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>1222669.247916553</v>
+        <v>1235270.618003323</v>
       </c>
       <c r="C10" t="n">
         <v>1118289.305303811</v>
       </c>
       <c r="D10" t="n">
-        <v>1126987.633854873</v>
+        <v>1128037.74802877</v>
       </c>
     </row>
     <row r="11">
@@ -595,13 +595,13 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>1265257.394401344</v>
+        <v>1286951.989937545</v>
       </c>
       <c r="C11" t="n">
         <v>1177819.84521507</v>
       </c>
       <c r="D11" t="n">
-        <v>1185106.307647259</v>
+        <v>1186914.190608609</v>
       </c>
     </row>
     <row r="12">
@@ -609,13 +609,13 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>1204943.240085223</v>
+        <v>1227758.027972798</v>
       </c>
       <c r="C12" t="n">
         <v>1077561.424905194</v>
       </c>
       <c r="D12" t="n">
-        <v>1088176.576170197</v>
+        <v>1090077.808494161</v>
       </c>
     </row>
     <row r="13">
@@ -623,13 +623,13 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>1109447.465668535</v>
+        <v>1140551.676674454</v>
       </c>
       <c r="C13" t="n">
         <v>874216.0202022789</v>
       </c>
       <c r="D13" t="n">
-        <v>893818.6406578002</v>
+        <v>896410.6582416268</v>
       </c>
     </row>
     <row r="14">
@@ -637,13 +637,13 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>1233716.480796511</v>
+        <v>1256717.416617142</v>
       </c>
       <c r="C14" t="n">
         <v>1017859.838652016</v>
       </c>
       <c r="D14" t="n">
-        <v>1035847.892164058</v>
+        <v>1037764.636815777</v>
       </c>
     </row>
     <row r="15">
@@ -651,13 +651,13 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>1199002.060418891</v>
+        <v>1228991.045477739</v>
       </c>
       <c r="C15" t="n">
         <v>979519.0212297447</v>
       </c>
       <c r="D15" t="n">
-        <v>997809.2744955068</v>
+        <v>1000308.356583744</v>
       </c>
     </row>
     <row r="16">
@@ -665,13 +665,13 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>1244876.56371017</v>
+        <v>1266959.297901655</v>
       </c>
       <c r="C16" t="n">
         <v>1039223.304268836</v>
       </c>
       <c r="D16" t="n">
-        <v>1056361.075888947</v>
+        <v>1058201.303738238</v>
       </c>
     </row>
     <row r="17">
@@ -679,13 +679,13 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>1152469.854211559</v>
+        <v>1190168.297993307</v>
       </c>
       <c r="C17" t="n">
         <v>913232.0334501064</v>
       </c>
       <c r="D17" t="n">
-        <v>933168.5185135608</v>
+        <v>936310.0554953732</v>
       </c>
     </row>
     <row r="18">
@@ -693,13 +693,13 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>1101257.070790514</v>
+        <v>1135571.826734449</v>
       </c>
       <c r="C18" t="n">
         <v>844309.5314834224</v>
       </c>
       <c r="D18" t="n">
-        <v>865721.82642568</v>
+        <v>868581.3894210079</v>
       </c>
     </row>
     <row r="19">
@@ -707,13 +707,13 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>1165234.925086463</v>
+        <v>1207264.915715695</v>
       </c>
       <c r="C19" t="n">
         <v>1021645.141915679</v>
       </c>
       <c r="D19" t="n">
-        <v>1033610.957179911</v>
+        <v>1037113.456399013</v>
       </c>
     </row>
     <row r="20">
@@ -721,13 +721,13 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>1065176.539253185</v>
+        <v>1115938.571171448</v>
       </c>
       <c r="C20" t="n">
         <v>946602.0188888895</v>
       </c>
       <c r="D20" t="n">
-        <v>956483.2289192474</v>
+        <v>960713.3982457693</v>
       </c>
     </row>
     <row r="21">
@@ -735,13 +735,13 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>1134243.057104141</v>
+        <v>1182548.50753516</v>
       </c>
       <c r="C21" t="n">
         <v>1034337.788137424</v>
       </c>
       <c r="D21" t="n">
-        <v>1042663.227217984</v>
+        <v>1046688.681420568</v>
       </c>
     </row>
     <row r="22">
@@ -749,13 +749,13 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>1194616.167920876</v>
+        <v>1238162.169300223</v>
       </c>
       <c r="C22" t="n">
         <v>1076034.125668235</v>
       </c>
       <c r="D22" t="n">
-        <v>1085915.962522621</v>
+        <v>1089544.7959709</v>
       </c>
     </row>
     <row r="23">
@@ -763,13 +763,13 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>1265641.418870761</v>
+        <v>1277907.484875117</v>
       </c>
       <c r="C23" t="n">
         <v>1134555.158472738</v>
       </c>
       <c r="D23" t="n">
-        <v>1145479.013505906</v>
+        <v>1146501.185672936</v>
       </c>
     </row>
     <row r="24">
@@ -777,13 +777,13 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>1192005.955186675</v>
+        <v>1233724.838790325</v>
       </c>
       <c r="C24" t="n">
         <v>1031493.865847124</v>
       </c>
       <c r="D24" t="n">
-        <v>1044869.873292087</v>
+        <v>1048346.446925724</v>
       </c>
     </row>
     <row r="25">
@@ -791,13 +791,13 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>1106800.385487695</v>
+        <v>1155321.554259762</v>
       </c>
       <c r="C25" t="n">
         <v>831354.5510622642</v>
       </c>
       <c r="D25" t="n">
-        <v>854308.3705977168</v>
+        <v>858351.8013287224</v>
       </c>
     </row>
     <row r="26">
@@ -805,13 +805,13 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>1224077.687402087</v>
+        <v>1257935.471338656</v>
       </c>
       <c r="C26" t="n">
         <v>976357.0027499916</v>
       </c>
       <c r="D26" t="n">
-        <v>997000.3931376662</v>
+        <v>999821.8751323802</v>
       </c>
     </row>
     <row r="27">
@@ -819,13 +819,13 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>1191939.594358101</v>
+        <v>1237032.946733352</v>
       </c>
       <c r="C27" t="n">
         <v>937766.8226765177</v>
       </c>
       <c r="D27" t="n">
-        <v>958947.8869833163</v>
+        <v>962705.6663479205</v>
       </c>
     </row>
     <row r="28">
@@ -833,13 +833,13 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>1235214.500991492</v>
+        <v>1272222.662443791</v>
       </c>
       <c r="C28" t="n">
         <v>1000264.359884916</v>
       </c>
       <c r="D28" t="n">
-        <v>1019843.538310464</v>
+        <v>1022927.551764823</v>
       </c>
     </row>
     <row r="29">
@@ -847,13 +847,13 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>1148439.866523126</v>
+        <v>1196545.054036345</v>
       </c>
       <c r="C29" t="n">
         <v>870637.0820465512</v>
       </c>
       <c r="D29" t="n">
-        <v>893787.3140862656</v>
+        <v>897796.0797123673</v>
       </c>
     </row>
     <row r="30">
@@ -861,13 +861,13 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>1100028.594745684</v>
+        <v>1149403.525900002</v>
       </c>
       <c r="C30" t="n">
         <v>802274.0844835463</v>
       </c>
       <c r="D30" t="n">
-        <v>827086.9603387244</v>
+        <v>831201.5379349175</v>
       </c>
     </row>
     <row r="31">
@@ -875,13 +875,13 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>1160920.422970089</v>
+        <v>1214901.696922868</v>
       </c>
       <c r="C31" t="n">
         <v>1004246.384669165</v>
       </c>
       <c r="D31" t="n">
-        <v>1017302.554527575</v>
+        <v>1021800.99402364</v>
       </c>
     </row>
     <row r="32">
@@ -889,13 +889,13 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>1066389.923809128</v>
+        <v>1127856.087355265</v>
       </c>
       <c r="C32" t="n">
         <v>897442.4182520788</v>
       </c>
       <c r="D32" t="n">
-        <v>911521.3770484995</v>
+        <v>916643.5573440109</v>
       </c>
     </row>
     <row r="33">
@@ -903,13 +903,13 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>1132011.578403084</v>
+        <v>1193271.086587729</v>
       </c>
       <c r="C33" t="n">
         <v>975604.4323480254</v>
       </c>
       <c r="D33" t="n">
-        <v>988638.3611859469</v>
+        <v>993743.320201334</v>
       </c>
     </row>
     <row r="34">
@@ -917,13 +917,13 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>1189092.379540866</v>
+        <v>1243429.214319233</v>
       </c>
       <c r="C34" t="n">
         <v>1032605.251593481</v>
       </c>
       <c r="D34" t="n">
-        <v>1045645.845589096</v>
+        <v>1050173.91515396</v>
       </c>
     </row>
     <row r="35">
@@ -931,13 +931,13 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>1256502.097072194</v>
+        <v>1281005.941615591</v>
       </c>
       <c r="C35" t="n">
         <v>1094105.625289167</v>
       </c>
       <c r="D35" t="n">
-        <v>1107638.664604419</v>
+        <v>1109680.651649702</v>
       </c>
     </row>
     <row r="36">
@@ -945,13 +945,13 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>1186974.879885253</v>
+        <v>1240906.048933539</v>
       </c>
       <c r="C36" t="n">
         <v>999788.0468959517</v>
       </c>
       <c r="D36" t="n">
-        <v>1015386.94964506</v>
+        <v>1019881.213732417</v>
       </c>
     </row>
     <row r="37">
@@ -959,13 +959,13 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>1106714.549615789</v>
+        <v>1165421.625188301</v>
       </c>
       <c r="C37" t="n">
         <v>790548.9054309719</v>
       </c>
       <c r="D37" t="n">
-        <v>816896.0424463733</v>
+        <v>821788.2987440826</v>
       </c>
     </row>
     <row r="38">
@@ -973,13 +973,13 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>1217585.430672991</v>
+        <v>1262717.396650878</v>
       </c>
       <c r="C38" t="n">
         <v>931118.3196223878</v>
       </c>
       <c r="D38" t="n">
-        <v>954990.5788766046</v>
+        <v>958751.5760414286</v>
       </c>
     </row>
     <row r="39">
@@ -987,13 +987,13 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>1187426.763642997</v>
+        <v>1243551.681183124</v>
       </c>
       <c r="C39" t="n">
         <v>893348.28025191</v>
       </c>
       <c r="D39" t="n">
-        <v>917854.8205345005</v>
+        <v>922531.8969961777</v>
       </c>
     </row>
   </sheetData>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['AO2008Sep', 'AO2020Mar']</t>
+          <t>['AO2001Sep', 'AO2008Sep', 'AO2020Mar', 'AO2021Jul']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1220,19 +1220,19 @@
         <v>74</v>
       </c>
       <c r="K2" t="n">
-        <v>370740.8225946535</v>
+        <v>380608.5470538121</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5928780476861272</v>
+        <v>0.6044166775648382</v>
       </c>
       <c r="M2" t="n">
-        <v>208168.6871757993</v>
+        <v>209197.2390655712</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1728050015482328</v>
+        <v>-0.236067149186711</v>
       </c>
       <c r="O2" t="n">
-        <v>1176119.876709157</v>
+        <v>1232028.757194721</v>
       </c>
       <c r="P2" t="n">
         <v>1208889</v>
@@ -1241,7 +1241,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>289976.5339319778</v>
+        <v>272590.5854320386</v>
       </c>
       <c r="S2" t="n">
         <v>182936.3018116131</v>
@@ -1262,16 +1262,16 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>370740.8225946535</v>
+        <v>380608.5470538121</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.5928780476861272</v>
+        <v>0.6044166775648382</v>
       </c>
       <c r="AE2" t="n">
-        <v>208168.6871757993</v>
+        <v>209197.2390655712</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.1728050015482328</v>
+        <v>-0.236067149186711</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -1309,19 +1309,19 @@
         <v>74</v>
       </c>
       <c r="K3" t="n">
-        <v>375362.8986933861</v>
+        <v>382119.6858805554</v>
       </c>
       <c r="L3" t="n">
-        <v>0.598074860485433</v>
+        <v>0.6060701634350063</v>
       </c>
       <c r="M3" t="n">
-        <v>208027.5580749169</v>
+        <v>209172.4637378213</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.2022303279237188</v>
+        <v>-0.2459018052801245</v>
       </c>
       <c r="O3" t="n">
-        <v>1200473.872298265</v>
+        <v>1245352.226101677</v>
       </c>
       <c r="P3" t="n">
         <v>1208889</v>
@@ -1330,19 +1330,19 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>253552.7115504543</v>
+        <v>386996.3178976484</v>
       </c>
       <c r="S3" t="n">
-        <v>170114.5204284222</v>
+        <v>169345.8559923832</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1722099946793443</v>
+        <v>0.1717781521302743</v>
       </c>
       <c r="U3" t="n">
-        <v>103531.0451956474</v>
+        <v>103410.2972499086</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4505055195597585</v>
+        <v>0.4554600949418985</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -1359,16 +1359,16 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>375362.8986933861</v>
+        <v>382119.6858805554</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.598074860485433</v>
+        <v>0.6060701634350063</v>
       </c>
       <c r="AE3" t="n">
-        <v>208027.5580749169</v>
+        <v>209172.4637378213</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.2022303279237188</v>
+        <v>-0.2459018052801245</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['AO2008Sep', 'AO2020Mar']</t>
+          <t>['AO2001Sep', 'AO2008Sep', 'AO2020Mar', 'AO2021Jul']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1416,19 +1416,19 @@
         <v>74</v>
       </c>
       <c r="K4" t="n">
-        <v>447498.0265450639</v>
+        <v>407205.6287135879</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7081330839095865</v>
+        <v>0.6465951285741172</v>
       </c>
       <c r="M4" t="n">
-        <v>275087.6652225971</v>
+        <v>237173.0327229266</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.7087055885027387</v>
+        <v>-0.4148569616408606</v>
       </c>
       <c r="O4" t="n">
-        <v>1468367.823778454</v>
+        <v>1391910.384078194</v>
       </c>
       <c r="P4" t="n">
         <v>1208889</v>
@@ -1437,19 +1437,19 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>234695.9181336119</v>
+        <v>229679.4364574631</v>
       </c>
       <c r="S4" t="n">
-        <v>127176.6795928844</v>
+        <v>124543.9399948274</v>
       </c>
       <c r="T4" t="n">
-        <v>0.08413938774521502</v>
+        <v>0.08565636391483419</v>
       </c>
       <c r="U4" t="n">
-        <v>68230.54843864081</v>
+        <v>68596.91128796495</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6928888898051344</v>
+        <v>0.7054725580958545</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -1458,16 +1458,16 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>447498.0265450639</v>
+        <v>407205.6287135879</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.7081330839095865</v>
+        <v>0.6465951285741172</v>
       </c>
       <c r="AE4" t="n">
-        <v>275087.6652225971</v>
+        <v>237173.0327229266</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.7087055885027387</v>
+        <v>-0.4148569616408606</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -5294,13 +5294,13 @@
         <v>1371694</v>
       </c>
       <c r="C2" t="n">
-        <v>1376148.522909221</v>
+        <v>1385475.508974029</v>
       </c>
       <c r="D2" t="n">
-        <v>1382775.272490175</v>
+        <v>1391523.07748002</v>
       </c>
       <c r="E2" t="n">
-        <v>1455669.517880668</v>
+        <v>1458046.331045916</v>
       </c>
     </row>
     <row r="3">
@@ -5311,13 +5311,13 @@
         <v>1248898</v>
       </c>
       <c r="C3" t="n">
-        <v>1165630.330634289</v>
+        <v>1180369.40472803</v>
       </c>
       <c r="D3" t="n">
-        <v>1179227.903138842</v>
+        <v>1193734.525220356</v>
       </c>
       <c r="E3" t="n">
-        <v>1328801.200688919</v>
+        <v>1340750.850635939</v>
       </c>
     </row>
     <row r="4">
@@ -5328,13 +5328,13 @@
         <v>1402365</v>
       </c>
       <c r="C4" t="n">
-        <v>1294972.922095759</v>
+        <v>1304765.364393643</v>
       </c>
       <c r="D4" t="n">
-        <v>1304771.844609479</v>
+        <v>1313742.778066497</v>
       </c>
       <c r="E4" t="n">
-        <v>1412559.992260406</v>
+        <v>1412494.328467891</v>
       </c>
     </row>
     <row r="5">
@@ -5345,13 +5345,13 @@
         <v>1358981</v>
       </c>
       <c r="C5" t="n">
-        <v>1260313.354302777</v>
+        <v>1269253.193334749</v>
       </c>
       <c r="D5" t="n">
-        <v>1269812.60326022</v>
+        <v>1277853.788469924</v>
       </c>
       <c r="E5" t="n">
-        <v>1374304.341792092</v>
+        <v>1372460.334956853</v>
       </c>
     </row>
     <row r="6">
@@ -5362,13 +5362,13 @@
         <v>1397123</v>
       </c>
       <c r="C6" t="n">
-        <v>1327959.76311871</v>
+        <v>1335824.789936578</v>
       </c>
       <c r="D6" t="n">
-        <v>1335649.051840012</v>
+        <v>1342275.11708817</v>
       </c>
       <c r="E6" t="n">
-        <v>1420231.227774339</v>
+        <v>1413228.715755673</v>
       </c>
     </row>
     <row r="7">
@@ -5379,13 +5379,13 @@
         <v>1258130</v>
       </c>
       <c r="C7" t="n">
-        <v>1196039.620422354</v>
+        <v>1203004.730761637</v>
       </c>
       <c r="D7" t="n">
-        <v>1207740.288886065</v>
+        <v>1213509.708075554</v>
       </c>
       <c r="E7" t="n">
-        <v>1336447.641986891</v>
+        <v>1329064.458528638</v>
       </c>
     </row>
     <row r="8">
@@ -5396,13 +5396,13 @@
         <v>1174589</v>
       </c>
       <c r="C8" t="n">
-        <v>1157810.455889636</v>
+        <v>1165290.758919252</v>
       </c>
       <c r="D8" t="n">
-        <v>1168310.022284613</v>
+        <v>1174579.276885696</v>
       </c>
       <c r="E8" t="n">
-        <v>1283805.252629357</v>
+        <v>1276752.97451658</v>
       </c>
     </row>
     <row r="9">
@@ -5413,13 +5413,13 @@
         <v>1304802</v>
       </c>
       <c r="C9" t="n">
-        <v>1373778.219582925</v>
+        <v>1383770.14557445</v>
       </c>
       <c r="D9" t="n">
-        <v>1379185.521829995</v>
+        <v>1386695.422415719</v>
       </c>
       <c r="E9" t="n">
-        <v>1438665.846547764</v>
+        <v>1418873.467669677</v>
       </c>
     </row>
     <row r="10">
@@ -5430,13 +5430,13 @@
         <v>1229416</v>
       </c>
       <c r="C10" t="n">
-        <v>1315625.618178183</v>
+        <v>1325015.744258184</v>
       </c>
       <c r="D10" t="n">
-        <v>1322001.444902853</v>
+        <v>1329022.612105664</v>
       </c>
       <c r="E10" t="n">
-        <v>1392135.538874224</v>
+        <v>1373098.158427938</v>
       </c>
     </row>
     <row r="11">
@@ -5447,13 +5447,13 @@
         <v>1341370</v>
       </c>
       <c r="C11" t="n">
-        <v>1367652.772494277</v>
+        <v>1374511.040667346</v>
       </c>
       <c r="D11" t="n">
-        <v>1375143.629988386</v>
+        <v>1379385.777558743</v>
       </c>
       <c r="E11" t="n">
-        <v>1457543.062423585</v>
+        <v>1433007.8833641</v>
       </c>
     </row>
     <row r="12">
@@ -5464,13 +5464,13 @@
         <v>1389216</v>
       </c>
       <c r="C12" t="n">
-        <v>1423180.591758823</v>
+        <v>1429405.157510983</v>
       </c>
       <c r="D12" t="n">
-        <v>1428833.689136157</v>
+        <v>1432153.682000682</v>
       </c>
       <c r="E12" t="n">
-        <v>1491017.760286829</v>
+        <v>1462387.451387373</v>
       </c>
     </row>
     <row r="13">
@@ -5481,13 +5481,13 @@
         <v>1382725</v>
       </c>
       <c r="C13" t="n">
-        <v>1473095.658900252</v>
+        <v>1478068.127443167</v>
       </c>
       <c r="D13" t="n">
-        <v>1477735.483188444</v>
+        <v>1479584.179029339</v>
       </c>
       <c r="E13" t="n">
-        <v>1528773.55035856</v>
+        <v>1496260.746477233</v>
       </c>
     </row>
     <row r="14">
@@ -5498,13 +5498,13 @@
         <v>1287874</v>
       </c>
       <c r="C14" t="n">
-        <v>1410546.044716714</v>
+        <v>1415628.406003121</v>
       </c>
       <c r="D14" t="n">
-        <v>1416318.949113634</v>
+        <v>1418504.887185954</v>
       </c>
       <c r="E14" t="n">
-        <v>1479820.897479754</v>
+        <v>1450146.180197121</v>
       </c>
     </row>
     <row r="15">
@@ -5515,13 +5515,13 @@
         <v>1206037</v>
       </c>
       <c r="C15" t="n">
-        <v>1148690.29014524</v>
+        <v>1193074.248056624</v>
       </c>
       <c r="D15" t="n">
-        <v>1166551.369733604</v>
+        <v>1205819.833849846</v>
       </c>
       <c r="E15" t="n">
-        <v>1363023.245205605</v>
+        <v>1346021.277575291</v>
       </c>
     </row>
     <row r="16">
@@ -5532,13 +5532,13 @@
         <v>1304495</v>
       </c>
       <c r="C16" t="n">
-        <v>1305105.347360705</v>
+        <v>1312047.878784532</v>
       </c>
       <c r="D16" t="n">
-        <v>1315915.96642728</v>
+        <v>1319880.072101883</v>
       </c>
       <c r="E16" t="n">
-        <v>1434832.776159606</v>
+        <v>1406034.198592741</v>
       </c>
     </row>
     <row r="17">
@@ -5549,13 +5549,13 @@
         <v>1250473</v>
       </c>
       <c r="C17" t="n">
-        <v>1265591.942468012</v>
+        <v>1274277.29810566</v>
       </c>
       <c r="D17" t="n">
-        <v>1277045.982317631</v>
+        <v>1282630.045663294</v>
       </c>
       <c r="E17" t="n">
-        <v>1403040.420663447</v>
+        <v>1374510.268797276</v>
       </c>
     </row>
     <row r="18">
@@ -5566,13 +5566,13 @@
         <v>1306926</v>
       </c>
       <c r="C18" t="n">
-        <v>1326044.201590279</v>
+        <v>1336515.814807499</v>
       </c>
       <c r="D18" t="n">
-        <v>1335825.913279175</v>
+        <v>1342651.187271201</v>
       </c>
       <c r="E18" t="n">
-        <v>1443424.74185703</v>
+        <v>1410140.284371919</v>
       </c>
     </row>
     <row r="19">
@@ -5583,13 +5583,13 @@
         <v>1218332</v>
       </c>
       <c r="C19" t="n">
-        <v>1218434.487783812</v>
+        <v>1226761.156339895</v>
       </c>
       <c r="D19" t="n">
-        <v>1231067.835061087</v>
+        <v>1236125.741228808</v>
       </c>
       <c r="E19" t="n">
-        <v>1370034.655111108</v>
+        <v>1339136.17500685</v>
       </c>
     </row>
     <row r="20">
@@ -5600,13 +5600,13 @@
         <v>1119025</v>
       </c>
       <c r="C20" t="n">
-        <v>1130855.669943316</v>
+        <v>1139658.789120795</v>
       </c>
       <c r="D20" t="n">
-        <v>1146974.938648788</v>
+        <v>1152673.767062243</v>
       </c>
       <c r="E20" t="n">
-        <v>1324286.894408981</v>
+        <v>1295838.524418167</v>
       </c>
     </row>
     <row r="21">
@@ -5617,13 +5617,13 @@
         <v>1326162</v>
       </c>
       <c r="C21" t="n">
-        <v>1372800.653566155</v>
+        <v>1384670.69263931</v>
       </c>
       <c r="D21" t="n">
-        <v>1380409.775675167</v>
+        <v>1387677.635768672</v>
       </c>
       <c r="E21" t="n">
-        <v>1464110.118874306</v>
+        <v>1420754.010191661</v>
       </c>
     </row>
     <row r="22">
@@ -5634,13 +5634,13 @@
         <v>1233070</v>
       </c>
       <c r="C22" t="n">
-        <v>1309993.072149362</v>
+        <v>1321912.233929047</v>
       </c>
       <c r="D22" t="n">
-        <v>1319173.133245292</v>
+        <v>1326697.476797245</v>
       </c>
       <c r="E22" t="n">
-        <v>1420153.805300528</v>
+        <v>1379335.148347422</v>
       </c>
     </row>
     <row r="23">
@@ -5651,13 +5651,13 @@
         <v>1363368</v>
       </c>
       <c r="C23" t="n">
-        <v>1379129.548733625</v>
+        <v>1390407.434471237</v>
       </c>
       <c r="D23" t="n">
-        <v>1387429.606316505</v>
+        <v>1393865.978075518</v>
       </c>
       <c r="E23" t="n">
-        <v>1478730.239728187</v>
+        <v>1431909.957722602</v>
       </c>
     </row>
     <row r="24">
@@ -5668,13 +5668,13 @@
         <v>1401174</v>
       </c>
       <c r="C24" t="n">
-        <v>1427715.701199155</v>
+        <v>1439055.348738191</v>
       </c>
       <c r="D24" t="n">
-        <v>1434430.262950614</v>
+        <v>1440584.515386075</v>
       </c>
       <c r="E24" t="n">
-        <v>1508290.44221666</v>
+        <v>1457405.348512806</v>
       </c>
     </row>
     <row r="25">
@@ -5685,13 +5685,13 @@
         <v>1418008</v>
       </c>
       <c r="C25" t="n">
-        <v>1481895.924233931</v>
+        <v>1493075.641917376</v>
       </c>
       <c r="D25" t="n">
-        <v>1486791.82968021</v>
+        <v>1492467.738384418</v>
       </c>
       <c r="E25" t="n">
-        <v>1540646.789589276</v>
+        <v>1485780.799521885</v>
       </c>
     </row>
     <row r="26">
@@ -5702,13 +5702,13 @@
         <v>1112493</v>
       </c>
       <c r="C26" t="n">
-        <v>1404585.221187362</v>
+        <v>1416576.987779989</v>
       </c>
       <c r="D26" t="n">
-        <v>1412189.794012438</v>
+        <v>1418957.426333819</v>
       </c>
       <c r="E26" t="n">
-        <v>1495840.095088269</v>
+        <v>1445142.250425948</v>
       </c>
     </row>
     <row r="27">
@@ -5719,13 +5719,13 @@
         <v>1023025</v>
       </c>
       <c r="C27" t="n">
-        <v>1159651.557564707</v>
+        <v>1199530.678052137</v>
       </c>
       <c r="D27" t="n">
-        <v>1178621.248318497</v>
+        <v>1212168.474046787</v>
       </c>
       <c r="E27" t="n">
-        <v>1387287.84661018</v>
+        <v>1351184.229987943</v>
       </c>
     </row>
     <row r="28">
@@ -5736,13 +5736,13 @@
         <v>1298780</v>
       </c>
       <c r="C28" t="n">
-        <v>1307299.708918281</v>
+        <v>1320400.135782408</v>
       </c>
       <c r="D28" t="n">
-        <v>1319526.726313626</v>
+        <v>1327570.775676271</v>
       </c>
       <c r="E28" t="n">
-        <v>1454023.917662416</v>
+        <v>1406447.814508764</v>
       </c>
     </row>
     <row r="29">
@@ -5753,13 +5753,13 @@
         <v>1310910</v>
       </c>
       <c r="C29" t="n">
-        <v>1269285.263288299</v>
+        <v>1283376.298376338</v>
       </c>
       <c r="D29" t="n">
-        <v>1282217.593392198</v>
+        <v>1291297.691277666</v>
       </c>
       <c r="E29" t="n">
-        <v>1424473.224535098</v>
+        <v>1378433.013192276</v>
       </c>
     </row>
     <row r="30">
@@ -5770,13 +5770,13 @@
         <v>1371367</v>
       </c>
       <c r="C30" t="n">
-        <v>1332245.347942456</v>
+        <v>1347197.149816522</v>
       </c>
       <c r="D30" t="n">
-        <v>1343059.21030529</v>
+        <v>1352546.460521303</v>
       </c>
       <c r="E30" t="n">
-        <v>1462011.696296465</v>
+        <v>1411388.878273892</v>
       </c>
     </row>
     <row r="31">
@@ -5787,13 +5787,13 @@
         <v>1186117</v>
       </c>
       <c r="C31" t="n">
-        <v>1216343.085600328</v>
+        <v>1229574.221973429</v>
       </c>
       <c r="D31" t="n">
-        <v>1231130.616200446</v>
+        <v>1239393.436999</v>
       </c>
       <c r="E31" t="n">
-        <v>1393793.452801744</v>
+        <v>1347404.802280277</v>
       </c>
     </row>
     <row r="32">
@@ -5804,13 +5804,13 @@
         <v>1154994</v>
       </c>
       <c r="C32" t="n">
-        <v>1145256.910344996</v>
+        <v>1159015.332602633</v>
       </c>
       <c r="D32" t="n">
-        <v>1162424.633121825</v>
+        <v>1171476.347636945</v>
       </c>
       <c r="E32" t="n">
-        <v>1351269.583666943</v>
+        <v>1308547.513014372</v>
       </c>
     </row>
     <row r="33">
@@ -5821,13 +5821,13 @@
         <v>1374882</v>
       </c>
       <c r="C33" t="n">
-        <v>1371556.063170246</v>
+        <v>1385278.265882448</v>
       </c>
       <c r="D33" t="n">
-        <v>1380696.335284073</v>
+        <v>1388378.249256338</v>
       </c>
       <c r="E33" t="n">
-        <v>1481239.328536167</v>
+        <v>1422478.066369133</v>
       </c>
     </row>
     <row r="34">
@@ -5838,13 +5838,13 @@
         <v>1359171</v>
       </c>
       <c r="C34" t="n">
-        <v>1304516.391249469</v>
+        <v>1319008.136414023</v>
       </c>
       <c r="D34" t="n">
-        <v>1315838.413599845</v>
+        <v>1324527.869548714</v>
       </c>
       <c r="E34" t="n">
-        <v>1440380.659453974</v>
+        <v>1385244.934030308</v>
       </c>
     </row>
     <row r="35">
@@ -5855,13 +5855,13 @@
         <v>1432452</v>
       </c>
       <c r="C35" t="n">
-        <v>1390761.369287851</v>
+        <v>1406520.6002372</v>
       </c>
       <c r="D35" t="n">
-        <v>1399433.684769803</v>
+        <v>1408758.442651032</v>
       </c>
       <c r="E35" t="n">
-        <v>1494829.155071273</v>
+        <v>1433374.709203192</v>
       </c>
     </row>
     <row r="36">
@@ -5872,13 +5872,13 @@
         <v>1511298</v>
       </c>
       <c r="C36" t="n">
-        <v>1432217.196128451</v>
+        <v>1448711.018372181</v>
       </c>
       <c r="D36" t="n">
-        <v>1439724.614874798</v>
+        <v>1449390.823563752</v>
       </c>
       <c r="E36" t="n">
-        <v>1522306.221084624</v>
+        <v>1456868.680671033</v>
       </c>
     </row>
     <row r="37">
@@ -5889,13 +5889,13 @@
         <v>1557029</v>
       </c>
       <c r="C37" t="n">
-        <v>1490510.710297385</v>
+        <v>1507878.604419261</v>
       </c>
       <c r="D37" t="n">
-        <v>1495666.683181571</v>
+        <v>1505801.195667765</v>
       </c>
       <c r="E37" t="n">
-        <v>1552382.384907612</v>
+        <v>1482949.699401307</v>
       </c>
     </row>
     <row r="38">
@@ -5906,13 +5906,13 @@
         <v>1458131</v>
       </c>
       <c r="C38" t="n">
-        <v>1398605.278466223</v>
+        <v>1417355.68662512</v>
       </c>
       <c r="D38" t="n">
-        <v>1407949.277105317</v>
+        <v>1419767.75276664</v>
       </c>
       <c r="E38" t="n">
-        <v>1510733.26213535</v>
+        <v>1446300.480323359</v>
       </c>
     </row>
     <row r="39">
@@ -5923,13 +5923,13 @@
         <v>1270202</v>
       </c>
       <c r="C39" t="n">
-        <v>1170789.064656615</v>
+        <v>1206126.861118712</v>
       </c>
       <c r="D39" t="n">
-        <v>1190709.20902907</v>
+        <v>1219048.193034567</v>
       </c>
       <c r="E39" t="n">
-        <v>1409830.797126073</v>
+        <v>1361182.844108975</v>
       </c>
     </row>
     <row r="40">
@@ -5940,13 +5940,13 @@
         <v>1417738</v>
       </c>
       <c r="C40" t="n">
-        <v>1309411.660364245</v>
+        <v>1328805.513804775</v>
       </c>
       <c r="D40" t="n">
-        <v>1322949.347981013</v>
+        <v>1335706.671055309</v>
       </c>
       <c r="E40" t="n">
-        <v>1471863.911765464</v>
+        <v>1411619.400811173</v>
       </c>
     </row>
     <row r="41">
@@ -5957,13 +5957,13 @@
         <v>1397043</v>
       </c>
       <c r="C41" t="n">
-        <v>1273015.107194557</v>
+        <v>1292534.991711003</v>
       </c>
       <c r="D41" t="n">
-        <v>1287296.822010003</v>
+        <v>1300354.770159125</v>
       </c>
       <c r="E41" t="n">
-        <v>1444395.684979899</v>
+        <v>1386372.333088467</v>
       </c>
     </row>
     <row r="42">
@@ -5974,13 +5974,13 @@
         <v>1404491</v>
       </c>
       <c r="C42" t="n">
-        <v>1338373.442318517</v>
+        <v>1357800.121288866</v>
       </c>
       <c r="D42" t="n">
-        <v>1350116.38744206</v>
+        <v>1362691.958001165</v>
       </c>
       <c r="E42" t="n">
-        <v>1479288.783801042</v>
+        <v>1416502.161836458</v>
       </c>
     </row>
     <row r="43">
@@ -5991,13 +5991,13 @@
         <v>1314022</v>
       </c>
       <c r="C43" t="n">
-        <v>1214366.051721307</v>
+        <v>1232487.109625057</v>
       </c>
       <c r="D43" t="n">
-        <v>1231158.709649997</v>
+        <v>1242991.478641573</v>
       </c>
       <c r="E43" t="n">
-        <v>1415877.946865592</v>
+        <v>1358539.537823249</v>
       </c>
     </row>
     <row r="44">
@@ -6008,13 +6008,13 @@
         <v>1220092</v>
       </c>
       <c r="C44" t="n">
-        <v>1159734.890070217</v>
+        <v>1178395.932120904</v>
       </c>
       <c r="D44" t="n">
-        <v>1177786.213940692</v>
+        <v>1190478.83195636</v>
       </c>
       <c r="E44" t="n">
-        <v>1376350.776515919</v>
+        <v>1323390.730146376</v>
       </c>
     </row>
     <row r="45">
@@ -6025,13 +6025,13 @@
         <v>1492492</v>
       </c>
       <c r="C45" t="n">
-        <v>1370050.173126294</v>
+        <v>1385601.635647258</v>
       </c>
       <c r="D45" t="n">
-        <v>1380642.777526553</v>
+        <v>1389055.219818789</v>
       </c>
       <c r="E45" t="n">
-        <v>1497161.425929402</v>
+        <v>1427044.64570563</v>
       </c>
     </row>
     <row r="46">
@@ -6042,13 +6042,13 @@
         <v>1415841</v>
       </c>
       <c r="C46" t="n">
-        <v>1299206.212212802</v>
+        <v>1316316.435318342</v>
       </c>
       <c r="D46" t="n">
-        <v>1312537.536807621</v>
+        <v>1322735.467046838</v>
       </c>
       <c r="E46" t="n">
-        <v>1459182.107350628</v>
+        <v>1393344.816060301</v>
       </c>
     </row>
     <row r="47">
@@ -6059,13 +6059,13 @@
         <v>1514742</v>
       </c>
       <c r="C47" t="n">
-        <v>1402540.819723442</v>
+        <v>1422842.498167297</v>
       </c>
       <c r="D47" t="n">
-        <v>1411478.548417601</v>
+        <v>1424038.174403513</v>
       </c>
       <c r="E47" t="n">
-        <v>1509793.564053354</v>
+        <v>1437190.613001887</v>
       </c>
     </row>
     <row r="48">
@@ -6076,13 +6076,13 @@
         <v>1519625</v>
       </c>
       <c r="C48" t="n">
-        <v>1436680.682019009</v>
+        <v>1458365.458168957</v>
       </c>
       <c r="D48" t="n">
-        <v>1444901.816372629</v>
+        <v>1458388.571613238</v>
       </c>
       <c r="E48" t="n">
-        <v>1535334.294262451</v>
+        <v>1458642.81950033</v>
       </c>
     </row>
     <row r="49">
@@ -6093,13 +6093,13 @@
         <v>1555592</v>
       </c>
       <c r="C49" t="n">
-        <v>1498937.473381454</v>
+        <v>1522470.832006409</v>
       </c>
       <c r="D49" t="n">
-        <v>1504300.264042011</v>
+        <v>1519134.590346237</v>
       </c>
       <c r="E49" t="n">
-        <v>1563290.961308136</v>
+        <v>1482435.932084344</v>
       </c>
     </row>
     <row r="50">
@@ -6110,13 +6110,13 @@
         <v>1463393</v>
       </c>
       <c r="C50" t="n">
-        <v>1392616.842053582</v>
+        <v>1417973.588116589</v>
       </c>
       <c r="D50" t="n">
-        <v>1403613.51297299</v>
+        <v>1420577.975911513</v>
       </c>
       <c r="E50" t="n">
-        <v>1524576.893086476</v>
+        <v>1449226.241655678</v>
       </c>
     </row>
     <row r="51">
@@ -6127,13 +6127,13 @@
         <v>1261890</v>
       </c>
       <c r="C51" t="n">
-        <v>1182098.649778706</v>
+        <v>1212867.483870625</v>
       </c>
       <c r="D51" t="n">
-        <v>1202822.522613689</v>
+        <v>1226126.212634909</v>
       </c>
       <c r="E51" t="n">
-        <v>1430785.123798495</v>
+        <v>1371972.22904203</v>
       </c>
     </row>
     <row r="52">
@@ -6144,13 +6144,13 @@
         <v>1467633</v>
       </c>
       <c r="C52" t="n">
-        <v>1311441.241240155</v>
+        <v>1337263.443536225</v>
       </c>
       <c r="D52" t="n">
-        <v>1326191.696468334</v>
+        <v>1343980.648305045</v>
       </c>
       <c r="E52" t="n">
-        <v>1488446.703978303</v>
+        <v>1417869.900762058</v>
       </c>
     </row>
     <row r="53">
@@ -6161,13 +6161,13 @@
         <v>1370563</v>
       </c>
       <c r="C53" t="n">
-        <v>1276781.67344721</v>
+        <v>1301751.272477367</v>
       </c>
       <c r="D53" t="n">
-        <v>1292292.716500604</v>
+        <v>1309521.833628412</v>
       </c>
       <c r="E53" t="n">
-        <v>1462914.190087935</v>
+        <v>1394998.006289906</v>
       </c>
     </row>
     <row r="54">
@@ -6178,13 +6178,13 @@
         <v>1504928</v>
       </c>
       <c r="C54" t="n">
-        <v>1344428.08226315</v>
+        <v>1368322.869079207</v>
       </c>
       <c r="D54" t="n">
-        <v>1357004.770240868</v>
+        <v>1372832.069756856</v>
       </c>
       <c r="E54" t="n">
-        <v>1495348.337995763</v>
+        <v>1422433.277211004</v>
       </c>
     </row>
     <row r="55">
@@ -6195,13 +6195,13 @@
         <v>1364156</v>
       </c>
       <c r="C55" t="n">
-        <v>1212507.939566786</v>
+        <v>1235502.809904245</v>
       </c>
       <c r="D55" t="n">
-        <v>1231166.121683054</v>
+        <v>1246696.406121475</v>
       </c>
       <c r="E55" t="n">
-        <v>1436406.124962012</v>
+        <v>1369825.964511015</v>
       </c>
     </row>
     <row r="56">
@@ -6212,13 +6212,13 @@
         <v>1285706</v>
       </c>
       <c r="C56" t="n">
-        <v>1174278.775034076</v>
+        <v>1197788.838061897</v>
       </c>
       <c r="D56" t="n">
-        <v>1193060.91653903</v>
+        <v>1209468.216809047</v>
       </c>
       <c r="E56" t="n">
-        <v>1399664.473093523</v>
+        <v>1337941.383027703</v>
       </c>
     </row>
     <row r="57">
@@ -6229,13 +6229,13 @@
         <v>772175</v>
       </c>
       <c r="C57" t="n">
-        <v>1390246.538727337</v>
+        <v>1416268.224717021</v>
       </c>
       <c r="D57" t="n">
-        <v>1400389.450291354</v>
+        <v>1417592.762411039</v>
       </c>
       <c r="E57" t="n">
-        <v>1511961.477495534</v>
+        <v>1432162.67704523</v>
       </c>
     </row>
     <row r="58">
@@ -6246,13 +6246,13 @@
         <v>77286</v>
       </c>
       <c r="C58" t="n">
-        <v>1332093.937322628</v>
+        <v>1357513.823400814</v>
       </c>
       <c r="D58" t="n">
-        <v>1344140.992442808</v>
+        <v>1361186.501840014</v>
       </c>
       <c r="E58" t="n">
-        <v>1476658.598764795</v>
+        <v>1401585.964671214</v>
       </c>
     </row>
     <row r="59">
@@ -6263,13 +6263,13 @@
         <v>166444</v>
       </c>
       <c r="C59" t="n">
-        <v>1384121.091638725</v>
+        <v>1407009.11981001</v>
       </c>
       <c r="D59" t="n">
-        <v>1395752.952039698</v>
+        <v>1409880.047354449</v>
       </c>
       <c r="E59" t="n">
-        <v>1523703.416450412</v>
+        <v>1441460.250343279</v>
       </c>
     </row>
     <row r="60">
@@ -6280,13 +6280,13 @@
         <v>264643</v>
       </c>
       <c r="C60" t="n">
-        <v>1439648.910903273</v>
+        <v>1461903.236653623</v>
       </c>
       <c r="D60" t="n">
-        <v>1448631.85718962</v>
+        <v>1461826.737907766</v>
       </c>
       <c r="E60" t="n">
-        <v>1547444.266339441</v>
+        <v>1460985.251703341</v>
       </c>
     </row>
     <row r="61">
@@ -6297,13 +6297,13 @@
         <v>428883</v>
       </c>
       <c r="C61" t="n">
-        <v>1489563.978044646</v>
+        <v>1510566.206585764</v>
       </c>
       <c r="D61" t="n">
-        <v>1496552.879843051</v>
+        <v>1508238.523499686</v>
       </c>
       <c r="E61" t="n">
-        <v>1573430.799625507</v>
+        <v>1482634.009552819</v>
       </c>
     </row>
     <row r="62">
@@ -6314,13 +6314,13 @@
         <v>483007</v>
       </c>
       <c r="C62" t="n">
-        <v>1427014.363861147</v>
+        <v>1448126.485145733</v>
       </c>
       <c r="D62" t="n">
-        <v>1436216.912687735</v>
+        <v>1448490.075951794</v>
       </c>
       <c r="E62" t="n">
-        <v>1537444.949780202</v>
+        <v>1452489.574818474</v>
       </c>
     </row>
     <row r="63">
@@ -6331,13 +6331,13 @@
         <v>519640</v>
       </c>
       <c r="C63" t="n">
-        <v>1165158.609289701</v>
+        <v>1225572.327199233</v>
       </c>
       <c r="D63" t="n">
-        <v>1188917.290057939</v>
+        <v>1238635.111393451</v>
       </c>
       <c r="E63" t="n">
-        <v>1450262.778508557</v>
+        <v>1382325.73752985</v>
       </c>
     </row>
     <row r="64">
@@ -6348,13 +6348,13 @@
         <v>649593</v>
       </c>
       <c r="C64" t="n">
-        <v>1321573.666505107</v>
+        <v>1344545.957927118</v>
       </c>
       <c r="D64" t="n">
-        <v>1336764.268508996</v>
+        <v>1351171.300517138</v>
       </c>
       <c r="E64" t="n">
-        <v>1503860.890551784</v>
+        <v>1424050.069007352</v>
       </c>
     </row>
     <row r="65">
@@ -6365,13 +6365,13 @@
         <v>658643</v>
       </c>
       <c r="C65" t="n">
-        <v>1282060.26161248</v>
+        <v>1306775.377248302</v>
       </c>
       <c r="D65" t="n">
-        <v>1298565.879642227</v>
+        <v>1314818.354893086</v>
       </c>
       <c r="E65" t="n">
-        <v>1480127.677969442</v>
+        <v>1403291.108985711</v>
       </c>
     </row>
     <row r="66">
@@ -6382,13 +6382,13 @@
         <v>672566</v>
       </c>
       <c r="C66" t="n">
-        <v>1342512.520734719</v>
+        <v>1369013.893950091</v>
       </c>
       <c r="D66" t="n">
-        <v>1356492.823977468</v>
+        <v>1373949.170821694</v>
       </c>
       <c r="E66" t="n">
-        <v>1510276.159647699</v>
+        <v>1428237.216409329</v>
       </c>
     </row>
     <row r="67">
@@ -6399,13 +6399,13 @@
         <v>600143</v>
       </c>
       <c r="C67" t="n">
-        <v>1234902.806928234</v>
+        <v>1259259.235482513</v>
       </c>
       <c r="D67" t="n">
-        <v>1253284.878201247</v>
+        <v>1269359.149335033</v>
       </c>
       <c r="E67" t="n">
-        <v>1455487.662204387</v>
+        <v>1380458.201712753</v>
       </c>
     </row>
     <row r="68">
@@ -6416,13 +6416,13 @@
         <v>535741</v>
       </c>
       <c r="C68" t="n">
-        <v>1147323.989087756</v>
+        <v>1172156.868263424</v>
       </c>
       <c r="D68" t="n">
-        <v>1170158.259213474</v>
+        <v>1187102.579162898</v>
       </c>
       <c r="E68" t="n">
-        <v>1421335.230596381</v>
+        <v>1351505.399057106</v>
       </c>
     </row>
     <row r="69">
@@ -6433,13 +6433,13 @@
         <v>922854</v>
       </c>
       <c r="C69" t="n">
-        <v>1389268.972710606</v>
+        <v>1417168.771781959</v>
       </c>
       <c r="D69" t="n">
-        <v>1400639.771226808</v>
+        <v>1418831.848822512</v>
       </c>
       <c r="E69" t="n">
-        <v>1525718.554905023</v>
+        <v>1437125.696268598</v>
       </c>
     </row>
     <row r="70">
@@ -6450,13 +6450,13 @@
         <v>1014469</v>
       </c>
       <c r="C70" t="n">
-        <v>1326461.391293835</v>
+        <v>1354410.313071717</v>
       </c>
       <c r="D70" t="n">
-        <v>1340331.567409343</v>
+        <v>1358989.319271782</v>
       </c>
       <c r="E70" t="n">
-        <v>1492903.504679931</v>
+        <v>1409358.387472501</v>
       </c>
     </row>
     <row r="71">
@@ -6467,13 +6467,13 @@
         <v>1124904</v>
       </c>
       <c r="C71" t="n">
-        <v>1395597.867878081</v>
+        <v>1422905.513613866</v>
       </c>
       <c r="D71" t="n">
-        <v>1407350.79787989</v>
+        <v>1424796.614189964</v>
       </c>
       <c r="E71" t="n">
-        <v>1536633.027899793</v>
+        <v>1445598.720527037</v>
       </c>
     </row>
     <row r="72">
@@ -6484,13 +6484,13 @@
         <v>1290654</v>
       </c>
       <c r="C72" t="n">
-        <v>1444184.020343568</v>
+        <v>1471553.427880754</v>
       </c>
       <c r="D72" t="n">
-        <v>1453727.088381693</v>
+        <v>1470869.762387088</v>
       </c>
       <c r="E72" t="n">
-        <v>1558700.836801068</v>
+        <v>1463349.441956765</v>
       </c>
     </row>
     <row r="73">
@@ -6501,13 +6501,13 @@
         <v>1506711</v>
       </c>
       <c r="C73" t="n">
-        <v>1498364.243378448</v>
+        <v>1525573.721060053</v>
       </c>
       <c r="D73" t="n">
-        <v>1505405.229229142</v>
+        <v>1522028.304394975</v>
       </c>
       <c r="E73" t="n">
-        <v>1582856.073586781</v>
+        <v>1483028.721079112</v>
       </c>
     </row>
     <row r="74">
@@ -6518,13 +6518,13 @@
         <v>1327579</v>
       </c>
       <c r="C74" t="n">
-        <v>1421053.540331754</v>
+        <v>1449075.066922575</v>
       </c>
       <c r="D74" t="n">
-        <v>1431749.593795086</v>
+        <v>1449622.973774971</v>
       </c>
       <c r="E74" t="n">
-        <v>1549406.181891742</v>
+        <v>1455649.949151331</v>
       </c>
     </row>
     <row r="75">
@@ -6535,13 +6535,13 @@
         <v>1208889</v>
       </c>
       <c r="C75" t="n">
-        <v>1176119.876709157</v>
+        <v>1232028.757194721</v>
       </c>
       <c r="D75" t="n">
-        <v>1200473.872298265</v>
+        <v>1245352.226101677</v>
       </c>
       <c r="E75" t="n">
-        <v>1468367.823778454</v>
+        <v>1391910.384078194</v>
       </c>
     </row>
   </sheetData>
@@ -6598,13 +6598,13 @@
         <v>1371694</v>
       </c>
       <c r="C2" t="n">
-        <v>1376148.522909221</v>
+        <v>1385475.508974029</v>
       </c>
       <c r="D2" t="n">
-        <v>1382775.272490175</v>
+        <v>1391523.07748002</v>
       </c>
       <c r="E2" t="n">
-        <v>1455669.517880668</v>
+        <v>1458046.331045916</v>
       </c>
     </row>
     <row r="3">
@@ -6615,13 +6615,13 @@
         <v>1248898</v>
       </c>
       <c r="C3" t="n">
-        <v>1165630.330634289</v>
+        <v>1180369.40472803</v>
       </c>
       <c r="D3" t="n">
-        <v>1179227.903138842</v>
+        <v>1193734.525220356</v>
       </c>
       <c r="E3" t="n">
-        <v>1328801.200688919</v>
+        <v>1340750.850635939</v>
       </c>
     </row>
     <row r="4">
@@ -6632,13 +6632,13 @@
         <v>1402365</v>
       </c>
       <c r="C4" t="n">
-        <v>1294972.922095759</v>
+        <v>1304765.364393643</v>
       </c>
       <c r="D4" t="n">
-        <v>1304771.844609479</v>
+        <v>1313742.778066497</v>
       </c>
       <c r="E4" t="n">
-        <v>1412559.992260406</v>
+        <v>1412494.328467891</v>
       </c>
     </row>
     <row r="5">
@@ -6649,13 +6649,13 @@
         <v>1358981</v>
       </c>
       <c r="C5" t="n">
-        <v>1260313.354302777</v>
+        <v>1269253.193334749</v>
       </c>
       <c r="D5" t="n">
-        <v>1269812.60326022</v>
+        <v>1277853.788469924</v>
       </c>
       <c r="E5" t="n">
-        <v>1374304.341792092</v>
+        <v>1372460.334956853</v>
       </c>
     </row>
     <row r="6">
@@ -6666,13 +6666,13 @@
         <v>1397123</v>
       </c>
       <c r="C6" t="n">
-        <v>1327959.76311871</v>
+        <v>1335824.789936578</v>
       </c>
       <c r="D6" t="n">
-        <v>1335649.051840012</v>
+        <v>1342275.11708817</v>
       </c>
       <c r="E6" t="n">
-        <v>1420231.227774339</v>
+        <v>1413228.715755673</v>
       </c>
     </row>
     <row r="7">
@@ -6683,13 +6683,13 @@
         <v>1258130</v>
       </c>
       <c r="C7" t="n">
-        <v>1196039.620422354</v>
+        <v>1203004.730761637</v>
       </c>
       <c r="D7" t="n">
-        <v>1207740.288886065</v>
+        <v>1213509.708075554</v>
       </c>
       <c r="E7" t="n">
-        <v>1336447.641986891</v>
+        <v>1329064.458528638</v>
       </c>
     </row>
     <row r="8">
@@ -6700,13 +6700,13 @@
         <v>1174589</v>
       </c>
       <c r="C8" t="n">
-        <v>1157810.455889636</v>
+        <v>1165290.758919252</v>
       </c>
       <c r="D8" t="n">
-        <v>1168310.022284613</v>
+        <v>1174579.276885696</v>
       </c>
       <c r="E8" t="n">
-        <v>1283805.252629357</v>
+        <v>1276752.97451658</v>
       </c>
     </row>
     <row r="9">
@@ -6717,13 +6717,13 @@
         <v>1304802</v>
       </c>
       <c r="C9" t="n">
-        <v>1373778.219582925</v>
+        <v>1383770.14557445</v>
       </c>
       <c r="D9" t="n">
-        <v>1379185.521829995</v>
+        <v>1386695.422415719</v>
       </c>
       <c r="E9" t="n">
-        <v>1438665.846547764</v>
+        <v>1418873.467669677</v>
       </c>
     </row>
     <row r="10">
@@ -6734,13 +6734,13 @@
         <v>1229416</v>
       </c>
       <c r="C10" t="n">
-        <v>1315625.618178183</v>
+        <v>1325015.744258184</v>
       </c>
       <c r="D10" t="n">
-        <v>1322001.444902853</v>
+        <v>1329022.612105664</v>
       </c>
       <c r="E10" t="n">
-        <v>1392135.538874224</v>
+        <v>1373098.158427938</v>
       </c>
     </row>
     <row r="11">
@@ -6751,13 +6751,13 @@
         <v>1341370</v>
       </c>
       <c r="C11" t="n">
-        <v>1367652.772494277</v>
+        <v>1374511.040667346</v>
       </c>
       <c r="D11" t="n">
-        <v>1375143.629988386</v>
+        <v>1379385.777558743</v>
       </c>
       <c r="E11" t="n">
-        <v>1457543.062423585</v>
+        <v>1433007.8833641</v>
       </c>
     </row>
     <row r="12">
@@ -6768,13 +6768,13 @@
         <v>1389216</v>
       </c>
       <c r="C12" t="n">
-        <v>1423180.591758823</v>
+        <v>1429405.157510983</v>
       </c>
       <c r="D12" t="n">
-        <v>1428833.689136157</v>
+        <v>1432153.682000682</v>
       </c>
       <c r="E12" t="n">
-        <v>1491017.760286829</v>
+        <v>1462387.451387373</v>
       </c>
     </row>
     <row r="13">
@@ -6785,13 +6785,13 @@
         <v>1382725</v>
       </c>
       <c r="C13" t="n">
-        <v>1473095.658900252</v>
+        <v>1478068.127443167</v>
       </c>
       <c r="D13" t="n">
-        <v>1477735.483188444</v>
+        <v>1479584.179029339</v>
       </c>
       <c r="E13" t="n">
-        <v>1528773.55035856</v>
+        <v>1496260.746477233</v>
       </c>
     </row>
     <row r="14">
@@ -6802,13 +6802,13 @@
         <v>1287874</v>
       </c>
       <c r="C14" t="n">
-        <v>1410546.044716714</v>
+        <v>1415628.406003121</v>
       </c>
       <c r="D14" t="n">
-        <v>1416318.949113634</v>
+        <v>1418504.887185954</v>
       </c>
       <c r="E14" t="n">
-        <v>1479820.897479754</v>
+        <v>1450146.180197121</v>
       </c>
     </row>
     <row r="15">
@@ -6819,13 +6819,13 @@
         <v>1206037</v>
       </c>
       <c r="C15" t="n">
-        <v>1148690.29014524</v>
+        <v>1193074.248056624</v>
       </c>
       <c r="D15" t="n">
-        <v>1166551.369733604</v>
+        <v>1205819.833849846</v>
       </c>
       <c r="E15" t="n">
-        <v>1363023.245205605</v>
+        <v>1346021.277575291</v>
       </c>
     </row>
     <row r="16">
@@ -6836,13 +6836,13 @@
         <v>1304495</v>
       </c>
       <c r="C16" t="n">
-        <v>1305105.347360705</v>
+        <v>1312047.878784532</v>
       </c>
       <c r="D16" t="n">
-        <v>1315915.96642728</v>
+        <v>1319880.072101883</v>
       </c>
       <c r="E16" t="n">
-        <v>1434832.776159606</v>
+        <v>1406034.198592741</v>
       </c>
     </row>
     <row r="17">
@@ -6853,13 +6853,13 @@
         <v>1250473</v>
       </c>
       <c r="C17" t="n">
-        <v>1265591.942468012</v>
+        <v>1274277.29810566</v>
       </c>
       <c r="D17" t="n">
-        <v>1277045.982317631</v>
+        <v>1282630.045663294</v>
       </c>
       <c r="E17" t="n">
-        <v>1403040.420663447</v>
+        <v>1374510.268797276</v>
       </c>
     </row>
     <row r="18">
@@ -6870,13 +6870,13 @@
         <v>1306926</v>
       </c>
       <c r="C18" t="n">
-        <v>1326044.201590279</v>
+        <v>1336515.814807499</v>
       </c>
       <c r="D18" t="n">
-        <v>1335825.913279175</v>
+        <v>1342651.187271201</v>
       </c>
       <c r="E18" t="n">
-        <v>1443424.74185703</v>
+        <v>1410140.284371919</v>
       </c>
     </row>
     <row r="19">
@@ -6887,13 +6887,13 @@
         <v>1218332</v>
       </c>
       <c r="C19" t="n">
-        <v>1218434.487783812</v>
+        <v>1226761.156339895</v>
       </c>
       <c r="D19" t="n">
-        <v>1231067.835061087</v>
+        <v>1236125.741228808</v>
       </c>
       <c r="E19" t="n">
-        <v>1370034.655111108</v>
+        <v>1339136.17500685</v>
       </c>
     </row>
     <row r="20">
@@ -6904,13 +6904,13 @@
         <v>1119025</v>
       </c>
       <c r="C20" t="n">
-        <v>1130855.669943316</v>
+        <v>1139658.789120795</v>
       </c>
       <c r="D20" t="n">
-        <v>1146974.938648788</v>
+        <v>1152673.767062243</v>
       </c>
       <c r="E20" t="n">
-        <v>1324286.894408981</v>
+        <v>1295838.524418167</v>
       </c>
     </row>
     <row r="21">
@@ -6921,13 +6921,13 @@
         <v>1326162</v>
       </c>
       <c r="C21" t="n">
-        <v>1372800.653566155</v>
+        <v>1384670.69263931</v>
       </c>
       <c r="D21" t="n">
-        <v>1380409.775675167</v>
+        <v>1387677.635768672</v>
       </c>
       <c r="E21" t="n">
-        <v>1464110.118874306</v>
+        <v>1420754.010191661</v>
       </c>
     </row>
     <row r="22">
@@ -6938,13 +6938,13 @@
         <v>1233070</v>
       </c>
       <c r="C22" t="n">
-        <v>1309993.072149362</v>
+        <v>1321912.233929047</v>
       </c>
       <c r="D22" t="n">
-        <v>1319173.133245292</v>
+        <v>1326697.476797245</v>
       </c>
       <c r="E22" t="n">
-        <v>1420153.805300528</v>
+        <v>1379335.148347422</v>
       </c>
     </row>
     <row r="23">
@@ -6955,13 +6955,13 @@
         <v>1363368</v>
       </c>
       <c r="C23" t="n">
-        <v>1379129.548733625</v>
+        <v>1390407.434471237</v>
       </c>
       <c r="D23" t="n">
-        <v>1387429.606316505</v>
+        <v>1393865.978075518</v>
       </c>
       <c r="E23" t="n">
-        <v>1478730.239728187</v>
+        <v>1431909.957722602</v>
       </c>
     </row>
     <row r="24">
@@ -6972,13 +6972,13 @@
         <v>1401174</v>
       </c>
       <c r="C24" t="n">
-        <v>1427715.701199155</v>
+        <v>1439055.348738191</v>
       </c>
       <c r="D24" t="n">
-        <v>1434430.262950614</v>
+        <v>1440584.515386075</v>
       </c>
       <c r="E24" t="n">
-        <v>1508290.44221666</v>
+        <v>1457405.348512806</v>
       </c>
     </row>
     <row r="25">
@@ -6989,13 +6989,13 @@
         <v>1418008</v>
       </c>
       <c r="C25" t="n">
-        <v>1481895.924233931</v>
+        <v>1493075.641917376</v>
       </c>
       <c r="D25" t="n">
-        <v>1486791.82968021</v>
+        <v>1492467.738384418</v>
       </c>
       <c r="E25" t="n">
-        <v>1540646.789589276</v>
+        <v>1485780.799521885</v>
       </c>
     </row>
     <row r="26">
@@ -7006,13 +7006,13 @@
         <v>1112493</v>
       </c>
       <c r="C26" t="n">
-        <v>1404585.221187362</v>
+        <v>1416576.987779989</v>
       </c>
       <c r="D26" t="n">
-        <v>1412189.794012438</v>
+        <v>1418957.426333819</v>
       </c>
       <c r="E26" t="n">
-        <v>1495840.095088269</v>
+        <v>1445142.250425948</v>
       </c>
     </row>
     <row r="27">
@@ -7023,13 +7023,13 @@
         <v>1023025</v>
       </c>
       <c r="C27" t="n">
-        <v>1159651.557564707</v>
+        <v>1199530.678052137</v>
       </c>
       <c r="D27" t="n">
-        <v>1178621.248318497</v>
+        <v>1212168.474046787</v>
       </c>
       <c r="E27" t="n">
-        <v>1387287.84661018</v>
+        <v>1351184.229987943</v>
       </c>
     </row>
     <row r="28">
@@ -7040,13 +7040,13 @@
         <v>1298780</v>
       </c>
       <c r="C28" t="n">
-        <v>1307299.708918281</v>
+        <v>1320400.135782408</v>
       </c>
       <c r="D28" t="n">
-        <v>1319526.726313626</v>
+        <v>1327570.775676271</v>
       </c>
       <c r="E28" t="n">
-        <v>1454023.917662416</v>
+        <v>1406447.814508764</v>
       </c>
     </row>
     <row r="29">
@@ -7057,13 +7057,13 @@
         <v>1310910</v>
       </c>
       <c r="C29" t="n">
-        <v>1269285.263288299</v>
+        <v>1283376.298376338</v>
       </c>
       <c r="D29" t="n">
-        <v>1282217.593392198</v>
+        <v>1291297.691277666</v>
       </c>
       <c r="E29" t="n">
-        <v>1424473.224535098</v>
+        <v>1378433.013192276</v>
       </c>
     </row>
     <row r="30">
@@ -7074,13 +7074,13 @@
         <v>1371367</v>
       </c>
       <c r="C30" t="n">
-        <v>1332245.347942456</v>
+        <v>1347197.149816522</v>
       </c>
       <c r="D30" t="n">
-        <v>1343059.21030529</v>
+        <v>1352546.460521303</v>
       </c>
       <c r="E30" t="n">
-        <v>1462011.696296465</v>
+        <v>1411388.878273892</v>
       </c>
     </row>
     <row r="31">
@@ -7091,13 +7091,13 @@
         <v>1186117</v>
       </c>
       <c r="C31" t="n">
-        <v>1216343.085600328</v>
+        <v>1229574.221973429</v>
       </c>
       <c r="D31" t="n">
-        <v>1231130.616200446</v>
+        <v>1239393.436999</v>
       </c>
       <c r="E31" t="n">
-        <v>1393793.452801744</v>
+        <v>1347404.802280277</v>
       </c>
     </row>
     <row r="32">
@@ -7108,13 +7108,13 @@
         <v>1154994</v>
       </c>
       <c r="C32" t="n">
-        <v>1145256.910344996</v>
+        <v>1159015.332602633</v>
       </c>
       <c r="D32" t="n">
-        <v>1162424.633121825</v>
+        <v>1171476.347636945</v>
       </c>
       <c r="E32" t="n">
-        <v>1351269.583666943</v>
+        <v>1308547.513014372</v>
       </c>
     </row>
     <row r="33">
@@ -7125,13 +7125,13 @@
         <v>1374882</v>
       </c>
       <c r="C33" t="n">
-        <v>1371556.063170246</v>
+        <v>1385278.265882448</v>
       </c>
       <c r="D33" t="n">
-        <v>1380696.335284073</v>
+        <v>1388378.249256338</v>
       </c>
       <c r="E33" t="n">
-        <v>1481239.328536167</v>
+        <v>1422478.066369133</v>
       </c>
     </row>
     <row r="34">
@@ -7142,13 +7142,13 @@
         <v>1359171</v>
       </c>
       <c r="C34" t="n">
-        <v>1304516.391249469</v>
+        <v>1319008.136414023</v>
       </c>
       <c r="D34" t="n">
-        <v>1315838.413599845</v>
+        <v>1324527.869548714</v>
       </c>
       <c r="E34" t="n">
-        <v>1440380.659453974</v>
+        <v>1385244.934030308</v>
       </c>
     </row>
     <row r="35">
@@ -7159,13 +7159,13 @@
         <v>1432452</v>
       </c>
       <c r="C35" t="n">
-        <v>1390761.369287851</v>
+        <v>1406520.6002372</v>
       </c>
       <c r="D35" t="n">
-        <v>1399433.684769803</v>
+        <v>1408758.442651032</v>
       </c>
       <c r="E35" t="n">
-        <v>1494829.155071273</v>
+        <v>1433374.709203192</v>
       </c>
     </row>
     <row r="36">
@@ -7176,13 +7176,13 @@
         <v>1511298</v>
       </c>
       <c r="C36" t="n">
-        <v>1432217.196128451</v>
+        <v>1448711.018372181</v>
       </c>
       <c r="D36" t="n">
-        <v>1439724.614874798</v>
+        <v>1449390.823563752</v>
       </c>
       <c r="E36" t="n">
-        <v>1522306.221084624</v>
+        <v>1456868.680671033</v>
       </c>
     </row>
     <row r="37">
@@ -7193,13 +7193,13 @@
         <v>1557029</v>
       </c>
       <c r="C37" t="n">
-        <v>1490510.710297385</v>
+        <v>1507878.604419261</v>
       </c>
       <c r="D37" t="n">
-        <v>1495666.683181571</v>
+        <v>1505801.195667765</v>
       </c>
       <c r="E37" t="n">
-        <v>1552382.384907612</v>
+        <v>1482949.699401307</v>
       </c>
     </row>
     <row r="38">
@@ -7210,13 +7210,13 @@
         <v>1458131</v>
       </c>
       <c r="C38" t="n">
-        <v>1398605.278466223</v>
+        <v>1417355.68662512</v>
       </c>
       <c r="D38" t="n">
-        <v>1407949.277105317</v>
+        <v>1419767.75276664</v>
       </c>
       <c r="E38" t="n">
-        <v>1510733.26213535</v>
+        <v>1446300.480323359</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         <v>1270202</v>
       </c>
       <c r="C39" t="n">
-        <v>1170789.064656615</v>
+        <v>1206126.861118712</v>
       </c>
       <c r="D39" t="n">
-        <v>1190709.20902907</v>
+        <v>1219048.193034567</v>
       </c>
       <c r="E39" t="n">
-        <v>1409830.797126073</v>
+        <v>1361182.844108975</v>
       </c>
     </row>
     <row r="40">
@@ -7244,13 +7244,13 @@
         <v>1417738</v>
       </c>
       <c r="C40" t="n">
-        <v>1309411.660364245</v>
+        <v>1328805.513804775</v>
       </c>
       <c r="D40" t="n">
-        <v>1322949.347981013</v>
+        <v>1335706.671055309</v>
       </c>
       <c r="E40" t="n">
-        <v>1471863.911765464</v>
+        <v>1411619.400811173</v>
       </c>
     </row>
     <row r="41">
@@ -7261,13 +7261,13 @@
         <v>1397043</v>
       </c>
       <c r="C41" t="n">
-        <v>1273015.107194557</v>
+        <v>1292534.991711003</v>
       </c>
       <c r="D41" t="n">
-        <v>1287296.822010003</v>
+        <v>1300354.770159125</v>
       </c>
       <c r="E41" t="n">
-        <v>1444395.684979899</v>
+        <v>1386372.333088467</v>
       </c>
     </row>
     <row r="42">
@@ -7278,13 +7278,13 @@
         <v>1404491</v>
       </c>
       <c r="C42" t="n">
-        <v>1338373.442318517</v>
+        <v>1357800.121288866</v>
       </c>
       <c r="D42" t="n">
-        <v>1350116.38744206</v>
+        <v>1362691.958001165</v>
       </c>
       <c r="E42" t="n">
-        <v>1479288.783801042</v>
+        <v>1416502.161836458</v>
       </c>
     </row>
     <row r="43">
@@ -7295,13 +7295,13 @@
         <v>1314022</v>
       </c>
       <c r="C43" t="n">
-        <v>1214366.051721307</v>
+        <v>1232487.109625057</v>
       </c>
       <c r="D43" t="n">
-        <v>1231158.709649997</v>
+        <v>1242991.478641573</v>
       </c>
       <c r="E43" t="n">
-        <v>1415877.946865592</v>
+        <v>1358539.537823249</v>
       </c>
     </row>
     <row r="44">
@@ -7312,13 +7312,13 @@
         <v>1220092</v>
       </c>
       <c r="C44" t="n">
-        <v>1159734.890070217</v>
+        <v>1178395.932120904</v>
       </c>
       <c r="D44" t="n">
-        <v>1177786.213940692</v>
+        <v>1190478.83195636</v>
       </c>
       <c r="E44" t="n">
-        <v>1376350.776515919</v>
+        <v>1323390.730146376</v>
       </c>
     </row>
     <row r="45">
@@ -7329,13 +7329,13 @@
         <v>1492492</v>
       </c>
       <c r="C45" t="n">
-        <v>1370050.173126294</v>
+        <v>1385601.635647258</v>
       </c>
       <c r="D45" t="n">
-        <v>1380642.777526553</v>
+        <v>1389055.219818789</v>
       </c>
       <c r="E45" t="n">
-        <v>1497161.425929402</v>
+        <v>1427044.64570563</v>
       </c>
     </row>
     <row r="46">
@@ -7346,13 +7346,13 @@
         <v>1415841</v>
       </c>
       <c r="C46" t="n">
-        <v>1299206.212212802</v>
+        <v>1316316.435318342</v>
       </c>
       <c r="D46" t="n">
-        <v>1312537.536807621</v>
+        <v>1322735.467046838</v>
       </c>
       <c r="E46" t="n">
-        <v>1459182.107350628</v>
+        <v>1393344.816060301</v>
       </c>
     </row>
     <row r="47">
@@ -7363,13 +7363,13 @@
         <v>1514742</v>
       </c>
       <c r="C47" t="n">
-        <v>1402540.819723442</v>
+        <v>1422842.498167297</v>
       </c>
       <c r="D47" t="n">
-        <v>1411478.548417601</v>
+        <v>1424038.174403513</v>
       </c>
       <c r="E47" t="n">
-        <v>1509793.564053354</v>
+        <v>1437190.613001887</v>
       </c>
     </row>
     <row r="48">
@@ -7380,13 +7380,13 @@
         <v>1519625</v>
       </c>
       <c r="C48" t="n">
-        <v>1436680.682019009</v>
+        <v>1458365.458168957</v>
       </c>
       <c r="D48" t="n">
-        <v>1444901.816372629</v>
+        <v>1458388.571613238</v>
       </c>
       <c r="E48" t="n">
-        <v>1535334.294262451</v>
+        <v>1458642.81950033</v>
       </c>
     </row>
     <row r="49">
@@ -7397,13 +7397,13 @@
         <v>1555592</v>
       </c>
       <c r="C49" t="n">
-        <v>1498937.473381454</v>
+        <v>1522470.832006409</v>
       </c>
       <c r="D49" t="n">
-        <v>1504300.264042011</v>
+        <v>1519134.590346237</v>
       </c>
       <c r="E49" t="n">
-        <v>1563290.961308136</v>
+        <v>1482435.932084344</v>
       </c>
     </row>
     <row r="50">
@@ -7414,13 +7414,13 @@
         <v>1463393</v>
       </c>
       <c r="C50" t="n">
-        <v>1392616.842053582</v>
+        <v>1417973.588116589</v>
       </c>
       <c r="D50" t="n">
-        <v>1403613.51297299</v>
+        <v>1420577.975911513</v>
       </c>
       <c r="E50" t="n">
-        <v>1524576.893086476</v>
+        <v>1449226.241655678</v>
       </c>
     </row>
     <row r="51">
@@ -7431,13 +7431,13 @@
         <v>1261890</v>
       </c>
       <c r="C51" t="n">
-        <v>1182098.649778706</v>
+        <v>1212867.483870625</v>
       </c>
       <c r="D51" t="n">
-        <v>1202822.522613689</v>
+        <v>1226126.212634909</v>
       </c>
       <c r="E51" t="n">
-        <v>1430785.123798495</v>
+        <v>1371972.22904203</v>
       </c>
     </row>
     <row r="52">
@@ -7448,13 +7448,13 @@
         <v>1467633</v>
       </c>
       <c r="C52" t="n">
-        <v>1311441.241240155</v>
+        <v>1337263.443536225</v>
       </c>
       <c r="D52" t="n">
-        <v>1326191.696468334</v>
+        <v>1343980.648305045</v>
       </c>
       <c r="E52" t="n">
-        <v>1488446.703978303</v>
+        <v>1417869.900762058</v>
       </c>
     </row>
     <row r="53">
@@ -7465,13 +7465,13 @@
         <v>1370563</v>
       </c>
       <c r="C53" t="n">
-        <v>1276781.67344721</v>
+        <v>1301751.272477367</v>
       </c>
       <c r="D53" t="n">
-        <v>1292292.716500604</v>
+        <v>1309521.833628412</v>
       </c>
       <c r="E53" t="n">
-        <v>1462914.190087935</v>
+        <v>1394998.006289906</v>
       </c>
     </row>
     <row r="54">
@@ -7482,13 +7482,13 @@
         <v>1504928</v>
       </c>
       <c r="C54" t="n">
-        <v>1344428.08226315</v>
+        <v>1368322.869079207</v>
       </c>
       <c r="D54" t="n">
-        <v>1357004.770240868</v>
+        <v>1372832.069756856</v>
       </c>
       <c r="E54" t="n">
-        <v>1495348.337995763</v>
+        <v>1422433.277211004</v>
       </c>
     </row>
     <row r="55">
@@ -7499,13 +7499,13 @@
         <v>1364156</v>
       </c>
       <c r="C55" t="n">
-        <v>1212507.939566786</v>
+        <v>1235502.809904245</v>
       </c>
       <c r="D55" t="n">
-        <v>1231166.121683054</v>
+        <v>1246696.406121475</v>
       </c>
       <c r="E55" t="n">
-        <v>1436406.124962012</v>
+        <v>1369825.964511015</v>
       </c>
     </row>
     <row r="56">
@@ -7516,13 +7516,13 @@
         <v>1285706</v>
       </c>
       <c r="C56" t="n">
-        <v>1174278.775034076</v>
+        <v>1197788.838061897</v>
       </c>
       <c r="D56" t="n">
-        <v>1193060.91653903</v>
+        <v>1209468.216809047</v>
       </c>
       <c r="E56" t="n">
-        <v>1399664.473093523</v>
+        <v>1337941.383027703</v>
       </c>
     </row>
     <row r="57">
@@ -7533,13 +7533,13 @@
         <v>772175</v>
       </c>
       <c r="C57" t="n">
-        <v>1390246.538727337</v>
+        <v>1416268.224717021</v>
       </c>
       <c r="D57" t="n">
-        <v>1400389.450291354</v>
+        <v>1417592.762411039</v>
       </c>
       <c r="E57" t="n">
-        <v>1511961.477495534</v>
+        <v>1432162.67704523</v>
       </c>
     </row>
     <row r="58">
@@ -7550,13 +7550,13 @@
         <v>77286</v>
       </c>
       <c r="C58" t="n">
-        <v>1332093.937322628</v>
+        <v>1357513.823400814</v>
       </c>
       <c r="D58" t="n">
-        <v>1344140.992442808</v>
+        <v>1361186.501840014</v>
       </c>
       <c r="E58" t="n">
-        <v>1476658.598764795</v>
+        <v>1401585.964671214</v>
       </c>
     </row>
     <row r="59">
@@ -7567,13 +7567,13 @@
         <v>166444</v>
       </c>
       <c r="C59" t="n">
-        <v>1384121.091638725</v>
+        <v>1407009.11981001</v>
       </c>
       <c r="D59" t="n">
-        <v>1395752.952039698</v>
+        <v>1409880.047354449</v>
       </c>
       <c r="E59" t="n">
-        <v>1523703.416450412</v>
+        <v>1441460.250343279</v>
       </c>
     </row>
     <row r="60">
@@ -7584,13 +7584,13 @@
         <v>264643</v>
       </c>
       <c r="C60" t="n">
-        <v>1439648.910903273</v>
+        <v>1461903.236653623</v>
       </c>
       <c r="D60" t="n">
-        <v>1448631.85718962</v>
+        <v>1461826.737907766</v>
       </c>
       <c r="E60" t="n">
-        <v>1547444.266339441</v>
+        <v>1460985.251703341</v>
       </c>
     </row>
     <row r="61">
@@ -7601,13 +7601,13 @@
         <v>428883</v>
       </c>
       <c r="C61" t="n">
-        <v>1489563.978044646</v>
+        <v>1510566.206585764</v>
       </c>
       <c r="D61" t="n">
-        <v>1496552.879843051</v>
+        <v>1508238.523499686</v>
       </c>
       <c r="E61" t="n">
-        <v>1573430.799625507</v>
+        <v>1482634.009552819</v>
       </c>
     </row>
     <row r="62">
@@ -7618,13 +7618,13 @@
         <v>483007</v>
       </c>
       <c r="C62" t="n">
-        <v>1427014.363861147</v>
+        <v>1448126.485145733</v>
       </c>
       <c r="D62" t="n">
-        <v>1436216.912687735</v>
+        <v>1448490.075951794</v>
       </c>
       <c r="E62" t="n">
-        <v>1537444.949780202</v>
+        <v>1452489.574818474</v>
       </c>
     </row>
     <row r="63">
@@ -7635,13 +7635,13 @@
         <v>519640</v>
       </c>
       <c r="C63" t="n">
-        <v>1165158.609289701</v>
+        <v>1225572.327199233</v>
       </c>
       <c r="D63" t="n">
-        <v>1188917.290057939</v>
+        <v>1238635.111393451</v>
       </c>
       <c r="E63" t="n">
-        <v>1450262.778508557</v>
+        <v>1382325.73752985</v>
       </c>
     </row>
     <row r="64">
@@ -7652,13 +7652,13 @@
         <v>649593</v>
       </c>
       <c r="C64" t="n">
-        <v>1321573.666505107</v>
+        <v>1344545.957927118</v>
       </c>
       <c r="D64" t="n">
-        <v>1336764.268508996</v>
+        <v>1351171.300517138</v>
       </c>
       <c r="E64" t="n">
-        <v>1503860.890551784</v>
+        <v>1424050.069007352</v>
       </c>
     </row>
     <row r="65">
@@ -7669,13 +7669,13 @@
         <v>658643</v>
       </c>
       <c r="C65" t="n">
-        <v>1282060.26161248</v>
+        <v>1306775.377248302</v>
       </c>
       <c r="D65" t="n">
-        <v>1298565.879642227</v>
+        <v>1314818.354893086</v>
       </c>
       <c r="E65" t="n">
-        <v>1480127.677969442</v>
+        <v>1403291.108985711</v>
       </c>
     </row>
     <row r="66">
@@ -7686,13 +7686,13 @@
         <v>672566</v>
       </c>
       <c r="C66" t="n">
-        <v>1342512.520734719</v>
+        <v>1369013.893950091</v>
       </c>
       <c r="D66" t="n">
-        <v>1356492.823977468</v>
+        <v>1373949.170821694</v>
       </c>
       <c r="E66" t="n">
-        <v>1510276.159647699</v>
+        <v>1428237.216409329</v>
       </c>
     </row>
     <row r="67">
@@ -7703,13 +7703,13 @@
         <v>600143</v>
       </c>
       <c r="C67" t="n">
-        <v>1234902.806928234</v>
+        <v>1259259.235482513</v>
       </c>
       <c r="D67" t="n">
-        <v>1253284.878201247</v>
+        <v>1269359.149335033</v>
       </c>
       <c r="E67" t="n">
-        <v>1455487.662204387</v>
+        <v>1380458.201712753</v>
       </c>
     </row>
     <row r="68">
@@ -7720,13 +7720,13 @@
         <v>535741</v>
       </c>
       <c r="C68" t="n">
-        <v>1147323.989087756</v>
+        <v>1172156.868263424</v>
       </c>
       <c r="D68" t="n">
-        <v>1170158.259213474</v>
+        <v>1187102.579162898</v>
       </c>
       <c r="E68" t="n">
-        <v>1421335.230596381</v>
+        <v>1351505.399057106</v>
       </c>
     </row>
     <row r="69">
@@ -7737,13 +7737,13 @@
         <v>922854</v>
       </c>
       <c r="C69" t="n">
-        <v>1389268.972710606</v>
+        <v>1417168.771781959</v>
       </c>
       <c r="D69" t="n">
-        <v>1400639.771226808</v>
+        <v>1418831.848822512</v>
       </c>
       <c r="E69" t="n">
-        <v>1525718.554905023</v>
+        <v>1437125.696268598</v>
       </c>
     </row>
     <row r="70">
@@ -7754,13 +7754,13 @@
         <v>1014469</v>
       </c>
       <c r="C70" t="n">
-        <v>1326461.391293835</v>
+        <v>1354410.313071717</v>
       </c>
       <c r="D70" t="n">
-        <v>1340331.567409343</v>
+        <v>1358989.319271782</v>
       </c>
       <c r="E70" t="n">
-        <v>1492903.504679931</v>
+        <v>1409358.387472501</v>
       </c>
     </row>
     <row r="71">
@@ -7771,13 +7771,13 @@
         <v>1124904</v>
       </c>
       <c r="C71" t="n">
-        <v>1395597.867878081</v>
+        <v>1422905.513613866</v>
       </c>
       <c r="D71" t="n">
-        <v>1407350.79787989</v>
+        <v>1424796.614189964</v>
       </c>
       <c r="E71" t="n">
-        <v>1536633.027899793</v>
+        <v>1445598.720527037</v>
       </c>
     </row>
     <row r="72">
@@ -7788,13 +7788,13 @@
         <v>1290654</v>
       </c>
       <c r="C72" t="n">
-        <v>1444184.020343568</v>
+        <v>1471553.427880754</v>
       </c>
       <c r="D72" t="n">
-        <v>1453727.088381693</v>
+        <v>1470869.762387088</v>
       </c>
       <c r="E72" t="n">
-        <v>1558700.836801068</v>
+        <v>1463349.441956765</v>
       </c>
     </row>
     <row r="73">
@@ -7805,13 +7805,13 @@
         <v>1506711</v>
       </c>
       <c r="C73" t="n">
-        <v>1498364.243378448</v>
+        <v>1525573.721060053</v>
       </c>
       <c r="D73" t="n">
-        <v>1505405.229229142</v>
+        <v>1522028.304394975</v>
       </c>
       <c r="E73" t="n">
-        <v>1582856.073586781</v>
+        <v>1483028.721079112</v>
       </c>
     </row>
     <row r="74">
@@ -7822,13 +7822,13 @@
         <v>1327579</v>
       </c>
       <c r="C74" t="n">
-        <v>1421053.540331754</v>
+        <v>1449075.066922575</v>
       </c>
       <c r="D74" t="n">
-        <v>1431749.593795086</v>
+        <v>1449622.973774971</v>
       </c>
       <c r="E74" t="n">
-        <v>1549406.181891742</v>
+        <v>1455649.949151331</v>
       </c>
     </row>
     <row r="75">
@@ -7839,13 +7839,13 @@
         <v>1208889</v>
       </c>
       <c r="C75" t="n">
-        <v>1176119.876709157</v>
+        <v>1232028.757194721</v>
       </c>
       <c r="D75" t="n">
-        <v>1200473.872298265</v>
+        <v>1245352.226101677</v>
       </c>
       <c r="E75" t="n">
-        <v>1468367.823778454</v>
+        <v>1391910.384078194</v>
       </c>
     </row>
   </sheetData>
@@ -7897,10 +7897,10 @@
         <v>1059394.021332119</v>
       </c>
       <c r="C2" t="n">
-        <v>1084656.480019618</v>
+        <v>1081074.398343265</v>
       </c>
       <c r="D2" t="n">
-        <v>1362543.525582106</v>
+        <v>1319558.545465863</v>
       </c>
     </row>
     <row r="3">
@@ -7911,10 +7911,10 @@
         <v>1021326.424940827</v>
       </c>
       <c r="C3" t="n">
-        <v>1044339.617598378</v>
+        <v>1045490.83794305</v>
       </c>
       <c r="D3" t="n">
-        <v>1297484.736831436</v>
+        <v>1311299.380967503</v>
       </c>
     </row>
     <row r="4">
@@ -7925,10 +7925,10 @@
         <v>1078110.198521585</v>
       </c>
       <c r="C4" t="n">
-        <v>1102193.278589627</v>
+        <v>1099508.91513467</v>
       </c>
       <c r="D4" t="n">
-        <v>1367107.159338091</v>
+        <v>1334894.7978786</v>
       </c>
     </row>
     <row r="5">
@@ -7939,10 +7939,10 @@
         <v>955751.8014022527</v>
       </c>
       <c r="C5" t="n">
-        <v>980127.7440420078</v>
+        <v>980543.5669609045</v>
       </c>
       <c r="D5" t="n">
-        <v>1248263.113079313</v>
+        <v>1253252.988106073</v>
       </c>
     </row>
     <row r="6">
@@ -7953,10 +7953,10 @@
         <v>886281.7059433123</v>
       </c>
       <c r="C6" t="n">
-        <v>913132.9699923284</v>
+        <v>913232.6918704701</v>
       </c>
       <c r="D6" t="n">
-        <v>1208496.874531507</v>
+        <v>1209693.537069206</v>
       </c>
     </row>
     <row r="7">
@@ -7967,10 +7967,10 @@
         <v>1072435.866081811</v>
       </c>
       <c r="C7" t="n">
-        <v>1085443.032873573</v>
+        <v>1086375.031391508</v>
       </c>
       <c r="D7" t="n">
-        <v>1228521.867582959</v>
+        <v>1239705.849798182</v>
       </c>
     </row>
     <row r="8">
@@ -7981,10 +7981,10 @@
         <v>986594.4689829341</v>
       </c>
       <c r="C8" t="n">
-        <v>996979.4078068871</v>
+        <v>998670.5895337024</v>
       </c>
       <c r="D8" t="n">
-        <v>1111213.734870369</v>
+        <v>1131507.915592153</v>
       </c>
     </row>
     <row r="9">
@@ -7995,10 +7995,10 @@
         <v>1071384.40145081</v>
       </c>
       <c r="C9" t="n">
-        <v>1079490.526890502</v>
+        <v>1082272.49873141</v>
       </c>
       <c r="D9" t="n">
-        <v>1168657.906727111</v>
+        <v>1202041.568818007</v>
       </c>
     </row>
     <row r="10">
@@ -8009,10 +8009,10 @@
         <v>1118289.305303811</v>
       </c>
       <c r="C10" t="n">
-        <v>1126987.633854873</v>
+        <v>1128037.74802877</v>
       </c>
       <c r="D10" t="n">
-        <v>1222669.247916553</v>
+        <v>1235270.618003323</v>
       </c>
     </row>
     <row r="11">
@@ -8023,10 +8023,10 @@
         <v>1177819.84521507</v>
       </c>
       <c r="C11" t="n">
-        <v>1185106.307647259</v>
+        <v>1186914.190608609</v>
       </c>
       <c r="D11" t="n">
-        <v>1265257.394401344</v>
+        <v>1286951.989937545</v>
       </c>
     </row>
     <row r="12">
@@ -8037,10 +8037,10 @@
         <v>1077561.424905194</v>
       </c>
       <c r="C12" t="n">
-        <v>1088176.576170197</v>
+        <v>1090077.808494161</v>
       </c>
       <c r="D12" t="n">
-        <v>1204943.240085223</v>
+        <v>1227758.027972798</v>
       </c>
     </row>
     <row r="13">
@@ -8051,10 +8051,10 @@
         <v>874216.0202022789</v>
       </c>
       <c r="C13" t="n">
-        <v>893818.6406578002</v>
+        <v>896410.6582416268</v>
       </c>
       <c r="D13" t="n">
-        <v>1109447.465668535</v>
+        <v>1140551.676674454</v>
       </c>
     </row>
     <row r="14">
@@ -8065,10 +8065,10 @@
         <v>1017859.838652016</v>
       </c>
       <c r="C14" t="n">
-        <v>1035847.892164058</v>
+        <v>1037764.636815777</v>
       </c>
       <c r="D14" t="n">
-        <v>1233716.480796511</v>
+        <v>1256717.416617142</v>
       </c>
     </row>
     <row r="15">
@@ -8079,10 +8079,10 @@
         <v>979519.0212297447</v>
       </c>
       <c r="C15" t="n">
-        <v>997809.2744955068</v>
+        <v>1000308.356583744</v>
       </c>
       <c r="D15" t="n">
-        <v>1199002.060418891</v>
+        <v>1228991.045477739</v>
       </c>
     </row>
     <row r="16">
@@ -8093,10 +8093,10 @@
         <v>1039223.304268836</v>
       </c>
       <c r="C16" t="n">
-        <v>1056361.075888947</v>
+        <v>1058201.303738238</v>
       </c>
       <c r="D16" t="n">
-        <v>1244876.56371017</v>
+        <v>1266959.297901655</v>
       </c>
     </row>
     <row r="17">
@@ -8107,10 +8107,10 @@
         <v>913232.0334501064</v>
       </c>
       <c r="C17" t="n">
-        <v>933168.5185135608</v>
+        <v>936310.0554953732</v>
       </c>
       <c r="D17" t="n">
-        <v>1152469.854211559</v>
+        <v>1190168.297993307</v>
       </c>
     </row>
     <row r="18">
@@ -8121,10 +8121,10 @@
         <v>844309.5314834224</v>
       </c>
       <c r="C18" t="n">
-        <v>865721.82642568</v>
+        <v>868581.3894210079</v>
       </c>
       <c r="D18" t="n">
-        <v>1101257.070790514</v>
+        <v>1135571.826734449</v>
       </c>
     </row>
     <row r="19">
@@ -8135,10 +8135,10 @@
         <v>1021645.141915679</v>
       </c>
       <c r="C19" t="n">
-        <v>1033610.957179911</v>
+        <v>1037113.456399013</v>
       </c>
       <c r="D19" t="n">
-        <v>1165234.925086463</v>
+        <v>1207264.915715695</v>
       </c>
     </row>
     <row r="20">
@@ -8149,10 +8149,10 @@
         <v>946602.0188888895</v>
       </c>
       <c r="C20" t="n">
-        <v>956483.2289192474</v>
+        <v>960713.3982457693</v>
       </c>
       <c r="D20" t="n">
-        <v>1065176.539253185</v>
+        <v>1115938.571171448</v>
       </c>
     </row>
     <row r="21">
@@ -8163,10 +8163,10 @@
         <v>1034337.788137424</v>
       </c>
       <c r="C21" t="n">
-        <v>1042663.227217984</v>
+        <v>1046688.681420568</v>
       </c>
       <c r="D21" t="n">
-        <v>1134243.057104141</v>
+        <v>1182548.50753516</v>
       </c>
     </row>
     <row r="22">
@@ -8177,10 +8177,10 @@
         <v>1076034.125668235</v>
       </c>
       <c r="C22" t="n">
-        <v>1085915.962522621</v>
+        <v>1089544.7959709</v>
       </c>
       <c r="D22" t="n">
-        <v>1194616.167920876</v>
+        <v>1238162.169300223</v>
       </c>
     </row>
     <row r="23">
@@ -8191,10 +8191,10 @@
         <v>1134555.158472738</v>
       </c>
       <c r="C23" t="n">
-        <v>1145479.013505906</v>
+        <v>1146501.185672936</v>
       </c>
       <c r="D23" t="n">
-        <v>1265641.418870761</v>
+        <v>1277907.484875117</v>
       </c>
     </row>
     <row r="24">
@@ -8205,10 +8205,10 @@
         <v>1031493.865847124</v>
       </c>
       <c r="C24" t="n">
-        <v>1044869.873292087</v>
+        <v>1048346.446925724</v>
       </c>
       <c r="D24" t="n">
-        <v>1192005.955186675</v>
+        <v>1233724.838790325</v>
       </c>
     </row>
     <row r="25">
@@ -8219,10 +8219,10 @@
         <v>831354.5510622642</v>
       </c>
       <c r="C25" t="n">
-        <v>854308.3705977168</v>
+        <v>858351.8013287224</v>
       </c>
       <c r="D25" t="n">
-        <v>1106800.385487695</v>
+        <v>1155321.554259762</v>
       </c>
     </row>
     <row r="26">
@@ -8233,10 +8233,10 @@
         <v>976357.0027499916</v>
       </c>
       <c r="C26" t="n">
-        <v>997000.3931376662</v>
+        <v>999821.8751323802</v>
       </c>
       <c r="D26" t="n">
-        <v>1224077.687402087</v>
+        <v>1257935.471338656</v>
       </c>
     </row>
     <row r="27">
@@ -8247,10 +8247,10 @@
         <v>937766.8226765177</v>
       </c>
       <c r="C27" t="n">
-        <v>958947.8869833163</v>
+        <v>962705.6663479205</v>
       </c>
       <c r="D27" t="n">
-        <v>1191939.594358101</v>
+        <v>1237032.946733352</v>
       </c>
     </row>
     <row r="28">
@@ -8261,10 +8261,10 @@
         <v>1000264.359884916</v>
       </c>
       <c r="C28" t="n">
-        <v>1019843.538310464</v>
+        <v>1022927.551764823</v>
       </c>
       <c r="D28" t="n">
-        <v>1235214.500991492</v>
+        <v>1272222.662443791</v>
       </c>
     </row>
     <row r="29">
@@ -8275,10 +8275,10 @@
         <v>870637.0820465512</v>
       </c>
       <c r="C29" t="n">
-        <v>893787.3140862656</v>
+        <v>897796.0797123673</v>
       </c>
       <c r="D29" t="n">
-        <v>1148439.866523126</v>
+        <v>1196545.054036345</v>
       </c>
     </row>
     <row r="30">
@@ -8289,10 +8289,10 @@
         <v>802274.0844835463</v>
       </c>
       <c r="C30" t="n">
-        <v>827086.9603387244</v>
+        <v>831201.5379349175</v>
       </c>
       <c r="D30" t="n">
-        <v>1100028.594745684</v>
+        <v>1149403.525900002</v>
       </c>
     </row>
     <row r="31">
@@ -8303,10 +8303,10 @@
         <v>1004246.384669165</v>
       </c>
       <c r="C31" t="n">
-        <v>1017302.554527575</v>
+        <v>1021800.99402364</v>
       </c>
       <c r="D31" t="n">
-        <v>1160920.422970089</v>
+        <v>1214901.696922868</v>
       </c>
     </row>
     <row r="32">
@@ -8317,10 +8317,10 @@
         <v>897442.4182520788</v>
       </c>
       <c r="C32" t="n">
-        <v>911521.3770484995</v>
+        <v>916643.5573440109</v>
       </c>
       <c r="D32" t="n">
-        <v>1066389.923809128</v>
+        <v>1127856.087355265</v>
       </c>
     </row>
     <row r="33">
@@ -8331,10 +8331,10 @@
         <v>975604.4323480254</v>
       </c>
       <c r="C33" t="n">
-        <v>988638.3611859469</v>
+        <v>993743.320201334</v>
       </c>
       <c r="D33" t="n">
-        <v>1132011.578403084</v>
+        <v>1193271.086587729</v>
       </c>
     </row>
     <row r="34">
@@ -8345,10 +8345,10 @@
         <v>1032605.251593481</v>
       </c>
       <c r="C34" t="n">
-        <v>1045645.845589096</v>
+        <v>1050173.91515396</v>
       </c>
       <c r="D34" t="n">
-        <v>1189092.379540866</v>
+        <v>1243429.214319233</v>
       </c>
     </row>
     <row r="35">
@@ -8359,10 +8359,10 @@
         <v>1094105.625289167</v>
       </c>
       <c r="C35" t="n">
-        <v>1107638.664604419</v>
+        <v>1109680.651649702</v>
       </c>
       <c r="D35" t="n">
-        <v>1256502.097072194</v>
+        <v>1281005.941615591</v>
       </c>
     </row>
     <row r="36">
@@ -8373,10 +8373,10 @@
         <v>999788.0468959517</v>
       </c>
       <c r="C36" t="n">
-        <v>1015386.94964506</v>
+        <v>1019881.213732417</v>
       </c>
       <c r="D36" t="n">
-        <v>1186974.879885253</v>
+        <v>1240906.048933539</v>
       </c>
     </row>
     <row r="37">
@@ -8387,10 +8387,10 @@
         <v>790548.9054309719</v>
       </c>
       <c r="C37" t="n">
-        <v>816896.0424463733</v>
+        <v>821788.2987440826</v>
       </c>
       <c r="D37" t="n">
-        <v>1106714.549615789</v>
+        <v>1165421.625188301</v>
       </c>
     </row>
     <row r="38">
@@ -8401,10 +8401,10 @@
         <v>931118.3196223878</v>
       </c>
       <c r="C38" t="n">
-        <v>954990.5788766046</v>
+        <v>958751.5760414286</v>
       </c>
       <c r="D38" t="n">
-        <v>1217585.430672991</v>
+        <v>1262717.396650878</v>
       </c>
     </row>
     <row r="39">
@@ -8415,10 +8415,10 @@
         <v>893348.28025191</v>
       </c>
       <c r="C39" t="n">
-        <v>917854.8205345005</v>
+        <v>922531.8969961777</v>
       </c>
       <c r="D39" t="n">
-        <v>1187426.763642997</v>
+        <v>1243551.681183124</v>
       </c>
     </row>
   </sheetData>

--- a/fcst_results/with_outlier_detection_series_IAH-Dom_results.xlsx
+++ b/fcst_results/with_outlier_detection_series_IAH-Dom_results.xlsx
@@ -1241,7 +1241,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>272590.5854320386</v>
+        <v>258746.209792775</v>
       </c>
       <c r="S2" t="n">
         <v>182936.3018116131</v>
@@ -1330,7 +1330,7 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>386996.3178976484</v>
+        <v>332183.5313170815</v>
       </c>
       <c r="S3" t="n">
         <v>169345.8559923832</v>
@@ -1437,7 +1437,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>229679.4364574631</v>
+        <v>136303.312782039</v>
       </c>
       <c r="S4" t="n">
         <v>124543.9399948274</v>

--- a/fcst_results/with_outlier_detection_series_IAH-Dom_results.xlsx
+++ b/fcst_results/with_outlier_detection_series_IAH-Dom_results.xlsx
@@ -1241,7 +1241,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>258746.209792775</v>
+        <v>386400.7947097817</v>
       </c>
       <c r="S2" t="n">
         <v>182936.3018116131</v>
@@ -1330,7 +1330,7 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>332183.5313170815</v>
+        <v>313840.8516293234</v>
       </c>
       <c r="S3" t="n">
         <v>169345.8559923832</v>
@@ -1437,7 +1437,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>136303.312782039</v>
+        <v>287378.8663099927</v>
       </c>
       <c r="S4" t="n">
         <v>124543.9399948274</v>
